--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\4月报表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{99100F34-7173-4FC1-903F-3A22D3DD00B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D693D6C8-D5D0-4121-8A9B-E0E63E67ED7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-2" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="160">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -586,6 +586,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -10609,10 +10610,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45094E09-CFC8-4C02-AD04-1EDD09790BAD}">
-  <dimension ref="A1:BI41"/>
+  <dimension ref="A1:BI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10636,184 +10637,220 @@
     <col min="20" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:61" ht="20.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+    </row>
+    <row r="2" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A2" s="23">
+        <v>43196</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="9">
+        <v>708</v>
+      </c>
+      <c r="D2" s="9">
+        <v>718</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="22" t="str">
+        <f t="shared" ref="L2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="10" t="str">
+        <f>VLOOKUP(N2,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f t="shared" ref="O2" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P2" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="28">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-    </row>
-    <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="28">
+        <f t="shared" ref="R2" si="2">SUM(P2:Q2)</f>
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
+      <c r="S2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A3" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="9">
-        <v>428</v>
+        <v>621</v>
       </c>
       <c r="D3" s="9">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>100</v>
@@ -10828,23 +10865,23 @@
         <v>134</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="18"/>
       <c r="L3" s="22" t="str">
-        <f t="shared" ref="L3:L14" si="0">IF(A3&lt;&gt;"","武汉威伟机械","-----")</f>
+        <f t="shared" ref="L3" si="3">IF(A3&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M3" s="10" t="str">
         <f>VLOOKUP(N3,ch!A:B,2,FALSE)</f>
-        <v>鄂AZV373</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O3" s="22" t="str">
-        <f t="shared" ref="O3:O14" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="O3" si="4">IF(A3&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P3" s="28">
@@ -10854,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="28">
-        <f t="shared" ref="R3:R14" si="2">SUM(P3:Q3)</f>
+        <f t="shared" ref="R3" si="5">SUM(P3:Q3)</f>
         <v>14</v>
       </c>
       <c r="S3" s="22" t="s">
@@ -10905,16 +10942,16 @@
     </row>
     <row r="4" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A4" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="9">
-        <v>624</v>
+        <v>535</v>
       </c>
       <c r="D4" s="9">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>100</v>
@@ -10929,23 +10966,23 @@
         <v>134</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="18"/>
       <c r="L4" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L4" si="6">IF(A4&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M4" s="10" t="str">
         <f>VLOOKUP(N4,ch!A:B,2,FALSE)</f>
-        <v>鄂AZV373</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O4" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O4" si="7">IF(A4&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P4" s="28">
@@ -10955,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R4" si="8">SUM(P4:Q4)</f>
         <v>14</v>
       </c>
       <c r="S4" s="22" t="s">
@@ -11006,16 +11043,16 @@
     </row>
     <row r="5" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A5" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="9">
-        <v>246</v>
+        <v>458</v>
       </c>
       <c r="D5" s="9">
-        <v>256</v>
+        <v>508</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>100</v>
@@ -11030,23 +11067,23 @@
         <v>134</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
       <c r="L5" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L5" si="9">IF(A5&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M5" s="10" t="str">
         <f>VLOOKUP(N5,ch!A:B,2,FALSE)</f>
-        <v>鄂AZV373</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O5" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O5" si="10">IF(A5&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P5" s="28">
@@ -11056,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R5" si="11">SUM(P5:Q5)</f>
         <v>14</v>
       </c>
       <c r="S5" s="22" t="s">
@@ -11107,16 +11144,16 @@
     </row>
     <row r="6" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A6" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="D6" s="9">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>100</v>
@@ -11131,23 +11168,23 @@
         <v>134</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="18"/>
       <c r="L6" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L6" si="12">IF(A6&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M6" s="10" t="str">
         <f>VLOOKUP(N6,ch!A:B,2,FALSE)</f>
-        <v>鄂AZV373</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O6" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O6" si="13">IF(A6&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P6" s="28">
@@ -11157,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R6" si="14">SUM(P6:Q6)</f>
         <v>14</v>
       </c>
       <c r="S6" s="22" t="s">
@@ -11208,16 +11245,16 @@
     </row>
     <row r="7" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A7" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="9">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="D7" s="9">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>100</v>
@@ -11232,23 +11269,23 @@
         <v>134</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
       <c r="L7" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L7" si="15">IF(A7&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M7" s="10" t="str">
         <f>VLOOKUP(N7,ch!A:B,2,FALSE)</f>
-        <v>鄂AZV373</v>
+        <v>鄂ABY277</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O7" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O7" si="16">IF(A7&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P7" s="28">
@@ -11258,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R7" si="17">SUM(P7:Q7)</f>
         <v>14</v>
       </c>
       <c r="S7" s="22" t="s">
@@ -11309,16 +11346,16 @@
     </row>
     <row r="8" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A8" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="9">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="D8" s="9">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>100</v>
@@ -11333,12 +11370,12 @@
         <v>134</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="18"/>
       <c r="L8" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L8" si="18">IF(A8&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M8" s="10" t="str">
@@ -11349,7 +11386,7 @@
         <v>102</v>
       </c>
       <c r="O8" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O8" si="19">IF(A8&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P8" s="28">
@@ -11359,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R8" si="20">SUM(P8:Q8)</f>
         <v>14</v>
       </c>
       <c r="S8" s="22" t="s">
@@ -11410,16 +11447,16 @@
     </row>
     <row r="9" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A9" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="9">
-        <v>516</v>
+        <v>212</v>
       </c>
       <c r="D9" s="9">
-        <v>526</v>
+        <v>222</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>100</v>
@@ -11434,12 +11471,12 @@
         <v>134</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="18"/>
       <c r="L9" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L9" si="21">IF(A9&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M9" s="10" t="str">
@@ -11450,7 +11487,7 @@
         <v>102</v>
       </c>
       <c r="O9" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O9" si="22">IF(A9&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P9" s="28">
@@ -11460,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R9" si="23">SUM(P9:Q9)</f>
         <v>14</v>
       </c>
       <c r="S9" s="22" t="s">
@@ -11511,16 +11548,16 @@
     </row>
     <row r="10" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A10" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="9">
-        <v>653</v>
+        <v>1115</v>
       </c>
       <c r="D10" s="9">
-        <v>703</v>
+        <v>125</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>100</v>
@@ -11535,12 +11572,12 @@
         <v>134</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="18"/>
       <c r="L10" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L10" si="24">IF(A10&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M10" s="10" t="str">
@@ -11551,7 +11588,7 @@
         <v>102</v>
       </c>
       <c r="O10" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O10" si="25">IF(A10&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P10" s="28">
@@ -11561,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R10" si="26">SUM(P10:Q10)</f>
         <v>14</v>
       </c>
       <c r="S10" s="22" t="s">
@@ -11612,16 +11649,16 @@
     </row>
     <row r="11" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A11" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="9">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="D11" s="9">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>100</v>
@@ -11636,12 +11673,12 @@
         <v>134</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="18"/>
       <c r="L11" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L11" si="27">IF(A11&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M11" s="10" t="str">
@@ -11652,7 +11689,7 @@
         <v>102</v>
       </c>
       <c r="O11" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O11" si="28">IF(A11&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P11" s="28">
@@ -11662,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R11" si="29">SUM(P11:Q11)</f>
         <v>14</v>
       </c>
       <c r="S11" s="22" t="s">
@@ -11713,16 +11750,16 @@
     </row>
     <row r="12" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A12" s="23">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="9">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>100</v>
@@ -11737,12 +11774,12 @@
         <v>134</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="18"/>
       <c r="L12" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L12" si="30">IF(A12&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M12" s="10" t="str">
@@ -11753,7 +11790,7 @@
         <v>102</v>
       </c>
       <c r="O12" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O12" si="31">IF(A12&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P12" s="28">
@@ -11763,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R12" si="32">SUM(P12:Q12)</f>
         <v>14</v>
       </c>
       <c r="S12" s="22" t="s">
@@ -11813,63 +11850,25 @@
       <c r="BI12" s="14"/>
     </row>
     <row r="13" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A13" s="23">
-        <v>43194</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>11</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="A13" s="23"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M13" s="10" t="str">
-        <f>VLOOKUP(N13,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="P13" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>0</v>
-      </c>
-      <c r="R13" s="28">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -11914,63 +11913,25 @@
       <c r="BI13" s="14"/>
     </row>
     <row r="14" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A14" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="9">
-        <v>708</v>
-      </c>
-      <c r="D14" s="9">
-        <v>718</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="A14" s="23"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="22" t="str">
-        <f t="shared" ref="L14" si="3">IF(A14&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M14" s="10" t="str">
-        <f>VLOOKUP(N14,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="22" t="str">
-        <f t="shared" ref="O14" si="4">IF(A14&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P14" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>0</v>
-      </c>
-      <c r="R14" s="28">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="S14" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
@@ -12015,63 +11976,25 @@
       <c r="BI14" s="14"/>
     </row>
     <row r="15" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A15" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="9">
-        <v>621</v>
-      </c>
-      <c r="D15" s="9">
-        <v>631</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>150</v>
-      </c>
+      <c r="A15" s="23"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="22" t="str">
-        <f t="shared" ref="L15" si="5">IF(A15&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M15" s="10" t="str">
-        <f>VLOOKUP(N15,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="22" t="str">
-        <f t="shared" ref="O15" si="6">IF(A15&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P15" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="28">
-        <v>0</v>
-      </c>
-      <c r="R15" s="28">
-        <f t="shared" ref="R15" si="7">SUM(P15:Q15)</f>
-        <v>14</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
@@ -12116,63 +12039,25 @@
       <c r="BI15" s="14"/>
     </row>
     <row r="16" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A16" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="9">
-        <v>535</v>
-      </c>
-      <c r="D16" s="9">
-        <v>545</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="A16" s="23"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="22" t="str">
-        <f t="shared" ref="L16" si="8">IF(A16&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M16" s="10" t="str">
-        <f>VLOOKUP(N16,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="22" t="str">
-        <f t="shared" ref="O16" si="9">IF(A16&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P16" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="28">
-        <v>0</v>
-      </c>
-      <c r="R16" s="28">
-        <f t="shared" ref="R16" si="10">SUM(P16:Q16)</f>
-        <v>14</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="22"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
@@ -12217,63 +12102,25 @@
       <c r="BI16" s="14"/>
     </row>
     <row r="17" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A17" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="9">
-        <v>458</v>
-      </c>
-      <c r="D17" s="9">
-        <v>508</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="A17" s="23"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="22" t="str">
-        <f t="shared" ref="L17" si="11">IF(A17&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M17" s="10" t="str">
-        <f>VLOOKUP(N17,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O17" s="22" t="str">
-        <f t="shared" ref="O17" si="12">IF(A17&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P17" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="28">
-        <v>0</v>
-      </c>
-      <c r="R17" s="28">
-        <f t="shared" ref="R17" si="13">SUM(P17:Q17)</f>
-        <v>14</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
@@ -12318,63 +12165,25 @@
       <c r="BI17" s="14"/>
     </row>
     <row r="18" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A18" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="9">
-        <v>415</v>
-      </c>
-      <c r="D18" s="9">
-        <v>425</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>153</v>
-      </c>
+      <c r="A18" s="23"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="22" t="str">
-        <f t="shared" ref="L18" si="14">IF(A18&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M18" s="10" t="str">
-        <f>VLOOKUP(N18,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" s="22" t="str">
-        <f t="shared" ref="O18" si="15">IF(A18&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P18" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="28">
-        <v>0</v>
-      </c>
-      <c r="R18" s="28">
-        <f t="shared" ref="R18" si="16">SUM(P18:Q18)</f>
-        <v>14</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="22"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -12419,63 +12228,25 @@
       <c r="BI18" s="14"/>
     </row>
     <row r="19" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A19" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="9">
-        <v>336</v>
-      </c>
-      <c r="D19" s="9">
-        <v>346</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="A19" s="23"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="22" t="str">
-        <f t="shared" ref="L19" si="17">IF(A19&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M19" s="10" t="str">
-        <f>VLOOKUP(N19,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="22" t="str">
-        <f t="shared" ref="O19" si="18">IF(A19&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P19" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>0</v>
-      </c>
-      <c r="R19" s="28">
-        <f t="shared" ref="R19" si="19">SUM(P19:Q19)</f>
-        <v>14</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
@@ -12520,63 +12291,25 @@
       <c r="BI19" s="14"/>
     </row>
     <row r="20" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A20" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="9">
-        <v>255</v>
-      </c>
-      <c r="D20" s="9">
-        <v>305</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>155</v>
-      </c>
+      <c r="A20" s="23"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="22" t="str">
-        <f t="shared" ref="L20" si="20">IF(A20&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M20" s="10" t="str">
-        <f>VLOOKUP(N20,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="22" t="str">
-        <f t="shared" ref="O20" si="21">IF(A20&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P20" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>0</v>
-      </c>
-      <c r="R20" s="28">
-        <f t="shared" ref="R20" si="22">SUM(P20:Q20)</f>
-        <v>14</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="22"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
@@ -12621,63 +12354,25 @@
       <c r="BI20" s="14"/>
     </row>
     <row r="21" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A21" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="9">
-        <v>212</v>
-      </c>
-      <c r="D21" s="9">
-        <v>222</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>156</v>
-      </c>
+      <c r="A21" s="23"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="22" t="str">
-        <f t="shared" ref="L21" si="23">IF(A21&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M21" s="10" t="str">
-        <f>VLOOKUP(N21,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="22" t="str">
-        <f t="shared" ref="O21" si="24">IF(A21&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P21" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>0</v>
-      </c>
-      <c r="R21" s="28">
-        <f t="shared" ref="R21" si="25">SUM(P21:Q21)</f>
-        <v>14</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
@@ -12722,63 +12417,25 @@
       <c r="BI21" s="14"/>
     </row>
     <row r="22" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A22" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1115</v>
-      </c>
-      <c r="D22" s="9">
-        <v>125</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="A22" s="23"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="22" t="str">
-        <f t="shared" ref="L22" si="26">IF(A22&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M22" s="10" t="str">
-        <f>VLOOKUP(N22,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="22" t="str">
-        <f t="shared" ref="O22" si="27">IF(A22&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P22" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="28">
-        <v>0</v>
-      </c>
-      <c r="R22" s="28">
-        <f t="shared" ref="R22" si="28">SUM(P22:Q22)</f>
-        <v>14</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="22"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -12823,63 +12480,25 @@
       <c r="BI22" s="14"/>
     </row>
     <row r="23" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A23" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="9">
-        <v>38</v>
-      </c>
-      <c r="D23" s="9">
-        <v>48</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>158</v>
-      </c>
+      <c r="A23" s="23"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="22" t="str">
-        <f t="shared" ref="L23" si="29">IF(A23&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M23" s="10" t="str">
-        <f>VLOOKUP(N23,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O23" s="22" t="str">
-        <f t="shared" ref="O23" si="30">IF(A23&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P23" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="28">
-        <v>0</v>
-      </c>
-      <c r="R23" s="28">
-        <f t="shared" ref="R23" si="31">SUM(P23:Q23)</f>
-        <v>14</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="22"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -12924,63 +12543,25 @@
       <c r="BI23" s="14"/>
     </row>
     <row r="24" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A24" s="23">
-        <v>43196</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>11</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="A24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="22" t="str">
-        <f t="shared" ref="L24" si="32">IF(A24&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M24" s="10" t="str">
-        <f>VLOOKUP(N24,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O24" s="22" t="str">
-        <f t="shared" ref="O24" si="33">IF(A24&lt;&gt;"","9.6米","---")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="P24" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="28">
-        <v>0</v>
-      </c>
-      <c r="R24" s="28">
-        <f t="shared" ref="R24" si="34">SUM(P24:Q24)</f>
-        <v>14</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L24" s="22"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="22"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
@@ -13339,766 +12920,7 @@
       <c r="BH29" s="14"/>
       <c r="BI29" s="14"/>
     </row>
-    <row r="30" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A30" s="23"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-    </row>
-    <row r="31" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A31" s="23"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="14"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="14"/>
-      <c r="BI31" s="14"/>
-    </row>
-    <row r="32" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="14"/>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="14"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="14"/>
-      <c r="BB32" s="14"/>
-      <c r="BC32" s="14"/>
-      <c r="BD32" s="14"/>
-      <c r="BE32" s="14"/>
-      <c r="BF32" s="14"/>
-      <c r="BG32" s="14"/>
-      <c r="BH32" s="14"/>
-      <c r="BI32" s="14"/>
-    </row>
-    <row r="33" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A33" s="23"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="14"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="14"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="14"/>
-      <c r="BI33" s="14"/>
-    </row>
-    <row r="34" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A34" s="23"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-    </row>
-    <row r="35" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A35" s="23"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
-      <c r="AT35" s="14"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="14"/>
-      <c r="AW35" s="14"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="14"/>
-      <c r="BC35" s="14"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="14"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="14"/>
-      <c r="BI35" s="14"/>
-    </row>
-    <row r="36" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A36" s="23"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="14"/>
-      <c r="AU36" s="14"/>
-      <c r="AV36" s="14"/>
-      <c r="AW36" s="14"/>
-      <c r="AX36" s="14"/>
-      <c r="AY36" s="14"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="14"/>
-      <c r="BB36" s="14"/>
-      <c r="BC36" s="14"/>
-      <c r="BD36" s="14"/>
-      <c r="BE36" s="14"/>
-      <c r="BF36" s="14"/>
-      <c r="BG36" s="14"/>
-      <c r="BH36" s="14"/>
-      <c r="BI36" s="14"/>
-    </row>
-    <row r="37" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A37" s="23"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="14"/>
-      <c r="AR37" s="14"/>
-      <c r="AS37" s="14"/>
-      <c r="AT37" s="14"/>
-      <c r="AU37" s="14"/>
-      <c r="AV37" s="14"/>
-      <c r="AW37" s="14"/>
-      <c r="AX37" s="14"/>
-      <c r="AY37" s="14"/>
-      <c r="AZ37" s="14"/>
-      <c r="BA37" s="14"/>
-      <c r="BB37" s="14"/>
-      <c r="BC37" s="14"/>
-      <c r="BD37" s="14"/>
-      <c r="BE37" s="14"/>
-      <c r="BF37" s="14"/>
-      <c r="BG37" s="14"/>
-      <c r="BH37" s="14"/>
-      <c r="BI37" s="14"/>
-    </row>
-    <row r="38" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A38" s="23"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AO38" s="14"/>
-      <c r="AP38" s="14"/>
-      <c r="AQ38" s="14"/>
-      <c r="AR38" s="14"/>
-      <c r="AS38" s="14"/>
-      <c r="AT38" s="14"/>
-      <c r="AU38" s="14"/>
-      <c r="AV38" s="14"/>
-      <c r="AW38" s="14"/>
-      <c r="AX38" s="14"/>
-      <c r="AY38" s="14"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="14"/>
-      <c r="BC38" s="14"/>
-      <c r="BD38" s="14"/>
-      <c r="BE38" s="14"/>
-      <c r="BF38" s="14"/>
-      <c r="BG38" s="14"/>
-      <c r="BH38" s="14"/>
-      <c r="BI38" s="14"/>
-    </row>
-    <row r="39" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A39" s="23"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="14"/>
-      <c r="AN39" s="14"/>
-      <c r="AO39" s="14"/>
-      <c r="AP39" s="14"/>
-      <c r="AQ39" s="14"/>
-      <c r="AR39" s="14"/>
-      <c r="AS39" s="14"/>
-      <c r="AT39" s="14"/>
-      <c r="AU39" s="14"/>
-      <c r="AV39" s="14"/>
-      <c r="AW39" s="14"/>
-      <c r="AX39" s="14"/>
-      <c r="AY39" s="14"/>
-      <c r="AZ39" s="14"/>
-      <c r="BA39" s="14"/>
-      <c r="BB39" s="14"/>
-      <c r="BC39" s="14"/>
-      <c r="BD39" s="14"/>
-      <c r="BE39" s="14"/>
-      <c r="BF39" s="14"/>
-      <c r="BG39" s="14"/>
-      <c r="BH39" s="14"/>
-      <c r="BI39" s="14"/>
-    </row>
-    <row r="40" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A40" s="23"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
-      <c r="AU40" s="14"/>
-      <c r="AV40" s="14"/>
-      <c r="AW40" s="14"/>
-      <c r="AX40" s="14"/>
-      <c r="AY40" s="14"/>
-      <c r="AZ40" s="14"/>
-      <c r="BA40" s="14"/>
-      <c r="BB40" s="14"/>
-      <c r="BC40" s="14"/>
-      <c r="BD40" s="14"/>
-      <c r="BE40" s="14"/>
-      <c r="BF40" s="14"/>
-      <c r="BG40" s="14"/>
-      <c r="BH40" s="14"/>
-      <c r="BI40" s="14"/>
-    </row>
-    <row r="41" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A41" s="23"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="14"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="14"/>
-      <c r="AW41" s="14"/>
-      <c r="AX41" s="14"/>
-      <c r="AY41" s="14"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="14"/>
-      <c r="BB41" s="14"/>
-      <c r="BC41" s="14"/>
-      <c r="BD41" s="14"/>
-      <c r="BE41" s="14"/>
-      <c r="BF41" s="14"/>
-      <c r="BG41" s="14"/>
-      <c r="BH41" s="14"/>
-      <c r="BI41" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D693D6C8-D5D0-4121-8A9B-E0E63E67ED7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F01FC719-B4A1-4846-B543-7F56C88D157F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-2" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="181">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -389,9 +389,6 @@
     <t>17717</t>
   </si>
   <si>
-    <t>17714</t>
-  </si>
-  <si>
     <t>17712</t>
   </si>
   <si>
@@ -553,6 +550,94 @@
   </si>
   <si>
     <t>17667</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17663</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17664</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17662</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17724</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17679</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17681</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17684</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17690</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17699</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17695</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17687</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19174</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17661</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17653</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19175</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17714</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17658</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17656</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17654</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17652</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17660</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17655</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +650,7 @@
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +744,13 @@
       <sz val="16"/>
       <name val="楷体_GB2312"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -790,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +984,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1253,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI25"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1267,7 +1365,8 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
@@ -1396,7 +1495,7 @@
         <v>99</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>87</v>
@@ -1405,9 +1504,11 @@
         <v>89</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="26"/>
       <c r="K2" s="27"/>
       <c r="L2" s="22" t="s">
         <v>20</v>
@@ -1493,7 +1594,7 @@
         <v>87</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>87</v>
@@ -1502,9 +1603,11 @@
         <v>89</v>
       </c>
       <c r="I3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="26"/>
       <c r="K3" s="27"/>
       <c r="L3" s="22" t="s">
         <v>20</v>
@@ -1590,7 +1693,7 @@
         <v>87</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>87</v>
@@ -1599,9 +1702,11 @@
         <v>89</v>
       </c>
       <c r="I4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="26"/>
       <c r="K4" s="27"/>
       <c r="L4" s="22" t="s">
         <v>20</v>
@@ -1687,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>87</v>
@@ -1696,7 +1801,7 @@
         <v>89</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
@@ -1784,7 +1889,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>87</v>
@@ -1793,7 +1898,7 @@
         <v>89</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="27"/>
@@ -1881,7 +1986,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>87</v>
@@ -1890,7 +1995,7 @@
         <v>89</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="27"/>
@@ -1978,7 +2083,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>87</v>
@@ -1987,7 +2092,7 @@
         <v>89</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="27"/>
@@ -2075,7 +2180,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>87</v>
@@ -2084,7 +2189,7 @@
         <v>89</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="27"/>
@@ -2172,7 +2277,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>87</v>
@@ -2181,7 +2286,7 @@
         <v>89</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="27"/>
@@ -2269,7 +2374,7 @@
         <v>87</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>87</v>
@@ -2278,9 +2383,11 @@
         <v>89</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>171</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>118</v>
+      </c>
       <c r="K11" s="27"/>
       <c r="L11" s="22" t="s">
         <v>20</v>
@@ -2324,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>87</v>
@@ -2333,9 +2440,11 @@
         <v>89</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>175</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="K12" s="27"/>
       <c r="L12" s="22" t="s">
         <v>20</v>
@@ -2379,7 +2488,7 @@
         <v>87</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>87</v>
@@ -2388,9 +2497,11 @@
         <v>89</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>176</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>120</v>
+      </c>
       <c r="K13" s="27"/>
       <c r="L13" s="22" t="s">
         <v>20</v>
@@ -2434,7 +2545,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>87</v>
@@ -2443,7 +2554,7 @@
         <v>89</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="27"/>
@@ -2489,7 +2600,7 @@
         <v>99</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>87</v>
@@ -2498,7 +2609,7 @@
         <v>89</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="27"/>
@@ -2544,7 +2655,7 @@
         <v>99</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>87</v>
@@ -2553,7 +2664,7 @@
         <v>89</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="27"/>
@@ -2599,7 +2710,7 @@
         <v>99</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>87</v>
@@ -2608,7 +2719,7 @@
         <v>89</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="27"/>
@@ -2654,7 +2765,7 @@
         <v>99</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>87</v>
@@ -2663,9 +2774,11 @@
         <v>89</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="26"/>
+        <v>177</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="K18" s="27"/>
       <c r="L18" s="22" t="s">
         <v>20</v>
@@ -2709,7 +2822,7 @@
         <v>99</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>87</v>
@@ -2718,7 +2831,7 @@
         <v>89</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="27"/>
@@ -2764,7 +2877,7 @@
         <v>99</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>87</v>
@@ -2773,7 +2886,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="27"/>
@@ -2819,7 +2932,7 @@
         <v>99</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>87</v>
@@ -2828,9 +2941,11 @@
         <v>89</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="K21" s="27"/>
       <c r="L21" s="22" t="s">
         <v>20</v>
@@ -2874,7 +2989,7 @@
         <v>99</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>87</v>
@@ -2883,9 +2998,11 @@
         <v>89</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="26"/>
+        <v>179</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="K22" s="27"/>
       <c r="L22" s="22" t="s">
         <v>20</v>
@@ -2929,7 +3046,7 @@
         <v>99</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>87</v>
@@ -2938,9 +3055,11 @@
         <v>89</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>180</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="K23" s="27"/>
       <c r="L23" s="22" t="s">
         <v>20</v>
@@ -2984,7 +3103,7 @@
         <v>99</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>87</v>
@@ -2993,7 +3112,7 @@
         <v>89</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="27"/>
@@ -3039,7 +3158,7 @@
         <v>99</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>87</v>
@@ -3048,7 +3167,7 @@
         <v>89</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="27"/>
@@ -3080,6 +3199,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3087,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3100,9 +3220,9 @@
     <col min="6" max="6" width="30.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6.25" bestFit="1" customWidth="1"/>
@@ -3294,7 +3414,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>88</v>
@@ -3303,9 +3423,11 @@
         <v>90</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="12"/>
       <c r="K3" s="18"/>
       <c r="L3" s="15" t="str">
         <f t="shared" ref="L3:L17" si="0">IF(A3&lt;&gt;"","武汉威伟机械","-----")</f>
@@ -3319,7 +3441,7 @@
         <v>92</v>
       </c>
       <c r="O3" s="15" t="str">
-        <f t="shared" ref="O3:O17" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="O3:O18" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P3" s="17">
@@ -3329,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="17">
-        <f t="shared" ref="R3:R17" si="2">SUM(P3:Q3)</f>
+        <f t="shared" ref="R3:R18" si="2">SUM(P3:Q3)</f>
         <v>14</v>
       </c>
       <c r="S3" s="15" t="s">
@@ -3395,7 +3517,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>88</v>
@@ -3404,9 +3526,11 @@
         <v>90</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="12"/>
       <c r="K4" s="18"/>
       <c r="L4" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3496,7 +3620,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>88</v>
@@ -3597,7 +3721,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>88</v>
@@ -3698,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>88</v>
@@ -3799,7 +3923,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>88</v>
@@ -3808,9 +3932,11 @@
         <v>90</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="12"/>
       <c r="K8" s="18"/>
       <c r="L8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3900,7 +4026,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>88</v>
@@ -4001,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>88</v>
@@ -4102,7 +4228,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>88</v>
@@ -4203,7 +4329,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>88</v>
@@ -4304,7 +4430,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>88</v>
@@ -4405,7 +4531,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>88</v>
@@ -4506,7 +4632,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>88</v>
@@ -4607,7 +4733,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>88</v>
@@ -4708,7 +4834,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>88</v>
@@ -4793,25 +4919,63 @@
       <c r="BI17" s="14"/>
     </row>
     <row r="18" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="9">
+        <v>26</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="15"/>
+      <c r="L18" s="22" t="str">
+        <f t="shared" ref="L18" si="3">IF(A18&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M18" s="10" t="str">
+        <f>VLOOKUP(N18,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P18" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -4856,24 +5020,60 @@
       <c r="BI18" s="14"/>
     </row>
     <row r="19" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="9">
+        <v>140</v>
+      </c>
+      <c r="D19" s="9">
+        <v>150</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
+      <c r="L19" s="22" t="str">
+        <f t="shared" ref="L19" si="4">IF(A19&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M19" s="10" t="str">
+        <f>VLOOKUP(N19,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f t="shared" ref="O19" si="5">IF(A19&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P19" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>0</v>
+      </c>
+      <c r="R19" s="28">
+        <f t="shared" ref="R19" si="6">SUM(P19:Q19)</f>
+        <v>14</v>
+      </c>
       <c r="S19" s="15"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
@@ -4919,25 +5119,61 @@
       <c r="BI19" s="14"/>
     </row>
     <row r="20" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="9">
+        <v>228</v>
+      </c>
+      <c r="D20" s="9">
+        <v>238</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="15"/>
+      <c r="L20" s="22" t="str">
+        <f t="shared" ref="L20" si="7">IF(A20&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f>VLOOKUP(N20,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" s="22" t="str">
+        <f t="shared" ref="O20" si="8">IF(A20&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P20" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28">
+        <f t="shared" ref="R20" si="9">SUM(P20:Q20)</f>
+        <v>14</v>
+      </c>
+      <c r="S20" s="22"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
@@ -4982,24 +5218,60 @@
       <c r="BI20" s="14"/>
     </row>
     <row r="21" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9">
+        <v>313</v>
+      </c>
+      <c r="D21" s="9">
+        <v>323</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="L21" s="22" t="str">
+        <f t="shared" ref="L21" si="10">IF(A21&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f>VLOOKUP(N21,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="22" t="str">
+        <f t="shared" ref="O21" si="11">IF(A21&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P21" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" ref="R21" si="12">SUM(P21:Q21)</f>
+        <v>14</v>
+      </c>
       <c r="S21" s="15"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -5045,25 +5317,61 @@
       <c r="BI21" s="14"/>
     </row>
     <row r="22" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="9">
+        <v>408</v>
+      </c>
+      <c r="D22" s="9">
+        <v>418</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="15"/>
+      <c r="L22" s="22" t="str">
+        <f t="shared" ref="L22" si="13">IF(A22&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f>VLOOKUP(N22,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="22" t="str">
+        <f t="shared" ref="O22" si="14">IF(A22&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P22" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
+        <f t="shared" ref="R22" si="15">SUM(P22:Q22)</f>
+        <v>14</v>
+      </c>
+      <c r="S22" s="22"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -5108,25 +5416,61 @@
       <c r="BI22" s="14"/>
     </row>
     <row r="23" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9">
+        <v>536</v>
+      </c>
+      <c r="D23" s="9">
+        <v>546</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="J23" s="12"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="15"/>
+      <c r="L23" s="22" t="str">
+        <f t="shared" ref="L23" si="16">IF(A23&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M23" s="10" t="str">
+        <f>VLOOKUP(N23,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="22" t="str">
+        <f t="shared" ref="O23" si="17">IF(A23&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P23" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>0</v>
+      </c>
+      <c r="R23" s="28">
+        <f t="shared" ref="R23" si="18">SUM(P23:Q23)</f>
+        <v>14</v>
+      </c>
+      <c r="S23" s="22"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -5171,25 +5515,61 @@
       <c r="BI23" s="14"/>
     </row>
     <row r="24" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="9">
+        <v>647</v>
+      </c>
+      <c r="D24" s="9">
+        <v>657</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="J24" s="12"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="15"/>
+      <c r="L24" s="22" t="str">
+        <f t="shared" ref="L24" si="19">IF(A24&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M24" s="10" t="str">
+        <f>VLOOKUP(N24,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="22" t="str">
+        <f t="shared" ref="O24" si="20">IF(A24&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P24" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>0</v>
+      </c>
+      <c r="R24" s="28">
+        <f t="shared" ref="R24" si="21">SUM(P24:Q24)</f>
+        <v>14</v>
+      </c>
+      <c r="S24" s="22"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
@@ -5234,25 +5614,61 @@
       <c r="BI24" s="14"/>
     </row>
     <row r="25" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="23">
+        <v>43193</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="9">
+        <v>718</v>
+      </c>
+      <c r="D25" s="9">
+        <v>728</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="15"/>
+      <c r="L25" s="22" t="str">
+        <f t="shared" ref="L25" si="22">IF(A25&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M25" s="10" t="str">
+        <f>VLOOKUP(N25,ch!A:B,2,FALSE)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" s="22" t="str">
+        <f t="shared" ref="O25" si="23">IF(A25&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P25" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>0</v>
+      </c>
+      <c r="R25" s="28">
+        <f t="shared" ref="R25" si="24">SUM(P25:Q25)</f>
+        <v>14</v>
+      </c>
+      <c r="S25" s="22"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
@@ -7263,7 +7679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -7471,16 +7887,16 @@
         <v>100</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="18"/>
@@ -7493,7 +7909,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O3" s="22" t="str">
         <f t="shared" ref="O3" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
@@ -7572,16 +7988,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="18"/>
@@ -7594,7 +8010,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" s="22" t="str">
         <f t="shared" ref="O4" si="4">IF(A4&lt;&gt;"","9.6米","---")</f>
@@ -7673,16 +8089,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
@@ -7695,7 +8111,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O5" s="22" t="str">
         <f t="shared" ref="O5" si="7">IF(A5&lt;&gt;"","9.6米","---")</f>
@@ -7774,16 +8190,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="18"/>
@@ -7796,7 +8212,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ref="O6" si="10">IF(A6&lt;&gt;"","9.6米","---")</f>
@@ -7875,16 +8291,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
@@ -7897,7 +8313,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="shared" ref="O7" si="13">IF(A7&lt;&gt;"","9.6米","---")</f>
@@ -7976,16 +8392,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="18"/>
@@ -7998,7 +8414,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O8" s="22" t="str">
         <f t="shared" ref="O8" si="16">IF(A8&lt;&gt;"","9.6米","---")</f>
@@ -8077,16 +8493,16 @@
         <v>100</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="18"/>
@@ -8099,7 +8515,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="shared" ref="O9" si="19">IF(A9&lt;&gt;"","9.6米","---")</f>
@@ -8178,16 +8594,16 @@
         <v>100</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="18"/>
@@ -8200,7 +8616,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O10" s="22" t="str">
         <f t="shared" ref="O10" si="22">IF(A10&lt;&gt;"","9.6米","---")</f>
@@ -8279,16 +8695,16 @@
         <v>100</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="18"/>
@@ -8301,7 +8717,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O11" s="22" t="str">
         <f t="shared" ref="O11" si="25">IF(A11&lt;&gt;"","9.6米","---")</f>
@@ -8380,16 +8796,16 @@
         <v>100</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="18"/>
@@ -8402,7 +8818,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O12" s="22" t="str">
         <f t="shared" ref="O12" si="28">IF(A12&lt;&gt;"","9.6米","---")</f>
@@ -8481,16 +8897,16 @@
         <v>100</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="18"/>
@@ -8503,7 +8919,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13" s="22" t="str">
         <f t="shared" ref="O13" si="31">IF(A13&lt;&gt;"","9.6米","---")</f>
@@ -10755,16 +11171,16 @@
         <v>100</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="18"/>
@@ -10856,16 +11272,16 @@
         <v>100</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="18"/>
@@ -10957,16 +11373,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="18"/>
@@ -11058,16 +11474,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
@@ -11159,16 +11575,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="18"/>
@@ -11260,16 +11676,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
@@ -11361,16 +11777,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="18"/>
@@ -11462,16 +11878,16 @@
         <v>100</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="18"/>
@@ -11563,16 +11979,16 @@
         <v>100</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="18"/>
@@ -11664,16 +12080,16 @@
         <v>100</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="18"/>
@@ -11765,16 +12181,16 @@
         <v>100</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>88</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="18"/>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -8,26 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F01FC719-B4A1-4846-B543-7F56C88D157F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DC19AB08-C159-4DC0-9CED-3C05B4561C59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4-2" sheetId="3" r:id="rId1"/>
-    <sheet name="4-3" sheetId="1" r:id="rId2"/>
-    <sheet name="4-4" sheetId="4" r:id="rId3"/>
+    <sheet name="4月2日" sheetId="3" r:id="rId1"/>
+    <sheet name="4月3日" sheetId="1" r:id="rId2"/>
+    <sheet name="4月4日" sheetId="4" r:id="rId3"/>
     <sheet name="ch" sheetId="2" r:id="rId4"/>
-    <sheet name="4-6" sheetId="5" r:id="rId5"/>
+    <sheet name="4月6日" sheetId="5" r:id="rId5"/>
+    <sheet name="4月7日" sheetId="6" r:id="rId6"/>
+    <sheet name="4月8日" sheetId="7" r:id="rId7"/>
+    <sheet name="汇总" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-2'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月2日'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="200">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -99,9 +102,6 @@
   </si>
   <si>
     <t>9.6米</t>
-  </si>
-  <si>
-    <t>分拣摆渡</t>
   </si>
   <si>
     <t>陈和敏</t>
@@ -449,10 +449,6 @@
     <t>18763</t>
   </si>
   <si>
-    <t>武汉亚一3CA数码通讯仓2号库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>19173</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -638,6 +634,90 @@
   </si>
   <si>
     <t>17655</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17632</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17640</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17639</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17641</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17638</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17637</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17636</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17642</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11667</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17649</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17647</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17646</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17648</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17650</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17645</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17644</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17643</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬仓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3CA数码通讯仓1号库</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -982,14 +1062,14 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1351,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI25"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1483,7 +1563,7 @@
         <v>43192</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="30">
         <v>900</v>
@@ -1492,32 +1572,32 @@
         <v>910</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>23</v>
@@ -1532,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
@@ -1582,7 +1662,7 @@
         <v>43192</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="30">
         <v>830</v>
@@ -1591,32 +1671,32 @@
         <v>840</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>23</v>
@@ -1631,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
@@ -1681,7 +1761,7 @@
         <v>43192</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="30">
         <v>748</v>
@@ -1690,32 +1770,32 @@
         <v>758</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>23</v>
@@ -1730,7 +1810,7 @@
         <v>14</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="29"/>
@@ -1780,7 +1860,7 @@
         <v>43192</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="30">
         <v>710</v>
@@ -1789,19 +1869,19 @@
         <v>720</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
@@ -1809,10 +1889,10 @@
         <v>20</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>23</v>
@@ -1827,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
@@ -1877,7 +1957,7 @@
         <v>43192</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="30">
         <v>625</v>
@@ -1886,19 +1966,19 @@
         <v>635</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="27"/>
@@ -1906,10 +1986,10 @@
         <v>20</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>23</v>
@@ -1924,7 +2004,7 @@
         <v>14</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="29"/>
@@ -1974,7 +2054,7 @@
         <v>43192</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="30">
         <v>545</v>
@@ -1983,19 +2063,19 @@
         <v>555</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="27"/>
@@ -2003,10 +2083,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>23</v>
@@ -2021,7 +2101,7 @@
         <v>14</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
@@ -2071,7 +2151,7 @@
         <v>43192</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="30">
         <v>457</v>
@@ -2080,19 +2160,19 @@
         <v>507</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="27"/>
@@ -2100,10 +2180,10 @@
         <v>20</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>23</v>
@@ -2118,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T8" s="29"/>
       <c r="U8" s="29"/>
@@ -2168,7 +2248,7 @@
         <v>43192</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="30">
         <v>415</v>
@@ -2177,19 +2257,19 @@
         <v>425</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="27"/>
@@ -2197,10 +2277,10 @@
         <v>20</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>23</v>
@@ -2215,7 +2295,7 @@
         <v>14</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
@@ -2265,7 +2345,7 @@
         <v>43192</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="30">
         <v>336</v>
@@ -2274,19 +2354,19 @@
         <v>346</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="27"/>
@@ -2294,10 +2374,10 @@
         <v>20</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>23</v>
@@ -2312,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
@@ -2362,7 +2442,7 @@
         <v>43192</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="30">
         <v>250</v>
@@ -2371,32 +2451,32 @@
         <v>300</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>23</v>
@@ -2411,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:61" ht="18.75">
@@ -2419,7 +2499,7 @@
         <v>43192</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="30">
         <v>202</v>
@@ -2428,32 +2508,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>23</v>
@@ -2468,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="18.75">
@@ -2476,7 +2556,7 @@
         <v>43192</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="30">
         <v>108</v>
@@ -2485,32 +2565,32 @@
         <v>124</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>120</v>
+        <v>174</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>23</v>
@@ -2525,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:61" ht="18.75">
@@ -2533,7 +2613,7 @@
         <v>43192</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="30">
         <v>810</v>
@@ -2542,19 +2622,19 @@
         <v>820</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="27"/>
@@ -2562,10 +2642,10 @@
         <v>20</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>23</v>
@@ -2580,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="18.75">
@@ -2588,7 +2668,7 @@
         <v>43192</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="30">
         <v>732</v>
@@ -2597,19 +2677,19 @@
         <v>742</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="27"/>
@@ -2617,10 +2697,10 @@
         <v>20</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>23</v>
@@ -2635,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="18.75">
@@ -2643,7 +2723,7 @@
         <v>43192</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="30">
         <v>607</v>
@@ -2652,19 +2732,19 @@
         <v>617</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="27"/>
@@ -2672,10 +2752,10 @@
         <v>20</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>23</v>
@@ -2690,7 +2770,7 @@
         <v>14</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75">
@@ -2698,7 +2778,7 @@
         <v>43192</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="30">
         <v>525</v>
@@ -2707,19 +2787,19 @@
         <v>535</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="27"/>
@@ -2727,10 +2807,10 @@
         <v>20</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O17" s="22" t="s">
         <v>23</v>
@@ -2745,7 +2825,7 @@
         <v>14</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75">
@@ -2753,7 +2833,7 @@
         <v>43192</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="30">
         <v>455</v>
@@ -2762,32 +2842,32 @@
         <v>505</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>23</v>
@@ -2802,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18.75">
@@ -2810,7 +2890,7 @@
         <v>43192</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="30">
         <v>355</v>
@@ -2819,19 +2899,19 @@
         <v>405</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="27"/>
@@ -2839,10 +2919,10 @@
         <v>20</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>23</v>
@@ -2857,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75">
@@ -2865,7 +2945,7 @@
         <v>43192</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="30">
         <v>310</v>
@@ -2874,19 +2954,19 @@
         <v>320</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="27"/>
@@ -2894,10 +2974,10 @@
         <v>20</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>23</v>
@@ -2912,7 +2992,7 @@
         <v>14</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18.75">
@@ -2920,7 +3000,7 @@
         <v>43192</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="30">
         <v>225</v>
@@ -2929,32 +3009,32 @@
         <v>235</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21" s="22" t="s">
         <v>23</v>
@@ -2969,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18.75">
@@ -2977,7 +3057,7 @@
         <v>43192</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="30">
         <v>133</v>
@@ -2986,32 +3066,32 @@
         <v>141</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>23</v>
@@ -3026,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18.75">
@@ -3034,7 +3114,7 @@
         <v>43192</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="30">
         <v>30</v>
@@ -3043,32 +3123,32 @@
         <v>40</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O23" s="22" t="s">
         <v>23</v>
@@ -3083,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18.75">
@@ -3091,7 +3171,7 @@
         <v>43192</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="30">
         <v>850</v>
@@ -3100,19 +3180,19 @@
         <v>900</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="27"/>
@@ -3120,10 +3200,10 @@
         <v>20</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O24" s="22" t="s">
         <v>23</v>
@@ -3138,7 +3218,7 @@
         <v>14</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18.75">
@@ -3146,7 +3226,7 @@
         <v>43192</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="30">
         <v>655</v>
@@ -3155,19 +3235,19 @@
         <v>705</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="27"/>
@@ -3175,10 +3255,10 @@
         <v>20</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>23</v>
@@ -3193,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3207,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI56"/>
   <sheetViews>
-    <sheetView topLeftCell="F12" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3232,26 +3312,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -3402,7 +3482,7 @@
         <v>43193</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9">
         <v>210</v>
@@ -3411,22 +3491,22 @@
         <v>220</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="15" t="str">
@@ -3438,7 +3518,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" ref="O3:O18" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
@@ -3454,8 +3534,8 @@
         <f t="shared" ref="R3:R18" si="2">SUM(P3:Q3)</f>
         <v>14</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>24</v>
+      <c r="S3" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -3505,7 +3585,7 @@
         <v>43193</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9">
         <v>300</v>
@@ -3514,22 +3594,22 @@
         <v>310</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="15" t="str">
@@ -3541,7 +3621,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3557,8 +3637,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>24</v>
+      <c r="S4" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
@@ -3608,7 +3688,7 @@
         <v>43193</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9">
         <v>353</v>
@@ -3617,19 +3697,19 @@
         <v>359</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
@@ -3642,7 +3722,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3658,8 +3738,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S5" s="15" t="s">
-        <v>24</v>
+      <c r="S5" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -3709,7 +3789,7 @@
         <v>43193</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9">
         <v>448</v>
@@ -3718,19 +3798,19 @@
         <v>458</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="18"/>
@@ -3743,7 +3823,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3759,8 +3839,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>24</v>
+      <c r="S6" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -3810,7 +3890,7 @@
         <v>43193</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9">
         <v>625</v>
@@ -3819,19 +3899,19 @@
         <v>635</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
@@ -3844,7 +3924,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3860,8 +3940,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>24</v>
+      <c r="S7" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -3911,7 +3991,7 @@
         <v>43193</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -3920,22 +4000,22 @@
         <v>12</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>97</v>
+        <v>159</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="15" t="str">
@@ -3947,7 +4027,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3963,8 +4043,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S8" s="15" t="s">
-        <v>24</v>
+      <c r="S8" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -4014,7 +4094,7 @@
         <v>43193</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9">
         <v>110</v>
@@ -4023,19 +4103,19 @@
         <v>120</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="18"/>
@@ -4048,7 +4128,7 @@
         <v>鄂AZR992</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4064,8 +4144,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S9" s="15" t="s">
-        <v>24</v>
+      <c r="S9" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -4115,7 +4195,7 @@
         <v>43193</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9">
         <v>707</v>
@@ -4124,19 +4204,19 @@
         <v>717</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="18"/>
@@ -4149,7 +4229,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4165,8 +4245,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S10" s="15" t="s">
-        <v>24</v>
+      <c r="S10" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -4216,7 +4296,7 @@
         <v>43193</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9">
         <v>610</v>
@@ -4225,19 +4305,19 @@
         <v>620</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="18"/>
@@ -4250,7 +4330,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4266,8 +4346,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S11" s="15" t="s">
-        <v>24</v>
+      <c r="S11" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -4317,7 +4397,7 @@
         <v>43193</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9">
         <v>425</v>
@@ -4326,19 +4406,19 @@
         <v>435</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="18"/>
@@ -4351,7 +4431,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4367,8 +4447,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S12" s="15" t="s">
-        <v>24</v>
+      <c r="S12" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
@@ -4418,7 +4498,7 @@
         <v>43193</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9">
         <v>330</v>
@@ -4427,19 +4507,19 @@
         <v>340</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="18"/>
@@ -4452,7 +4532,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4468,8 +4548,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S13" s="15" t="s">
-        <v>24</v>
+      <c r="S13" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
@@ -4519,7 +4599,7 @@
         <v>43193</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9">
         <v>245</v>
@@ -4528,19 +4608,19 @@
         <v>255</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="18"/>
@@ -4553,7 +4633,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4569,8 +4649,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S14" s="15" t="s">
-        <v>24</v>
+      <c r="S14" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
@@ -4620,7 +4700,7 @@
         <v>43193</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="9">
         <v>156</v>
@@ -4629,19 +4709,19 @@
         <v>210</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="18"/>
@@ -4654,7 +4734,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4670,8 +4750,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S15" s="15" t="s">
-        <v>24</v>
+      <c r="S15" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -4721,7 +4801,7 @@
         <v>43193</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="9">
         <v>34</v>
@@ -4730,19 +4810,19 @@
         <v>44</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="18"/>
@@ -4755,7 +4835,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4771,8 +4851,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S16" s="15" t="s">
-        <v>24</v>
+      <c r="S16" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
@@ -4822,7 +4902,7 @@
         <v>43193</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="9">
         <v>5</v>
@@ -4831,19 +4911,19 @@
         <v>15</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="18"/>
@@ -4856,7 +4936,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4872,8 +4952,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S17" s="15" t="s">
-        <v>24</v>
+      <c r="S17" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
@@ -4923,7 +5003,7 @@
         <v>43193</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="9">
         <v>16</v>
@@ -4932,19 +5012,19 @@
         <v>26</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="18"/>
@@ -4957,7 +5037,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O18" s="22" t="str">
         <f t="shared" si="1"/>
@@ -4974,7 +5054,7 @@
         <v>14</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5024,7 +5104,7 @@
         <v>43193</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="9">
         <v>140</v>
@@ -5033,19 +5113,19 @@
         <v>150</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="18"/>
@@ -5058,7 +5138,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O19" s="22" t="str">
         <f t="shared" ref="O19" si="5">IF(A19&lt;&gt;"","9.6米","---")</f>
@@ -5074,7 +5154,9 @@
         <f t="shared" ref="R19" si="6">SUM(P19:Q19)</f>
         <v>14</v>
       </c>
-      <c r="S19" s="15"/>
+      <c r="S19" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
@@ -5123,7 +5205,7 @@
         <v>43193</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9">
         <v>228</v>
@@ -5132,19 +5214,19 @@
         <v>238</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="18"/>
@@ -5157,7 +5239,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O20" s="22" t="str">
         <f t="shared" ref="O20" si="8">IF(A20&lt;&gt;"","9.6米","---")</f>
@@ -5173,7 +5255,9 @@
         <f t="shared" ref="R20" si="9">SUM(P20:Q20)</f>
         <v>14</v>
       </c>
-      <c r="S20" s="22"/>
+      <c r="S20" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
@@ -5222,7 +5306,7 @@
         <v>43193</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="9">
         <v>313</v>
@@ -5231,19 +5315,19 @@
         <v>323</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="18"/>
@@ -5256,7 +5340,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O21" s="22" t="str">
         <f t="shared" ref="O21" si="11">IF(A21&lt;&gt;"","9.6米","---")</f>
@@ -5272,7 +5356,9 @@
         <f t="shared" ref="R21" si="12">SUM(P21:Q21)</f>
         <v>14</v>
       </c>
-      <c r="S21" s="15"/>
+      <c r="S21" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
@@ -5321,7 +5407,7 @@
         <v>43193</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="9">
         <v>408</v>
@@ -5330,19 +5416,19 @@
         <v>418</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="18"/>
@@ -5355,7 +5441,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O22" s="22" t="str">
         <f t="shared" ref="O22" si="14">IF(A22&lt;&gt;"","9.6米","---")</f>
@@ -5371,7 +5457,9 @@
         <f t="shared" ref="R22" si="15">SUM(P22:Q22)</f>
         <v>14</v>
       </c>
-      <c r="S22" s="22"/>
+      <c r="S22" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -5420,7 +5508,7 @@
         <v>43193</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="9">
         <v>536</v>
@@ -5429,19 +5517,19 @@
         <v>546</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="18"/>
@@ -5454,7 +5542,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O23" s="22" t="str">
         <f t="shared" ref="O23" si="17">IF(A23&lt;&gt;"","9.6米","---")</f>
@@ -5470,7 +5558,9 @@
         <f t="shared" ref="R23" si="18">SUM(P23:Q23)</f>
         <v>14</v>
       </c>
-      <c r="S23" s="22"/>
+      <c r="S23" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -5519,7 +5609,7 @@
         <v>43193</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="9">
         <v>647</v>
@@ -5528,19 +5618,19 @@
         <v>657</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="18"/>
@@ -5553,7 +5643,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O24" s="22" t="str">
         <f t="shared" ref="O24" si="20">IF(A24&lt;&gt;"","9.6米","---")</f>
@@ -5569,7 +5659,9 @@
         <f t="shared" ref="R24" si="21">SUM(P24:Q24)</f>
         <v>14</v>
       </c>
-      <c r="S24" s="22"/>
+      <c r="S24" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
@@ -5618,7 +5710,7 @@
         <v>43193</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="9">
         <v>718</v>
@@ -5627,19 +5719,19 @@
         <v>728</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="18"/>
@@ -5652,7 +5744,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O25" s="22" t="str">
         <f t="shared" ref="O25" si="23">IF(A25&lt;&gt;"","9.6米","---")</f>
@@ -5668,7 +5760,9 @@
         <f t="shared" ref="R25" si="24">SUM(P25:Q25)</f>
         <v>14</v>
       </c>
-      <c r="S25" s="22"/>
+      <c r="S25" s="22" t="s">
+        <v>198</v>
+      </c>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
@@ -7679,8 +7773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI41"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7705,26 +7799,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -7875,7 +7969,7 @@
         <v>43194</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9">
         <v>428</v>
@@ -7884,19 +7978,19 @@
         <v>435</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="18"/>
@@ -7909,7 +8003,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O3" s="22" t="str">
         <f t="shared" ref="O3" si="1">IF(A3&lt;&gt;"","9.6米","---")</f>
@@ -7926,7 +8020,7 @@
         <v>14</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -7976,7 +8070,7 @@
         <v>43194</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9">
         <v>624</v>
@@ -7985,19 +8079,19 @@
         <v>634</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="18"/>
@@ -8010,7 +8104,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O4" s="22" t="str">
         <f t="shared" ref="O4" si="4">IF(A4&lt;&gt;"","9.6米","---")</f>
@@ -8027,7 +8121,7 @@
         <v>14</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
@@ -8077,7 +8171,7 @@
         <v>43194</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9">
         <v>246</v>
@@ -8086,19 +8180,19 @@
         <v>256</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
@@ -8111,7 +8205,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O5" s="22" t="str">
         <f t="shared" ref="O5" si="7">IF(A5&lt;&gt;"","9.6米","---")</f>
@@ -8128,7 +8222,7 @@
         <v>14</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -8178,7 +8272,7 @@
         <v>43194</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9">
         <v>155</v>
@@ -8187,19 +8281,19 @@
         <v>205</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="18"/>
@@ -8212,7 +8306,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ref="O6" si="10">IF(A6&lt;&gt;"","9.6米","---")</f>
@@ -8229,7 +8323,7 @@
         <v>14</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -8279,7 +8373,7 @@
         <v>43194</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9">
         <v>28</v>
@@ -8288,19 +8382,19 @@
         <v>38</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
@@ -8313,7 +8407,7 @@
         <v>鄂AZV373</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="shared" ref="O7" si="13">IF(A7&lt;&gt;"","9.6米","---")</f>
@@ -8330,7 +8424,7 @@
         <v>14</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -8380,7 +8474,7 @@
         <v>43194</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9">
         <v>315</v>
@@ -8389,19 +8483,19 @@
         <v>325</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="18"/>
@@ -8414,7 +8508,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O8" s="22" t="str">
         <f t="shared" ref="O8" si="16">IF(A8&lt;&gt;"","9.6米","---")</f>
@@ -8431,7 +8525,7 @@
         <v>14</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -8481,7 +8575,7 @@
         <v>43194</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9">
         <v>516</v>
@@ -8490,19 +8584,19 @@
         <v>526</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="18"/>
@@ -8515,7 +8609,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="shared" ref="O9" si="19">IF(A9&lt;&gt;"","9.6米","---")</f>
@@ -8532,7 +8626,7 @@
         <v>14</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -8582,7 +8676,7 @@
         <v>43194</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9">
         <v>653</v>
@@ -8591,19 +8685,19 @@
         <v>703</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="18"/>
@@ -8616,7 +8710,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O10" s="22" t="str">
         <f t="shared" ref="O10" si="22">IF(A10&lt;&gt;"","9.6米","---")</f>
@@ -8633,7 +8727,7 @@
         <v>14</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -8683,7 +8777,7 @@
         <v>43194</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9">
         <v>210</v>
@@ -8692,19 +8786,19 @@
         <v>220</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="18"/>
@@ -8717,7 +8811,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O11" s="22" t="str">
         <f t="shared" ref="O11" si="25">IF(A11&lt;&gt;"","9.6米","---")</f>
@@ -8734,7 +8828,7 @@
         <v>14</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -8784,7 +8878,7 @@
         <v>43194</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9">
         <v>115</v>
@@ -8793,19 +8887,19 @@
         <v>125</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="18"/>
@@ -8818,7 +8912,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O12" s="22" t="str">
         <f t="shared" ref="O12" si="28">IF(A12&lt;&gt;"","9.6米","---")</f>
@@ -8835,7 +8929,7 @@
         <v>14</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
@@ -8885,7 +8979,7 @@
         <v>43194</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -8894,19 +8988,19 @@
         <v>11</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="18"/>
@@ -8919,7 +9013,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O13" s="22" t="str">
         <f t="shared" ref="O13" si="31">IF(A13&lt;&gt;"","9.6米","---")</f>
@@ -8936,7 +9030,7 @@
         <v>14</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
@@ -10771,178 +10865,178 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25">
       <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25">
       <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.25">
       <c r="A7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.25">
       <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.25">
       <c r="A10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.25">
       <c r="A11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25">
       <c r="A12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25">
       <c r="A13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.25">
       <c r="A14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.25">
       <c r="A15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.25">
       <c r="A18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.25">
       <c r="A19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.25">
       <c r="A20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.25">
       <c r="A21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.25">
       <c r="A22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.25">
@@ -10955,66 +11049,66 @@
     </row>
     <row r="24" spans="1:2" ht="20.25">
       <c r="A24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.25">
       <c r="A25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.25">
       <c r="A26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.25">
       <c r="A27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20.25">
       <c r="A28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20.25">
       <c r="A29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.25">
       <c r="A30" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20.25">
       <c r="A31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -11025,11 +11119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45094E09-CFC8-4C02-AD04-1EDD09790BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11159,7 +11253,7 @@
         <v>43196</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="9">
         <v>708</v>
@@ -11168,19 +11262,19 @@
         <v>718</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="18"/>
@@ -11193,7 +11287,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O2" s="22" t="str">
         <f t="shared" ref="O2" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
@@ -11210,7 +11304,7 @@
         <v>14</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -11260,7 +11354,7 @@
         <v>43196</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9">
         <v>621</v>
@@ -11269,19 +11363,19 @@
         <v>631</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="18"/>
@@ -11294,7 +11388,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" s="22" t="str">
         <f t="shared" ref="O3" si="4">IF(A3&lt;&gt;"","9.6米","---")</f>
@@ -11311,7 +11405,7 @@
         <v>14</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -11361,7 +11455,7 @@
         <v>43196</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9">
         <v>535</v>
@@ -11370,19 +11464,19 @@
         <v>545</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="18"/>
@@ -11395,7 +11489,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O4" s="22" t="str">
         <f t="shared" ref="O4" si="7">IF(A4&lt;&gt;"","9.6米","---")</f>
@@ -11412,7 +11506,7 @@
         <v>14</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
@@ -11462,7 +11556,7 @@
         <v>43196</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9">
         <v>458</v>
@@ -11471,19 +11565,19 @@
         <v>508</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
@@ -11496,7 +11590,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O5" s="22" t="str">
         <f t="shared" ref="O5" si="10">IF(A5&lt;&gt;"","9.6米","---")</f>
@@ -11513,7 +11607,7 @@
         <v>14</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -11563,7 +11657,7 @@
         <v>43196</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9">
         <v>415</v>
@@ -11572,19 +11666,19 @@
         <v>425</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="18"/>
@@ -11597,7 +11691,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ref="O6" si="13">IF(A6&lt;&gt;"","9.6米","---")</f>
@@ -11614,7 +11708,7 @@
         <v>14</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -11664,7 +11758,7 @@
         <v>43196</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9">
         <v>336</v>
@@ -11673,19 +11767,19 @@
         <v>346</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
@@ -11698,7 +11792,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="shared" ref="O7" si="16">IF(A7&lt;&gt;"","9.6米","---")</f>
@@ -11715,7 +11809,7 @@
         <v>14</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -11765,7 +11859,7 @@
         <v>43196</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9">
         <v>255</v>
@@ -11774,19 +11868,19 @@
         <v>305</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="18"/>
@@ -11799,7 +11893,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O8" s="22" t="str">
         <f t="shared" ref="O8" si="19">IF(A8&lt;&gt;"","9.6米","---")</f>
@@ -11816,7 +11910,7 @@
         <v>14</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -11866,7 +11960,7 @@
         <v>43196</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9">
         <v>212</v>
@@ -11875,19 +11969,19 @@
         <v>222</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="18"/>
@@ -11900,7 +11994,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="shared" ref="O9" si="22">IF(A9&lt;&gt;"","9.6米","---")</f>
@@ -11917,7 +12011,7 @@
         <v>14</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -11967,7 +12061,7 @@
         <v>43196</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9">
         <v>1115</v>
@@ -11976,19 +12070,19 @@
         <v>125</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="18"/>
@@ -12001,7 +12095,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O10" s="22" t="str">
         <f t="shared" ref="O10" si="25">IF(A10&lt;&gt;"","9.6米","---")</f>
@@ -12018,7 +12112,7 @@
         <v>14</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -12068,7 +12162,7 @@
         <v>43196</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9">
         <v>38</v>
@@ -12077,19 +12171,19 @@
         <v>48</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="18"/>
@@ -12102,7 +12196,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="22" t="str">
         <f t="shared" ref="O11" si="28">IF(A11&lt;&gt;"","9.6米","---")</f>
@@ -12119,7 +12213,7 @@
         <v>14</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -12169,7 +12263,7 @@
         <v>43196</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -12178,19 +12272,19 @@
         <v>11</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="18"/>
@@ -12203,7 +12297,7 @@
         <v>鄂ABY277</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O12" s="22" t="str">
         <f t="shared" ref="O12" si="31">IF(A12&lt;&gt;"","9.6米","---")</f>
@@ -12220,7 +12314,7 @@
         <v>14</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
@@ -13341,4 +13435,3622 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:BI26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="21" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="21" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="20.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+    </row>
+    <row r="2" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A2" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="9">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>20</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="22" t="str">
+        <f t="shared" ref="L2:L9" si="0">IF(A2&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="10" t="str">
+        <f>VLOOKUP(N2,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f t="shared" ref="O2:O9" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P2" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
+        <f t="shared" ref="R2:R9" si="2">SUM(P2:Q2)</f>
+        <v>14</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+    </row>
+    <row r="3" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A3" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="9">
+        <v>125</v>
+      </c>
+      <c r="D3" s="9">
+        <v>135</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="10" t="str">
+        <f>VLOOKUP(N3,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P3" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+    </row>
+    <row r="4" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A4" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9">
+        <v>305</v>
+      </c>
+      <c r="D4" s="9">
+        <v>315</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="10" t="str">
+        <f>VLOOKUP(N4,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P4" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+    </row>
+    <row r="5" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A5" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="9">
+        <v>350</v>
+      </c>
+      <c r="D5" s="9">
+        <v>400</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f>VLOOKUP(N5,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P5" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+    </row>
+    <row r="6" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A6" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="9">
+        <v>505</v>
+      </c>
+      <c r="D6" s="9">
+        <v>515</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f>VLOOKUP(N6,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P6" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+    </row>
+    <row r="7" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A7" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="9">
+        <v>555</v>
+      </c>
+      <c r="D7" s="9">
+        <v>603</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f>VLOOKUP(N7,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P7" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+    </row>
+    <row r="8" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A8" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="9">
+        <v>638</v>
+      </c>
+      <c r="D8" s="9">
+        <v>648</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M8" s="10" t="str">
+        <f>VLOOKUP(N8,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P8" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+    </row>
+    <row r="9" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A9" s="23">
+        <v>43197</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9">
+        <v>700</v>
+      </c>
+      <c r="D9" s="9">
+        <v>710</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M9" s="10" t="str">
+        <f>VLOOKUP(N9,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P9" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+    </row>
+    <row r="10" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A10" s="23"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+    </row>
+    <row r="11" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A11" s="23"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+    </row>
+    <row r="12" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A12" s="23"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+    </row>
+    <row r="13" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A13" s="23"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+    </row>
+    <row r="14" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A14" s="23"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+    </row>
+    <row r="15" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+    </row>
+    <row r="16" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+    </row>
+    <row r="17" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A17" s="23"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+    </row>
+    <row r="18" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A18" s="23"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+    </row>
+    <row r="19" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A19" s="23"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+    </row>
+    <row r="20" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A20" s="23"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+    </row>
+    <row r="21" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A21" s="23"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+    </row>
+    <row r="22" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+    </row>
+    <row r="23" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A23" s="23"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+    </row>
+    <row r="24" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+    </row>
+    <row r="25" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+    </row>
+    <row r="26" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="14"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14"/>
+      <c r="BG26" s="14"/>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BI18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="21" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="21" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="20.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+    </row>
+    <row r="2" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A2" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="9">
+        <v>553</v>
+      </c>
+      <c r="D2" s="9">
+        <v>603</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="22" t="str">
+        <f t="shared" ref="L2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="10" t="str">
+        <f>VLOOKUP(N2,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f t="shared" ref="O2" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P2" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
+        <f t="shared" ref="R2" si="2">SUM(P2:Q2)</f>
+        <v>14</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+    </row>
+    <row r="3" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A3" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="9">
+        <v>519</v>
+      </c>
+      <c r="D3" s="9">
+        <v>529</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22" t="str">
+        <f t="shared" ref="L3" si="3">IF(A3&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="10" t="str">
+        <f>VLOOKUP(N3,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="22" t="str">
+        <f t="shared" ref="O3" si="4">IF(A3&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P3" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" ref="R3" si="5">SUM(P3:Q3)</f>
+        <v>14</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+    </row>
+    <row r="4" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A4" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9">
+        <v>440</v>
+      </c>
+      <c r="D4" s="9">
+        <v>450</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="22" t="str">
+        <f t="shared" ref="L4" si="6">IF(A4&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="10" t="str">
+        <f>VLOOKUP(N4,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="22" t="str">
+        <f t="shared" ref="O4" si="7">IF(A4&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P4" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" ref="R4" si="8">SUM(P4:Q4)</f>
+        <v>14</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+    </row>
+    <row r="5" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A5" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="9">
+        <v>400</v>
+      </c>
+      <c r="D5" s="9">
+        <v>410</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="22" t="str">
+        <f t="shared" ref="L5" si="9">IF(A5&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f>VLOOKUP(N5,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" ref="O5" si="10">IF(A5&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P5" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28">
+        <f t="shared" ref="R5" si="11">SUM(P5:Q5)</f>
+        <v>14</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+    </row>
+    <row r="6" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A6" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="9">
+        <v>248</v>
+      </c>
+      <c r="D6" s="9">
+        <v>258</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22" t="str">
+        <f t="shared" ref="L6" si="12">IF(A6&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f>VLOOKUP(N6,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f t="shared" ref="O6" si="13">IF(A6&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P6" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <f t="shared" ref="R6" si="14">SUM(P6:Q6)</f>
+        <v>14</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+    </row>
+    <row r="7" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A7" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="9">
+        <v>210</v>
+      </c>
+      <c r="D7" s="9">
+        <v>220</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="22" t="str">
+        <f t="shared" ref="L7" si="15">IF(A7&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f>VLOOKUP(N7,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="22" t="str">
+        <f t="shared" ref="O7" si="16">IF(A7&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P7" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" ref="R7" si="17">SUM(P7:Q7)</f>
+        <v>14</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+    </row>
+    <row r="8" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A8" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="9">
+        <v>135</v>
+      </c>
+      <c r="D8" s="9">
+        <v>145</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="22" t="str">
+        <f t="shared" ref="L8" si="18">IF(A8&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M8" s="10" t="str">
+        <f>VLOOKUP(N8,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="22" t="str">
+        <f t="shared" ref="O8" si="19">IF(A8&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P8" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" ref="R8" si="20">SUM(P8:Q8)</f>
+        <v>14</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+    </row>
+    <row r="9" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A9" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9">
+        <v>112</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="22" t="str">
+        <f t="shared" ref="L9" si="21">IF(A9&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M9" s="10" t="str">
+        <f>VLOOKUP(N9,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="22" t="str">
+        <f t="shared" ref="O9" si="22">IF(A9&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P9" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" ref="R9" si="23">SUM(P9:Q9)</f>
+        <v>14</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+    </row>
+    <row r="10" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A10" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="9">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>39</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="22" t="str">
+        <f t="shared" ref="L10" si="24">IF(A10&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M10" s="10" t="str">
+        <f>VLOOKUP(N10,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f t="shared" ref="O10" si="25">IF(A10&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P10" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" ref="R10" si="26">SUM(P10:Q10)</f>
+        <v>14</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+    </row>
+    <row r="11" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A11" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>12</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="22" t="str">
+        <f t="shared" ref="L11" si="27">IF(A11&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M11" s="10" t="str">
+        <f>VLOOKUP(N11,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f t="shared" ref="O11" si="28">IF(A11&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P11" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
+        <f t="shared" ref="R11" si="29">SUM(P11:Q11)</f>
+        <v>14</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+    </row>
+    <row r="12" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A12" s="23"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+    </row>
+    <row r="13" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A13" s="23"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+    </row>
+    <row r="14" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A14" s="23"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+    </row>
+    <row r="15" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+    </row>
+    <row r="16" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+    </row>
+    <row r="17" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A17" s="23"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+    </row>
+    <row r="18" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A18" s="23"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DC19AB08-C159-4DC0-9CED-3C05B4561C59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0DE1526F-FA21-499C-BC6A-D4D437941156}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月2日" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="4月6日" sheetId="5" r:id="rId5"/>
     <sheet name="4月7日" sheetId="6" r:id="rId6"/>
     <sheet name="4月8日" sheetId="7" r:id="rId7"/>
-    <sheet name="汇总" sheetId="8" r:id="rId8"/>
+    <sheet name="4月13日" sheetId="9" r:id="rId8"/>
+    <sheet name="汇总" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月2日'!$A$1:$S$25</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="216">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -718,6 +719,70 @@
   </si>
   <si>
     <t>武汉亚一3CA数码通讯仓1号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐改为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新地园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉分销配送中心安利KA仓1号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商物流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉新通路仓1号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18181</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉威伟机械</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈和敏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>255块托盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣程园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超A休闲食品仓3号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇培园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生鲜仓2号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17573</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076646</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +899,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +921,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1141,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -15456,8 +15569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17041,6 +17154,1336 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA45AE0-CE29-41AA-B676-62097CA10718}">
+  <dimension ref="A1:BI17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" s="21" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+    </row>
+    <row r="2" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A2" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="9">
+        <v>553</v>
+      </c>
+      <c r="D2" s="9">
+        <v>603</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="22" t="str">
+        <f t="shared" ref="L2:L4" si="0">IF(A2&lt;&gt;"","武汉威伟机械","-----")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="10" t="str">
+        <f>VLOOKUP(N2,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f t="shared" ref="O2:O6" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="P2" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
+        <f t="shared" ref="R2:R4" si="2">SUM(P2:Q2)</f>
+        <v>14</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+    </row>
+    <row r="3" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A3" s="23">
+        <v>43198</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="9">
+        <v>519</v>
+      </c>
+      <c r="D3" s="9">
+        <v>529</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="10" t="str">
+        <f>VLOOKUP(N3,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P3" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+    </row>
+    <row r="4" spans="1:61" s="46" customFormat="1" ht="18.75">
+      <c r="A4" s="36">
+        <v>43198</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="38">
+        <v>440</v>
+      </c>
+      <c r="D4" s="38">
+        <v>450</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="43" t="str">
+        <f>VLOOKUP(N4,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P4" s="39">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+    </row>
+    <row r="5" spans="1:61" s="49" customFormat="1" ht="18.75">
+      <c r="A5" s="23">
+        <v>43203</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1355</v>
+      </c>
+      <c r="D5" s="47">
+        <v>1415</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f>VLOOKUP(N5,ch!A:B,2,FALSE)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+    </row>
+    <row r="6" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A6" s="23">
+        <v>43203</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1435</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1521</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f>VLOOKUP(N6,ch!A:B,2,FALSE)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="P6" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <f>SUM(P6:Q6)</f>
+        <v>14</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+    </row>
+    <row r="7" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+    </row>
+    <row r="8" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A8" s="23"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+    </row>
+    <row r="9" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A9" s="23"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+    </row>
+    <row r="10" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A10" s="23"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+    </row>
+    <row r="11" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A11" s="23"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+    </row>
+    <row r="12" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A12" s="23"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+    </row>
+    <row r="13" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A13" s="23"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+    </row>
+    <row r="14" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A14" s="23"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+    </row>
+    <row r="15" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+    </row>
+    <row r="16" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+    </row>
+    <row r="17" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A17" s="23"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0DE1526F-FA21-499C-BC6A-D4D437941156}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="4月2日" sheetId="3" r:id="rId1"/>
@@ -21,17 +15,18 @@
     <sheet name="4月7日" sheetId="6" r:id="rId6"/>
     <sheet name="4月8日" sheetId="7" r:id="rId7"/>
     <sheet name="4月13日" sheetId="9" r:id="rId8"/>
-    <sheet name="汇总" sheetId="8" r:id="rId9"/>
+    <sheet name="4-14" sheetId="10" r:id="rId9"/>
+    <sheet name="汇总" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月2日'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="222">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -754,10 +749,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>255块托盘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>陈杰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -784,12 +775,33 @@
   <si>
     <t>0076646</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐思</t>
+  </si>
+  <si>
+    <t>常福园区</t>
+  </si>
+  <si>
+    <t>弗兰西蒂分拣仓</t>
+  </si>
+  <si>
+    <t>宇培园区</t>
+  </si>
+  <si>
+    <t>生鲜仓2号库</t>
+  </si>
+  <si>
+    <t>17151</t>
+  </si>
+  <si>
+    <t>0076647</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
@@ -899,7 +911,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,14 +936,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -967,8 +973,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,8 +1051,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,42 +1167,6 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1184,45 +1176,97 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 8 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 9 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2" xfId="21"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 3 2" xfId="16"/>
+    <cellStyle name="常规 2 4" xfId="12"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 3 2" xfId="9"/>
+    <cellStyle name="常规 3 2 2" xfId="17"/>
+    <cellStyle name="常规 3 3" xfId="13"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 4 2" xfId="14"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 5 2" xfId="15"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 7" xfId="10"/>
+    <cellStyle name="常规 7 2" xfId="22"/>
+    <cellStyle name="常规 8" xfId="11"/>
+    <cellStyle name="常规 8 2" xfId="20"/>
+    <cellStyle name="常规 8 3" xfId="19"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="常规 9 2" xfId="18"/>
+    <cellStyle name="常规 9 2 2" xfId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1264,7 +1308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,27 +1340,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,24 +1374,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1541,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI25"/>
   <sheetViews>
     <sheetView topLeftCell="G11" workbookViewId="0">
@@ -3396,8 +3404,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,26 +3449,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -7883,7 +7907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7912,26 +7936,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -10963,7 +10987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11232,7 +11256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI29"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -13551,7 +13575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15566,7 +15590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17154,11 +17178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA45AE0-CE29-41AA-B676-62097CA10718}">
-  <dimension ref="A1:BI17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17175,7 +17199,7 @@
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
@@ -17282,49 +17306,48 @@
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
     </row>
-    <row r="2" spans="1:61" s="13" customFormat="1" ht="18.75">
+    <row r="2" spans="1:61" s="37" customFormat="1" ht="18.75">
       <c r="A2" s="23">
-        <v>43198</v>
+        <v>43203</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="9">
-        <v>553</v>
-      </c>
-      <c r="D2" s="9">
-        <v>603</v>
+        <v>200</v>
+      </c>
+      <c r="C2" s="35">
+        <v>1355</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1415</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="22" t="str">
-        <f t="shared" ref="L2:L4" si="0">IF(A2&lt;&gt;"","武汉威伟机械","-----")</f>
-        <v>武汉威伟机械</v>
+      <c r="L2" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="M2" s="10" t="str">
         <f>VLOOKUP(N2,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>101</v>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="O2" s="22" t="str">
-        <f t="shared" ref="O2:O6" si="1">IF(A2&lt;&gt;"","9.6米","---")</f>
+        <f t="shared" ref="O2:O3" si="0">IF(A2&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
       <c r="P2" s="28">
@@ -17333,89 +17356,87 @@
       <c r="Q2" s="28">
         <v>0</v>
       </c>
-      <c r="R2" s="28">
-        <f t="shared" ref="R2:R4" si="2">SUM(P2:Q2)</f>
-        <v>14</v>
-      </c>
+      <c r="R2" s="28"/>
       <c r="S2" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
     </row>
     <row r="3" spans="1:61" s="13" customFormat="1" ht="18.75">
       <c r="A3" s="23">
-        <v>43198</v>
+        <v>43203</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="C3" s="9">
-        <v>519</v>
+        <v>1435</v>
       </c>
       <c r="D3" s="9">
-        <v>529</v>
+        <v>1521</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J3" s="12"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
+      <c r="K3" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="M3" s="10" t="str">
         <f>VLOOKUP(N3,ch!A:B,2,FALSE)</f>
@@ -17425,7 +17446,7 @@
         <v>101</v>
       </c>
       <c r="O3" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6米</v>
       </c>
       <c r="P3" s="28">
@@ -17435,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="28">
-        <f t="shared" si="2"/>
+        <f>SUM(P3:Q3)</f>
         <v>14</v>
       </c>
       <c r="S3" s="22" t="s">
@@ -17484,263 +17505,152 @@
       <c r="BH3" s="14"/>
       <c r="BI3" s="14"/>
     </row>
-    <row r="4" spans="1:61" s="46" customFormat="1" ht="18.75">
-      <c r="A4" s="36">
-        <v>43198</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="38">
-        <v>440</v>
-      </c>
-      <c r="D4" s="38">
-        <v>450</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="M4" s="43" t="str">
-        <f>VLOOKUP(N4,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="P4" s="39">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>0</v>
-      </c>
-      <c r="R4" s="39">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="45"/>
-      <c r="BD4" s="45"/>
-      <c r="BE4" s="45"/>
-      <c r="BF4" s="45"/>
-      <c r="BG4" s="45"/>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45"/>
-    </row>
-    <row r="5" spans="1:61" s="49" customFormat="1" ht="18.75">
-      <c r="A5" s="23">
-        <v>43203</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="47">
-        <v>1355</v>
-      </c>
-      <c r="D5" s="47">
-        <v>1415</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>205</v>
-      </c>
+    <row r="4" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A4" s="23"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+    </row>
+    <row r="5" spans="1:61" s="13" customFormat="1" ht="18.75">
+      <c r="A5" s="23"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="10" t="str">
-        <f>VLOOKUP(N5,ch!A:B,2,FALSE)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="O5" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q5" s="28">
-        <v>0</v>
-      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
-      <c r="S5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
     </row>
     <row r="6" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A6" s="23">
-        <v>43203</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1435</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1521</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>214</v>
-      </c>
+      <c r="A6" s="23"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="10" t="str">
-        <f>VLOOKUP(N6,ch!A:B,2,FALSE)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="P6" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>0</v>
-      </c>
-      <c r="R6" s="28">
-        <f>SUM(P6:Q6)</f>
-        <v>14</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>198</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
@@ -18288,195 +18198,6 @@
       <c r="BH14" s="14"/>
       <c r="BI14" s="14"/>
     </row>
-    <row r="15" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A15" s="23"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-    </row>
-    <row r="16" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A16" s="23"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-    </row>
-    <row r="17" spans="1:61" s="13" customFormat="1" ht="18.75">
-      <c r="A17" s="23"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18484,15 +18205,232 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" s="40" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75">
+      <c r="A2" s="44">
+        <v>43204</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="45">
+        <v>1155</v>
+      </c>
+      <c r="D2" s="45">
+        <v>1245</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="47">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>0</v>
+      </c>
+      <c r="R2" s="47">
+        <v>6</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -1176,9 +1176,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1229,9 @@
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3449,26 +3449,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -7936,26 +7936,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -18208,8 +18208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18230,205 +18230,205 @@
     <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="40" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:63" s="39" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
     </row>
     <row r="2" spans="1:63" ht="18.75">
-      <c r="A2" s="44">
+      <c r="A2" s="43">
         <v>43204</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <v>1155</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>1245</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="46">
         <v>6</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="46">
         <v>0</v>
       </c>
-      <c r="R2" s="47">
+      <c r="R2" s="46">
         <v>6</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="55"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="4月2日" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="310">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1105,6 +1105,46 @@
     <t>宋辉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>WW0017997</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ABY256</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪家国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板9板篮板1板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017995</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017994</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017993</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017992</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017991</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017990</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1115,7 +1155,7 @@
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,13 +1287,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1605,26 +1638,26 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -15356,7 +15389,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16812,29 +16845,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.75" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="63" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="6.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="63" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="63"/>
+    <col min="1" max="1" width="13.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="65" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="65" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.25" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" style="65" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.25" customHeight="1">
@@ -16939,725 +16972,921 @@
       <c r="BI1" s="62"/>
     </row>
     <row r="2" spans="1:61" ht="21" customHeight="1">
-      <c r="A2" s="64">
+      <c r="A2" s="66">
         <v>43212</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="68">
         <v>0.24027777777777778</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="68">
         <v>0.24513888888888888</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="3" spans="1:61" ht="21" customHeight="1">
-      <c r="A3" s="64">
+      <c r="A3" s="66">
         <v>43212</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="68">
         <v>0.20069444444444443</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="68">
         <v>0.20625000000000002</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
     </row>
     <row r="4" spans="1:61" ht="21" customHeight="1">
-      <c r="A4" s="64">
+      <c r="A4" s="66">
         <v>43212</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="68">
         <v>0.17013888888888887</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>0.17361111111111113</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
     </row>
     <row r="5" spans="1:61" ht="21" customHeight="1">
-      <c r="A5" s="64">
+      <c r="A5" s="66">
         <v>43212</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="68">
         <v>0.13541666666666666</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="68">
         <v>0.1423611111111111</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
     </row>
     <row r="6" spans="1:61" ht="21" customHeight="1">
-      <c r="A6" s="64">
+      <c r="A6" s="66">
         <v>43212</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="69">
         <v>223</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="69">
         <v>232</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
     </row>
     <row r="7" spans="1:61" ht="21" customHeight="1">
-      <c r="A7" s="64">
+      <c r="A7" s="66">
         <v>43212</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="69">
         <v>136</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="69">
         <v>350</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65" t="s">
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
     </row>
     <row r="8" spans="1:61" ht="21" customHeight="1">
-      <c r="A8" s="64">
+      <c r="A8" s="66">
         <v>43212</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="69">
         <v>30</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="69">
         <v>56</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65" t="s">
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
     </row>
     <row r="9" spans="1:61" ht="21" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="A9" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="69">
+        <v>605</v>
+      </c>
+      <c r="D9" s="69">
+        <v>610</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
     </row>
     <row r="10" spans="1:61" ht="21" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
+      <c r="A10" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="69">
+        <v>510</v>
+      </c>
+      <c r="D10" s="69">
+        <v>518</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
     </row>
     <row r="11" spans="1:61" ht="21" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
+      <c r="A11" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="69">
+        <v>425</v>
+      </c>
+      <c r="D11" s="69">
+        <v>437</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
     </row>
     <row r="12" spans="1:61" ht="21" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
+      <c r="A12" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="69">
+        <v>343</v>
+      </c>
+      <c r="D12" s="69">
+        <v>353</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
     </row>
     <row r="13" spans="1:61" ht="21" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
+      <c r="A13" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="69">
+        <v>250</v>
+      </c>
+      <c r="D13" s="69">
+        <v>258</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N13" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
     </row>
     <row r="14" spans="1:61" ht="21" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
+      <c r="A14" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="69">
+        <v>158</v>
+      </c>
+      <c r="D14" s="69">
+        <v>206</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
     </row>
     <row r="15" spans="1:61" ht="21" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
+      <c r="A15" s="66">
+        <v>43212</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="69">
+        <v>113</v>
+      </c>
+      <c r="D15" s="69">
+        <v>121</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N15" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
     </row>
     <row r="16" spans="1:61" ht="21" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
     </row>
     <row r="17" spans="1:19" ht="21" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
     </row>
     <row r="25" spans="1:19" ht="21" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
     </row>
     <row r="26" spans="1:19" ht="21" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17695,26 +17924,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -22182,26 +22411,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -29570,7 +29799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -23,6 +23,7 @@
     <sheet name="4-22" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'4-22'!$A$1:$S$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月2日'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="313">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1145,6 +1146,18 @@
     <t>WW0017990</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>WW0016951</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZV377</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代永华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1641,9 +1654,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1658,6 +1668,9 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -16843,31 +16856,32 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.875" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.875" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.75" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.75" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="13.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.25" customHeight="1">
@@ -16971,924 +16985,959 @@
       <c r="BH1" s="62"/>
       <c r="BI1" s="62"/>
     </row>
-    <row r="2" spans="1:61" ht="21" customHeight="1">
-      <c r="A2" s="66">
+    <row r="2" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A2" s="65">
         <v>43212</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="67">
         <v>0.24027777777777778</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="67">
         <v>0.24513888888888888</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="66" t="s">
         <v>283</v>
       </c>
       <c r="P2" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-    </row>
-    <row r="3" spans="1:61" ht="21" customHeight="1">
-      <c r="A3" s="66">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+    </row>
+    <row r="3" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A3" s="65">
         <v>43212</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="67">
         <v>0.20069444444444443</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="67">
         <v>0.20625000000000002</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="66" t="s">
         <v>283</v>
       </c>
       <c r="P3" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-    </row>
-    <row r="4" spans="1:61" ht="21" customHeight="1">
-      <c r="A4" s="66">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+    </row>
+    <row r="4" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A4" s="65">
         <v>43212</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <v>0.17013888888888887</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="67">
         <v>0.17361111111111113</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-    </row>
-    <row r="5" spans="1:61" ht="21" customHeight="1">
-      <c r="A5" s="66">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+    </row>
+    <row r="5" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A5" s="65">
         <v>43212</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>0.13541666666666666</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <v>0.1423611111111111</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-    </row>
-    <row r="6" spans="1:61" ht="21" customHeight="1">
-      <c r="A6" s="66">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+    </row>
+    <row r="6" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A6" s="65">
         <v>43212</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="68">
         <v>223</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>232</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67" t="s">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="67" t="s">
+      <c r="P6" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-    </row>
-    <row r="7" spans="1:61" ht="21" customHeight="1">
-      <c r="A7" s="66">
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+    </row>
+    <row r="7" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A7" s="65">
         <v>43212</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="68">
         <v>136</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>350</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="66" t="s">
         <v>283</v>
       </c>
       <c r="P7" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-    </row>
-    <row r="8" spans="1:61" ht="21" customHeight="1">
-      <c r="A8" s="66">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+    </row>
+    <row r="8" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A8" s="65">
         <v>43212</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="68">
         <v>30</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="68">
         <v>56</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67" t="s">
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="P8" s="67" t="s">
+      <c r="P8" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:61" ht="21" customHeight="1">
-      <c r="A9" s="66">
+      <c r="A9" s="65">
         <v>43212</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="68">
         <v>605</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="68">
         <v>610</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67" t="s">
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O9" s="67" t="s">
+      <c r="O9" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="P9" s="67" t="s">
+      <c r="P9" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:61" ht="21" customHeight="1">
-      <c r="A10" s="66">
+      <c r="A10" s="65">
         <v>43212</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="68">
         <v>510</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="68">
         <v>518</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67" t="s">
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O10" s="67" t="s">
+      <c r="O10" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="P10" s="67" t="s">
+      <c r="P10" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
     </row>
     <row r="11" spans="1:61" ht="21" customHeight="1">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <v>43212</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="68">
         <v>425</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>437</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67" t="s">
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="66" t="s">
         <v>255</v>
       </c>
       <c r="P11" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:61" ht="21" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="65">
         <v>43212</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="68">
         <v>343</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="68">
         <v>353</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67" t="s">
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M12" s="67" t="s">
+      <c r="M12" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="66" t="s">
         <v>255</v>
       </c>
       <c r="P12" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:61" ht="21" customHeight="1">
-      <c r="A13" s="66">
+      <c r="A13" s="65">
         <v>43212</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="68">
         <v>250</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="68">
         <v>258</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67" t="s">
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M13" s="67" t="s">
+      <c r="M13" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O13" s="67" t="s">
+      <c r="O13" s="66" t="s">
         <v>255</v>
       </c>
       <c r="P13" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="1:61" ht="21" customHeight="1">
-      <c r="A14" s="66">
+      <c r="A14" s="65">
         <v>43212</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="68">
         <v>158</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="68">
         <v>206</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67" t="s">
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="67" t="s">
+      <c r="P14" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:61" ht="21" customHeight="1">
-      <c r="A15" s="66">
+      <c r="A15" s="65">
         <v>43212</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="68">
         <v>113</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>121</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="P15" s="67" t="s">
+      <c r="P15" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-    </row>
-    <row r="16" spans="1:61" ht="21" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="1:61" ht="21" hidden="1" customHeight="1">
+      <c r="A16" s="65">
+        <v>43212</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="68">
+        <v>2328</v>
+      </c>
+      <c r="D16" s="68">
+        <v>2338</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="17" spans="1:19" ht="21" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
     </row>
     <row r="25" spans="1:19" ht="21" customHeight="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
     </row>
     <row r="26" spans="1:19" ht="21" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S16">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="鄂ABY256"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17924,26 +17973,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -22411,26 +22460,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="4月2日" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="汇总" sheetId="8" r:id="rId12"/>
     <sheet name="4-21" sheetId="13" r:id="rId13"/>
     <sheet name="4-22" sheetId="14" r:id="rId14"/>
+    <sheet name="4-23" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'4-22'!$A$1:$S$16</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="320">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1158,6 +1159,34 @@
     <t>代永华</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>WW0016958</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016957</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016956</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016955</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016954</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016953</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016952</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -16856,11 +16885,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16985,7 +17013,7 @@
       <c r="BH1" s="62"/>
       <c r="BI1" s="62"/>
     </row>
-    <row r="2" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="2" spans="1:61" ht="21" customHeight="1">
       <c r="A2" s="65">
         <v>43212</v>
       </c>
@@ -17034,7 +17062,7 @@
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
     </row>
-    <row r="3" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="3" spans="1:61" ht="21" customHeight="1">
       <c r="A3" s="65">
         <v>43212</v>
       </c>
@@ -17083,7 +17111,7 @@
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
     </row>
-    <row r="4" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="4" spans="1:61" ht="21" customHeight="1">
       <c r="A4" s="65">
         <v>43212</v>
       </c>
@@ -17132,7 +17160,7 @@
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
     </row>
-    <row r="5" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="5" spans="1:61" ht="21" customHeight="1">
       <c r="A5" s="65">
         <v>43212</v>
       </c>
@@ -17181,7 +17209,7 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
     </row>
-    <row r="6" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="6" spans="1:61" ht="21" customHeight="1">
       <c r="A6" s="65">
         <v>43212</v>
       </c>
@@ -17230,7 +17258,7 @@
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
     </row>
-    <row r="7" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="7" spans="1:61" ht="21" customHeight="1">
       <c r="A7" s="65">
         <v>43212</v>
       </c>
@@ -17279,7 +17307,7 @@
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
     </row>
-    <row r="8" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="8" spans="1:61" ht="21" customHeight="1">
       <c r="A8" s="65">
         <v>43212</v>
       </c>
@@ -17671,7 +17699,7 @@
       <c r="R15" s="66"/>
       <c r="S15" s="66"/>
     </row>
-    <row r="16" spans="1:61" ht="21" hidden="1" customHeight="1">
+    <row r="16" spans="1:61" ht="21" customHeight="1">
       <c r="A16" s="65">
         <v>43212</v>
       </c>
@@ -17931,16 +17959,782 @@
       <c r="S26" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S16">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="鄂ABY256"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="64" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="64" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="20.25" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+    </row>
+    <row r="2" spans="1:61" ht="21" customHeight="1">
+      <c r="A2" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="68">
+        <v>500</v>
+      </c>
+      <c r="D2" s="68">
+        <v>508</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+    </row>
+    <row r="3" spans="1:61" ht="21" customHeight="1">
+      <c r="A3" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="68">
+        <v>432</v>
+      </c>
+      <c r="D3" s="68">
+        <v>440</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+    </row>
+    <row r="4" spans="1:61" ht="21" customHeight="1">
+      <c r="A4" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="68">
+        <v>400</v>
+      </c>
+      <c r="D4" s="68">
+        <v>410</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P4" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+    </row>
+    <row r="5" spans="1:61" ht="21" customHeight="1">
+      <c r="A5" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="68">
+        <v>322</v>
+      </c>
+      <c r="D5" s="68">
+        <v>330</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+    </row>
+    <row r="6" spans="1:61" ht="21" customHeight="1">
+      <c r="A6" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="68">
+        <v>230</v>
+      </c>
+      <c r="D6" s="68">
+        <v>238</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+    </row>
+    <row r="7" spans="1:61" ht="21" customHeight="1">
+      <c r="A7" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="68">
+        <v>142</v>
+      </c>
+      <c r="D7" s="68">
+        <v>151</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+    </row>
+    <row r="8" spans="1:61" ht="21" customHeight="1">
+      <c r="A8" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="68">
+        <v>16</v>
+      </c>
+      <c r="D8" s="68">
+        <v>26</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+    </row>
+    <row r="9" spans="1:61" ht="21" customHeight="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+    </row>
+    <row r="10" spans="1:61" ht="21" customHeight="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+    </row>
+    <row r="11" spans="1:61" ht="21" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+    </row>
+    <row r="12" spans="1:61" ht="21" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="1:61" ht="21" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+    </row>
+    <row r="14" spans="1:61" ht="21" customHeight="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+    </row>
+    <row r="15" spans="1:61" ht="21" customHeight="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="1:61" ht="21" customHeight="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+    </row>
+    <row r="17" spans="1:19" ht="21" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+    </row>
+    <row r="18" spans="1:19" ht="21" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+    </row>
+    <row r="19" spans="1:19" ht="21" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+    </row>
+    <row r="20" spans="1:19" ht="21" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+    </row>
+    <row r="21" spans="1:19" ht="21" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+    </row>
+    <row r="22" spans="1:19" ht="21" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="335">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1187,6 +1187,66 @@
     <t>WW0016952</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>WW0017073</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017075</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ADU616</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡允源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017265</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AHB101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕文杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017266</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017267</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017268</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017269</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017270</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017271</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017273</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -17970,7 +18030,7 @@
   <dimension ref="A1:BI22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18439,211 +18499,491 @@
       <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:61" ht="21" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
+      <c r="A9" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="68">
+        <v>2323</v>
+      </c>
+      <c r="D9" s="68">
+        <v>2336</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>320</v>
+      </c>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="63"/>
+      <c r="L9" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>288</v>
+      </c>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:61" ht="21" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="A10" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="68">
+        <v>2338</v>
+      </c>
+      <c r="D10" s="68">
+        <v>2353</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>321</v>
+      </c>
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="L10" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="N10" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q10" s="66"/>
       <c r="R10" s="66"/>
       <c r="S10" s="66"/>
     </row>
     <row r="11" spans="1:61" ht="21" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="A11" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="68">
+        <v>2</v>
+      </c>
+      <c r="D11" s="68">
+        <v>5</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>324</v>
+      </c>
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
+      <c r="L11" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q11" s="66"/>
       <c r="R11" s="66"/>
       <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:61" ht="21" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="A12" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="68">
+        <v>115</v>
+      </c>
+      <c r="D12" s="68">
+        <v>125</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>327</v>
+      </c>
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="63"/>
+      <c r="L12" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>288</v>
+      </c>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
       <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:61" ht="21" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="A13" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="68">
+        <v>205</v>
+      </c>
+      <c r="D13" s="68">
+        <v>213</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>328</v>
+      </c>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="L13" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
     </row>
     <row r="14" spans="1:61" ht="21" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+      <c r="A14" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="68">
+        <v>250</v>
+      </c>
+      <c r="D14" s="68">
+        <v>300</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>329</v>
+      </c>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="L14" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
       <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:61" ht="21" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
+      <c r="A15" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="68">
+        <v>335</v>
+      </c>
+      <c r="D15" s="68">
+        <v>343</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>330</v>
+      </c>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="L15" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q15" s="66"/>
       <c r="R15" s="66"/>
       <c r="S15" s="66"/>
     </row>
     <row r="16" spans="1:61" ht="21" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
+      <c r="A16" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="68">
+        <v>410</v>
+      </c>
+      <c r="D16" s="68">
+        <v>420</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>331</v>
+      </c>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="L16" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
       <c r="S16" s="66"/>
     </row>
     <row r="17" spans="1:19" ht="21" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
+      <c r="A17" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="68">
+        <v>450</v>
+      </c>
+      <c r="D17" s="68">
+        <v>455</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>332</v>
+      </c>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="L17" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="63" t="s">
+        <v>284</v>
+      </c>
       <c r="Q17" s="66"/>
       <c r="R17" s="66"/>
       <c r="S17" s="66"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="A18" s="65">
+        <v>43213</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="68">
+        <v>525</v>
+      </c>
+      <c r="D18" s="68">
+        <v>535</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>333</v>
+      </c>
       <c r="J18" s="66"/>
       <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="L18" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>334</v>
+      </c>
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
       <c r="S18" s="66"/>
@@ -18735,6 +19075,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="4月2日" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="4-21" sheetId="13" r:id="rId13"/>
     <sheet name="4-22" sheetId="14" r:id="rId14"/>
     <sheet name="4-23" sheetId="15" r:id="rId15"/>
+    <sheet name="4-24" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'4-22'!$A$1:$S$16</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="367">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1247,6 +1248,128 @@
     <t>白板8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>新地园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15929</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15927</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15928</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板13蓝板1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15926</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17074</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15932</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15993</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15996</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15994</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐思</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常福园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超A休闲食品1号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉南生鲜仓</t>
+  </si>
+  <si>
+    <t>汉南生鲜仓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16463</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ALU151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14板返托盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16464</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024375</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024304</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16465</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024251</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超A休闲食品1号仓</t>
+  </si>
+  <si>
+    <t>WW0016462</t>
+  </si>
+  <si>
+    <t>0020606</t>
+  </si>
+  <si>
+    <t>WW0016460</t>
+  </si>
+  <si>
+    <t>0024182</t>
+  </si>
 </sst>
 </file>
 
@@ -1257,7 +1380,7 @@
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,6 +1512,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1550,7 +1687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1760,6 +1897,63 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -18029,8 +18223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18890,7 +19084,7 @@
       <c r="R16" s="66"/>
       <c r="S16" s="66"/>
     </row>
-    <row r="17" spans="1:19" ht="21" customHeight="1">
+    <row r="17" spans="1:61" ht="21" customHeight="1">
       <c r="A17" s="65">
         <v>43213</v>
       </c>
@@ -18939,7 +19133,7 @@
       <c r="R17" s="66"/>
       <c r="S17" s="66"/>
     </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1">
+    <row r="18" spans="1:61" ht="21" customHeight="1">
       <c r="A18" s="65">
         <v>43213</v>
       </c>
@@ -18988,49 +19182,193 @@
       <c r="R18" s="66"/>
       <c r="S18" s="66"/>
     </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-    </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-    </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1">
+    <row r="19" spans="1:61" ht="21" customHeight="1">
+      <c r="A19" s="80">
+        <v>43213</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="85">
+        <v>1705</v>
+      </c>
+      <c r="D19" s="85">
+        <v>1750</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="85"/>
+      <c r="K19" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="L19" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="82">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="86"/>
+      <c r="AX19" s="86"/>
+      <c r="AY19" s="86"/>
+      <c r="AZ19" s="86"/>
+      <c r="BA19" s="86"/>
+      <c r="BB19" s="86"/>
+      <c r="BC19" s="86"/>
+      <c r="BD19" s="86"/>
+      <c r="BE19" s="86"/>
+      <c r="BF19" s="86"/>
+      <c r="BG19" s="86"/>
+      <c r="BH19" s="86"/>
+      <c r="BI19" s="86"/>
+    </row>
+    <row r="20" spans="1:61" ht="21" customHeight="1">
+      <c r="A20" s="80">
+        <v>43213</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="85">
+        <v>1440</v>
+      </c>
+      <c r="D20" s="85">
+        <v>1525</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="J20" s="85"/>
+      <c r="K20" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="L20" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="82">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="86"/>
+      <c r="AX20" s="86"/>
+      <c r="AY20" s="86"/>
+      <c r="AZ20" s="86"/>
+      <c r="BA20" s="86"/>
+      <c r="BB20" s="86"/>
+      <c r="BC20" s="86"/>
+      <c r="BD20" s="86"/>
+      <c r="BE20" s="86"/>
+      <c r="BF20" s="86"/>
+      <c r="BG20" s="86"/>
+      <c r="BH20" s="86"/>
+      <c r="BI20" s="86"/>
+    </row>
+    <row r="21" spans="1:61" ht="21" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -19051,7 +19389,7 @@
       <c r="R21" s="66"/>
       <c r="S21" s="66"/>
     </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1">
+    <row r="22" spans="1:61" ht="21" customHeight="1">
       <c r="A22" s="66"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -19071,6 +19409,4080 @@
       <c r="Q22" s="66"/>
       <c r="R22" s="66"/>
       <c r="S22" s="66"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="74" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="74" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="74" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="74" customWidth="1"/>
+    <col min="14" max="15" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" style="74" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" s="64" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+    </row>
+    <row r="2" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="70">
+        <v>438</v>
+      </c>
+      <c r="D2" s="70">
+        <v>446</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="71"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="71" t="str">
+        <f>VLOOKUP(N2,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+    </row>
+    <row r="3" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="70">
+        <v>247</v>
+      </c>
+      <c r="D3" s="70">
+        <v>255</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="71" t="str">
+        <f>VLOOKUP(N3,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P3" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+    </row>
+    <row r="4" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="70">
+        <v>153</v>
+      </c>
+      <c r="D4" s="70">
+        <v>200</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="71" t="str">
+        <f>VLOOKUP(N4,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+    </row>
+    <row r="5" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="70">
+        <v>118</v>
+      </c>
+      <c r="D5" s="70">
+        <v>128</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="71" t="str">
+        <f>VLOOKUP(N5,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+    </row>
+    <row r="6" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="70">
+        <v>42</v>
+      </c>
+      <c r="D6" s="70">
+        <v>52</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="71" t="str">
+        <f>VLOOKUP(N6,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+    </row>
+    <row r="7" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="70">
+        <v>129</v>
+      </c>
+      <c r="D7" s="70">
+        <v>143</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="N7" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="70">
+        <v>43</v>
+      </c>
+      <c r="D8" s="70">
+        <v>105</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+    </row>
+    <row r="9" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="70">
+        <v>323</v>
+      </c>
+      <c r="D9" s="70">
+        <v>330</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" s="71"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+    </row>
+    <row r="10" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="70">
+        <v>218</v>
+      </c>
+      <c r="D10" s="70">
+        <v>228</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="71"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+    </row>
+    <row r="11" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="70">
+        <v>1035</v>
+      </c>
+      <c r="D11" s="70">
+        <v>1115</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="J11" s="71"/>
+      <c r="K11" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="N11" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="O11" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+    </row>
+    <row r="12" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="70">
+        <v>1338</v>
+      </c>
+      <c r="D12" s="70">
+        <v>1420</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="71"/>
+      <c r="K12" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="O12" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+    </row>
+    <row r="13" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="70">
+        <v>1545</v>
+      </c>
+      <c r="D13" s="70">
+        <v>1635</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" s="71"/>
+      <c r="K13" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="O13" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+    </row>
+    <row r="14" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+    </row>
+    <row r="15" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+    </row>
+    <row r="16" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+    </row>
+    <row r="17" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+    </row>
+    <row r="18" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+    </row>
+    <row r="19" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+    </row>
+    <row r="20" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+    </row>
+    <row r="21" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+    </row>
+    <row r="22" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+    </row>
+    <row r="23" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+    </row>
+    <row r="24" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+    </row>
+    <row r="25" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+    </row>
+    <row r="26" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+    </row>
+    <row r="27" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+    </row>
+    <row r="28" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+    </row>
+    <row r="29" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+    </row>
+    <row r="30" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+    </row>
+    <row r="31" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+    </row>
+    <row r="32" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+    </row>
+    <row r="33" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+    </row>
+    <row r="34" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+    </row>
+    <row r="35" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+    </row>
+    <row r="36" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+    </row>
+    <row r="37" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+    </row>
+    <row r="38" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+    </row>
+    <row r="39" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+    </row>
+    <row r="40" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+    </row>
+    <row r="41" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+    </row>
+    <row r="42" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+    </row>
+    <row r="43" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+    </row>
+    <row r="44" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+    </row>
+    <row r="45" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+    </row>
+    <row r="46" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+    </row>
+    <row r="47" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+    </row>
+    <row r="48" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+    </row>
+    <row r="49" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+    </row>
+    <row r="50" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+    </row>
+    <row r="51" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="71"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+    </row>
+    <row r="52" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+    </row>
+    <row r="53" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+    </row>
+    <row r="54" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+    </row>
+    <row r="55" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A55" s="71"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+    </row>
+    <row r="56" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+    </row>
+    <row r="57" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A57" s="71"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+    </row>
+    <row r="58" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+    </row>
+    <row r="59" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+    </row>
+    <row r="60" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+    </row>
+    <row r="61" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+    </row>
+    <row r="62" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+    </row>
+    <row r="63" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+    </row>
+    <row r="64" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+    </row>
+    <row r="65" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+    </row>
+    <row r="66" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+    </row>
+    <row r="67" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="76"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+    </row>
+    <row r="68" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+    </row>
+    <row r="69" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+    </row>
+    <row r="70" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+    </row>
+    <row r="71" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A71" s="71"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="76"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+    </row>
+    <row r="72" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+    </row>
+    <row r="73" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+    </row>
+    <row r="74" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+    </row>
+    <row r="75" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+    </row>
+    <row r="76" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+    </row>
+    <row r="77" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+    </row>
+    <row r="78" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+    </row>
+    <row r="79" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="71"/>
+      <c r="P79" s="71"/>
+      <c r="Q79" s="71"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+    </row>
+    <row r="80" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="71"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+    </row>
+    <row r="81" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+    </row>
+    <row r="82" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A82" s="71"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+    </row>
+    <row r="83" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A83" s="71"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="71"/>
+    </row>
+    <row r="84" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+    </row>
+    <row r="85" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+    </row>
+    <row r="86" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+    </row>
+    <row r="87" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A87" s="71"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="76"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="71"/>
+      <c r="S87" s="71"/>
+    </row>
+    <row r="88" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="76"/>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="71"/>
+      <c r="S88" s="71"/>
+    </row>
+    <row r="89" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="71"/>
+      <c r="M89" s="71"/>
+      <c r="N89" s="71"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="71"/>
+      <c r="Q89" s="71"/>
+      <c r="R89" s="71"/>
+      <c r="S89" s="71"/>
+    </row>
+    <row r="90" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="71"/>
+      <c r="M90" s="71"/>
+      <c r="N90" s="71"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="71"/>
+      <c r="Q90" s="71"/>
+      <c r="R90" s="71"/>
+      <c r="S90" s="71"/>
+    </row>
+    <row r="91" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A91" s="71"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="71"/>
+    </row>
+    <row r="92" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="71"/>
+      <c r="O92" s="71"/>
+      <c r="P92" s="71"/>
+      <c r="Q92" s="71"/>
+      <c r="R92" s="71"/>
+      <c r="S92" s="71"/>
+    </row>
+    <row r="93" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A93" s="71"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="76"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
+      <c r="P93" s="71"/>
+      <c r="Q93" s="71"/>
+      <c r="R93" s="71"/>
+      <c r="S93" s="71"/>
+    </row>
+    <row r="94" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="76"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
+      <c r="Q94" s="71"/>
+      <c r="R94" s="71"/>
+      <c r="S94" s="71"/>
+    </row>
+    <row r="95" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="76"/>
+      <c r="L95" s="71"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71"/>
+      <c r="R95" s="71"/>
+      <c r="S95" s="71"/>
+    </row>
+    <row r="96" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="76"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="71"/>
+      <c r="S96" s="71"/>
+    </row>
+    <row r="97" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A97" s="71"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="76"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="71"/>
+      <c r="S97" s="71"/>
+    </row>
+    <row r="98" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A98" s="71"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="R98" s="71"/>
+      <c r="S98" s="71"/>
+    </row>
+    <row r="99" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="71"/>
+    </row>
+    <row r="100" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A100" s="71"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="71"/>
+      <c r="S100" s="71"/>
+    </row>
+    <row r="101" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A101" s="71"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="71"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="71"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="71"/>
+    </row>
+    <row r="102" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A102" s="71"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="76"/>
+      <c r="L102" s="71"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="71"/>
+      <c r="S102" s="71"/>
+    </row>
+    <row r="103" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A103" s="71"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="71"/>
+      <c r="S103" s="71"/>
+    </row>
+    <row r="104" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A104" s="71"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="71"/>
+      <c r="S104" s="71"/>
+    </row>
+    <row r="105" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A105" s="71"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71"/>
+      <c r="R105" s="71"/>
+      <c r="S105" s="71"/>
+    </row>
+    <row r="106" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A106" s="71"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="71"/>
+    </row>
+    <row r="107" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A107" s="71"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71"/>
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="71"/>
+    </row>
+    <row r="108" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A108" s="71"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="76"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
+      <c r="O108" s="71"/>
+      <c r="P108" s="71"/>
+      <c r="Q108" s="71"/>
+      <c r="R108" s="71"/>
+      <c r="S108" s="71"/>
+    </row>
+    <row r="109" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A109" s="71"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="71"/>
+      <c r="N109" s="71"/>
+      <c r="O109" s="71"/>
+      <c r="P109" s="71"/>
+      <c r="Q109" s="71"/>
+      <c r="R109" s="71"/>
+      <c r="S109" s="71"/>
+    </row>
+    <row r="110" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A110" s="71"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="71"/>
+      <c r="M110" s="71"/>
+      <c r="N110" s="71"/>
+      <c r="O110" s="71"/>
+      <c r="P110" s="71"/>
+      <c r="Q110" s="71"/>
+      <c r="R110" s="71"/>
+      <c r="S110" s="71"/>
+    </row>
+    <row r="111" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A111" s="71"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="71"/>
+      <c r="M111" s="71"/>
+      <c r="N111" s="71"/>
+      <c r="O111" s="71"/>
+      <c r="P111" s="71"/>
+      <c r="Q111" s="71"/>
+      <c r="R111" s="71"/>
+      <c r="S111" s="71"/>
+    </row>
+    <row r="112" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A112" s="71"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="71"/>
+      <c r="N112" s="71"/>
+      <c r="O112" s="71"/>
+      <c r="P112" s="71"/>
+      <c r="Q112" s="71"/>
+      <c r="R112" s="71"/>
+      <c r="S112" s="71"/>
+    </row>
+    <row r="113" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A113" s="71"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="71"/>
+      <c r="M113" s="71"/>
+      <c r="N113" s="71"/>
+      <c r="O113" s="71"/>
+      <c r="P113" s="71"/>
+      <c r="Q113" s="71"/>
+      <c r="R113" s="71"/>
+      <c r="S113" s="71"/>
+    </row>
+    <row r="114" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A114" s="71"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
+      <c r="O114" s="71"/>
+      <c r="P114" s="71"/>
+      <c r="Q114" s="71"/>
+      <c r="R114" s="71"/>
+      <c r="S114" s="71"/>
+    </row>
+    <row r="115" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A115" s="71"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="71"/>
+      <c r="M115" s="71"/>
+      <c r="N115" s="71"/>
+      <c r="O115" s="71"/>
+      <c r="P115" s="71"/>
+      <c r="Q115" s="71"/>
+      <c r="R115" s="71"/>
+      <c r="S115" s="71"/>
+    </row>
+    <row r="116" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A116" s="71"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="76"/>
+      <c r="L116" s="71"/>
+      <c r="M116" s="71"/>
+      <c r="N116" s="71"/>
+      <c r="O116" s="71"/>
+      <c r="P116" s="71"/>
+      <c r="Q116" s="71"/>
+      <c r="R116" s="71"/>
+      <c r="S116" s="71"/>
+    </row>
+    <row r="117" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A117" s="71"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="71"/>
+      <c r="M117" s="71"/>
+      <c r="N117" s="71"/>
+      <c r="O117" s="71"/>
+      <c r="P117" s="71"/>
+      <c r="Q117" s="71"/>
+      <c r="R117" s="71"/>
+      <c r="S117" s="71"/>
+    </row>
+    <row r="118" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A118" s="71"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="71"/>
+      <c r="M118" s="71"/>
+      <c r="N118" s="71"/>
+      <c r="O118" s="71"/>
+      <c r="P118" s="71"/>
+      <c r="Q118" s="71"/>
+      <c r="R118" s="71"/>
+      <c r="S118" s="71"/>
+    </row>
+    <row r="119" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="71"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="71"/>
+      <c r="M119" s="71"/>
+      <c r="N119" s="71"/>
+      <c r="O119" s="71"/>
+      <c r="P119" s="71"/>
+      <c r="Q119" s="71"/>
+      <c r="R119" s="71"/>
+      <c r="S119" s="71"/>
+    </row>
+    <row r="120" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="71"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="71"/>
+      <c r="M120" s="71"/>
+      <c r="N120" s="71"/>
+      <c r="O120" s="71"/>
+      <c r="P120" s="71"/>
+      <c r="Q120" s="71"/>
+      <c r="R120" s="71"/>
+      <c r="S120" s="71"/>
+    </row>
+    <row r="121" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="71"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="71"/>
+      <c r="M121" s="71"/>
+      <c r="N121" s="71"/>
+      <c r="O121" s="71"/>
+      <c r="P121" s="71"/>
+      <c r="Q121" s="71"/>
+      <c r="R121" s="71"/>
+      <c r="S121" s="71"/>
+    </row>
+    <row r="122" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A122" s="71"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="71"/>
+      <c r="M122" s="71"/>
+      <c r="N122" s="71"/>
+      <c r="O122" s="71"/>
+      <c r="P122" s="71"/>
+      <c r="Q122" s="71"/>
+      <c r="R122" s="71"/>
+      <c r="S122" s="71"/>
+    </row>
+    <row r="123" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A123" s="71"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="76"/>
+      <c r="L123" s="71"/>
+      <c r="M123" s="71"/>
+      <c r="N123" s="71"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="71"/>
+      <c r="Q123" s="71"/>
+      <c r="R123" s="71"/>
+      <c r="S123" s="71"/>
+    </row>
+    <row r="124" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A124" s="71"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="71"/>
+      <c r="M124" s="71"/>
+      <c r="N124" s="71"/>
+      <c r="O124" s="71"/>
+      <c r="P124" s="71"/>
+      <c r="Q124" s="71"/>
+      <c r="R124" s="71"/>
+      <c r="S124" s="71"/>
+    </row>
+    <row r="125" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A125" s="71"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="71"/>
+      <c r="M125" s="71"/>
+      <c r="N125" s="71"/>
+      <c r="O125" s="71"/>
+      <c r="P125" s="71"/>
+      <c r="Q125" s="71"/>
+      <c r="R125" s="71"/>
+      <c r="S125" s="71"/>
+    </row>
+    <row r="126" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A126" s="71"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="71"/>
+      <c r="M126" s="71"/>
+      <c r="N126" s="71"/>
+      <c r="O126" s="71"/>
+      <c r="P126" s="71"/>
+      <c r="Q126" s="71"/>
+      <c r="R126" s="71"/>
+      <c r="S126" s="71"/>
+    </row>
+    <row r="127" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A127" s="71"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="76"/>
+      <c r="L127" s="71"/>
+      <c r="M127" s="71"/>
+      <c r="N127" s="71"/>
+      <c r="O127" s="71"/>
+      <c r="P127" s="71"/>
+      <c r="Q127" s="71"/>
+      <c r="R127" s="71"/>
+      <c r="S127" s="71"/>
+    </row>
+    <row r="128" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A128" s="71"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="76"/>
+      <c r="L128" s="71"/>
+      <c r="M128" s="71"/>
+      <c r="N128" s="71"/>
+      <c r="O128" s="71"/>
+      <c r="P128" s="71"/>
+      <c r="Q128" s="71"/>
+      <c r="R128" s="71"/>
+      <c r="S128" s="71"/>
+    </row>
+    <row r="129" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A129" s="71"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="71"/>
+      <c r="M129" s="71"/>
+      <c r="N129" s="71"/>
+      <c r="O129" s="71"/>
+      <c r="P129" s="71"/>
+      <c r="Q129" s="71"/>
+      <c r="R129" s="71"/>
+      <c r="S129" s="71"/>
+    </row>
+    <row r="130" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A130" s="71"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="76"/>
+      <c r="L130" s="71"/>
+      <c r="M130" s="71"/>
+      <c r="N130" s="71"/>
+      <c r="O130" s="71"/>
+      <c r="P130" s="71"/>
+      <c r="Q130" s="71"/>
+      <c r="R130" s="71"/>
+      <c r="S130" s="71"/>
+    </row>
+    <row r="131" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A131" s="71"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="76"/>
+      <c r="L131" s="71"/>
+      <c r="M131" s="71"/>
+      <c r="N131" s="71"/>
+      <c r="O131" s="71"/>
+      <c r="P131" s="71"/>
+      <c r="Q131" s="71"/>
+      <c r="R131" s="71"/>
+      <c r="S131" s="71"/>
+    </row>
+    <row r="132" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A132" s="71"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="76"/>
+      <c r="L132" s="71"/>
+      <c r="M132" s="71"/>
+      <c r="N132" s="71"/>
+      <c r="O132" s="71"/>
+      <c r="P132" s="71"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="71"/>
+      <c r="S132" s="71"/>
+    </row>
+    <row r="133" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A133" s="71"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="71"/>
+      <c r="M133" s="71"/>
+      <c r="N133" s="71"/>
+      <c r="O133" s="71"/>
+      <c r="P133" s="71"/>
+      <c r="Q133" s="71"/>
+      <c r="R133" s="71"/>
+      <c r="S133" s="71"/>
+    </row>
+    <row r="134" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="A134" s="71"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="76"/>
+      <c r="L134" s="71"/>
+      <c r="M134" s="71"/>
+      <c r="N134" s="71"/>
+      <c r="O134" s="71"/>
+      <c r="P134" s="71"/>
+      <c r="Q134" s="71"/>
+      <c r="R134" s="71"/>
+      <c r="S134" s="71"/>
+    </row>
+    <row r="135" spans="1:19" ht="21" customHeight="1">
+      <c r="A135" s="73"/>
+      <c r="B135" s="73"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="73"/>
+      <c r="F135" s="73"/>
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
+      <c r="K135" s="77"/>
+      <c r="L135" s="73"/>
+      <c r="M135" s="73"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="73"/>
+      <c r="Q135" s="73"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+    </row>
+    <row r="136" spans="1:19" ht="21" customHeight="1">
+      <c r="A136" s="73"/>
+      <c r="B136" s="73"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="73"/>
+      <c r="M136" s="73"/>
+      <c r="N136" s="73"/>
+      <c r="O136" s="73"/>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="73"/>
+      <c r="S136" s="73"/>
+    </row>
+    <row r="137" spans="1:19" ht="21" customHeight="1">
+      <c r="A137" s="73"/>
+      <c r="B137" s="73"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="73"/>
+      <c r="H137" s="73"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="73"/>
+      <c r="K137" s="77"/>
+      <c r="L137" s="73"/>
+      <c r="M137" s="73"/>
+      <c r="N137" s="73"/>
+      <c r="O137" s="73"/>
+      <c r="P137" s="73"/>
+      <c r="Q137" s="73"/>
+      <c r="R137" s="73"/>
+      <c r="S137" s="73"/>
+    </row>
+    <row r="138" spans="1:19" ht="21" customHeight="1">
+      <c r="A138" s="73"/>
+      <c r="B138" s="73"/>
+      <c r="C138" s="73"/>
+      <c r="D138" s="73"/>
+      <c r="E138" s="73"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="73"/>
+      <c r="H138" s="73"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="73"/>
+      <c r="K138" s="77"/>
+      <c r="L138" s="73"/>
+      <c r="M138" s="73"/>
+      <c r="N138" s="73"/>
+      <c r="O138" s="73"/>
+      <c r="P138" s="73"/>
+      <c r="Q138" s="73"/>
+      <c r="R138" s="73"/>
+      <c r="S138" s="73"/>
+    </row>
+    <row r="139" spans="1:19" ht="21" customHeight="1">
+      <c r="A139" s="73"/>
+      <c r="B139" s="73"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="73"/>
+      <c r="H139" s="73"/>
+      <c r="I139" s="73"/>
+      <c r="J139" s="73"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="73"/>
+      <c r="N139" s="73"/>
+      <c r="O139" s="73"/>
+      <c r="P139" s="73"/>
+      <c r="Q139" s="73"/>
+      <c r="R139" s="73"/>
+      <c r="S139" s="73"/>
+    </row>
+    <row r="140" spans="1:19" ht="21" customHeight="1">
+      <c r="A140" s="73"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73"/>
+      <c r="E140" s="73"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="73"/>
+      <c r="H140" s="73"/>
+      <c r="I140" s="73"/>
+      <c r="J140" s="73"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="73"/>
+      <c r="M140" s="73"/>
+      <c r="N140" s="73"/>
+      <c r="O140" s="73"/>
+      <c r="P140" s="73"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="73"/>
+      <c r="S140" s="73"/>
+    </row>
+    <row r="141" spans="1:19" ht="21" customHeight="1">
+      <c r="A141" s="73"/>
+      <c r="B141" s="73"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
+      <c r="H141" s="73"/>
+      <c r="I141" s="73"/>
+      <c r="J141" s="73"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="73"/>
+      <c r="M141" s="73"/>
+      <c r="N141" s="73"/>
+      <c r="O141" s="73"/>
+      <c r="P141" s="73"/>
+      <c r="Q141" s="73"/>
+      <c r="R141" s="73"/>
+      <c r="S141" s="73"/>
+    </row>
+    <row r="142" spans="1:19" ht="21" customHeight="1">
+      <c r="A142" s="73"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="73"/>
+      <c r="H142" s="73"/>
+      <c r="I142" s="73"/>
+      <c r="J142" s="73"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="73"/>
+      <c r="M142" s="73"/>
+      <c r="N142" s="73"/>
+      <c r="O142" s="73"/>
+      <c r="P142" s="73"/>
+      <c r="Q142" s="73"/>
+      <c r="R142" s="73"/>
+      <c r="S142" s="73"/>
+    </row>
+    <row r="143" spans="1:19" ht="21" customHeight="1">
+      <c r="A143" s="73"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="73"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="73"/>
+      <c r="O143" s="73"/>
+      <c r="P143" s="73"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="73"/>
+      <c r="S143" s="73"/>
+    </row>
+    <row r="144" spans="1:19" ht="21" customHeight="1">
+      <c r="A144" s="73"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="73"/>
+      <c r="H144" s="73"/>
+      <c r="I144" s="73"/>
+      <c r="J144" s="73"/>
+      <c r="K144" s="77"/>
+      <c r="L144" s="73"/>
+      <c r="M144" s="73"/>
+      <c r="N144" s="73"/>
+      <c r="O144" s="73"/>
+      <c r="P144" s="73"/>
+      <c r="Q144" s="73"/>
+      <c r="R144" s="73"/>
+      <c r="S144" s="73"/>
+    </row>
+    <row r="145" spans="1:19" ht="21" customHeight="1">
+      <c r="A145" s="73"/>
+      <c r="B145" s="73"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="73"/>
+      <c r="H145" s="73"/>
+      <c r="I145" s="73"/>
+      <c r="J145" s="73"/>
+      <c r="K145" s="77"/>
+      <c r="L145" s="73"/>
+      <c r="M145" s="73"/>
+      <c r="N145" s="73"/>
+      <c r="O145" s="73"/>
+      <c r="P145" s="73"/>
+      <c r="Q145" s="73"/>
+      <c r="R145" s="73"/>
+      <c r="S145" s="73"/>
+    </row>
+    <row r="146" spans="1:19" ht="21" customHeight="1">
+      <c r="A146" s="73"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="73"/>
+      <c r="K146" s="77"/>
+      <c r="L146" s="73"/>
+      <c r="M146" s="73"/>
+      <c r="N146" s="73"/>
+      <c r="O146" s="73"/>
+      <c r="P146" s="73"/>
+      <c r="Q146" s="73"/>
+      <c r="R146" s="73"/>
+      <c r="S146" s="73"/>
+    </row>
+    <row r="147" spans="1:19" ht="21" customHeight="1">
+      <c r="A147" s="73"/>
+      <c r="B147" s="73"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="73"/>
+      <c r="E147" s="73"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="73"/>
+      <c r="H147" s="73"/>
+      <c r="I147" s="73"/>
+      <c r="J147" s="73"/>
+      <c r="K147" s="77"/>
+      <c r="L147" s="73"/>
+      <c r="M147" s="73"/>
+      <c r="N147" s="73"/>
+      <c r="O147" s="73"/>
+      <c r="P147" s="73"/>
+      <c r="Q147" s="73"/>
+      <c r="R147" s="73"/>
+      <c r="S147" s="73"/>
+    </row>
+    <row r="148" spans="1:19" ht="21" customHeight="1">
+      <c r="A148" s="73"/>
+      <c r="B148" s="73"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="73"/>
+      <c r="E148" s="73"/>
+      <c r="F148" s="73"/>
+      <c r="G148" s="73"/>
+      <c r="H148" s="73"/>
+      <c r="I148" s="73"/>
+      <c r="J148" s="73"/>
+      <c r="K148" s="77"/>
+      <c r="L148" s="73"/>
+      <c r="M148" s="73"/>
+      <c r="N148" s="73"/>
+      <c r="O148" s="73"/>
+      <c r="P148" s="73"/>
+      <c r="Q148" s="73"/>
+      <c r="R148" s="73"/>
+      <c r="S148" s="73"/>
+    </row>
+    <row r="149" spans="1:19" ht="21" customHeight="1">
+      <c r="A149" s="73"/>
+      <c r="B149" s="73"/>
+      <c r="C149" s="73"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="73"/>
+      <c r="H149" s="73"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="73"/>
+      <c r="K149" s="77"/>
+      <c r="L149" s="73"/>
+      <c r="M149" s="73"/>
+      <c r="N149" s="73"/>
+      <c r="O149" s="73"/>
+      <c r="P149" s="73"/>
+      <c r="Q149" s="73"/>
+      <c r="R149" s="73"/>
+      <c r="S149" s="73"/>
+    </row>
+    <row r="150" spans="1:19" ht="21" customHeight="1">
+      <c r="A150" s="73"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="73"/>
+      <c r="E150" s="73"/>
+      <c r="F150" s="73"/>
+      <c r="G150" s="73"/>
+      <c r="H150" s="73"/>
+      <c r="I150" s="73"/>
+      <c r="J150" s="73"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="73"/>
+      <c r="M150" s="73"/>
+      <c r="N150" s="73"/>
+      <c r="O150" s="73"/>
+      <c r="P150" s="73"/>
+      <c r="Q150" s="73"/>
+      <c r="R150" s="73"/>
+      <c r="S150" s="73"/>
+    </row>
+    <row r="151" spans="1:19" ht="21" customHeight="1">
+      <c r="A151" s="73"/>
+      <c r="B151" s="73"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="73"/>
+      <c r="E151" s="73"/>
+      <c r="F151" s="73"/>
+      <c r="G151" s="73"/>
+      <c r="H151" s="73"/>
+      <c r="I151" s="73"/>
+      <c r="J151" s="73"/>
+      <c r="K151" s="77"/>
+      <c r="L151" s="73"/>
+      <c r="M151" s="73"/>
+      <c r="N151" s="73"/>
+      <c r="O151" s="73"/>
+      <c r="P151" s="73"/>
+      <c r="Q151" s="73"/>
+      <c r="R151" s="73"/>
+      <c r="S151" s="73"/>
+    </row>
+    <row r="152" spans="1:19" ht="21" customHeight="1">
+      <c r="A152" s="73"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="73"/>
+      <c r="E152" s="73"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="73"/>
+      <c r="H152" s="73"/>
+      <c r="I152" s="73"/>
+      <c r="J152" s="73"/>
+      <c r="K152" s="77"/>
+      <c r="L152" s="73"/>
+      <c r="M152" s="73"/>
+      <c r="N152" s="73"/>
+      <c r="O152" s="73"/>
+      <c r="P152" s="73"/>
+      <c r="Q152" s="73"/>
+      <c r="R152" s="73"/>
+      <c r="S152" s="73"/>
+    </row>
+    <row r="153" spans="1:19" ht="21" customHeight="1">
+      <c r="A153" s="73"/>
+      <c r="B153" s="73"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="73"/>
+      <c r="E153" s="73"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="73"/>
+      <c r="H153" s="73"/>
+      <c r="I153" s="73"/>
+      <c r="J153" s="73"/>
+      <c r="K153" s="77"/>
+      <c r="L153" s="73"/>
+      <c r="M153" s="73"/>
+      <c r="N153" s="73"/>
+      <c r="O153" s="73"/>
+      <c r="P153" s="73"/>
+      <c r="Q153" s="73"/>
+      <c r="R153" s="73"/>
+      <c r="S153" s="73"/>
+    </row>
+    <row r="154" spans="1:19" ht="21" customHeight="1">
+      <c r="A154" s="73"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="73"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="73"/>
+      <c r="H154" s="73"/>
+      <c r="I154" s="73"/>
+      <c r="J154" s="73"/>
+      <c r="K154" s="77"/>
+      <c r="L154" s="73"/>
+      <c r="M154" s="73"/>
+      <c r="N154" s="73"/>
+      <c r="O154" s="73"/>
+      <c r="P154" s="73"/>
+      <c r="Q154" s="73"/>
+      <c r="R154" s="73"/>
+      <c r="S154" s="73"/>
+    </row>
+    <row r="155" spans="1:19" ht="21" customHeight="1">
+      <c r="A155" s="73"/>
+      <c r="B155" s="73"/>
+      <c r="C155" s="73"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="73"/>
+      <c r="H155" s="73"/>
+      <c r="I155" s="73"/>
+      <c r="J155" s="73"/>
+      <c r="K155" s="77"/>
+      <c r="L155" s="73"/>
+      <c r="M155" s="73"/>
+      <c r="N155" s="73"/>
+      <c r="O155" s="73"/>
+      <c r="P155" s="73"/>
+      <c r="Q155" s="73"/>
+      <c r="R155" s="73"/>
+      <c r="S155" s="73"/>
+    </row>
+    <row r="156" spans="1:19" ht="21" customHeight="1">
+      <c r="A156" s="73"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="73"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="73"/>
+      <c r="H156" s="73"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="73"/>
+      <c r="K156" s="77"/>
+      <c r="L156" s="73"/>
+      <c r="M156" s="73"/>
+      <c r="N156" s="73"/>
+      <c r="O156" s="73"/>
+      <c r="P156" s="73"/>
+      <c r="Q156" s="73"/>
+      <c r="R156" s="73"/>
+      <c r="S156" s="73"/>
+    </row>
+    <row r="157" spans="1:19" ht="21" customHeight="1">
+      <c r="A157" s="73"/>
+      <c r="B157" s="73"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="73"/>
+      <c r="E157" s="73"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="73"/>
+      <c r="H157" s="73"/>
+      <c r="I157" s="73"/>
+      <c r="J157" s="73"/>
+      <c r="K157" s="77"/>
+      <c r="L157" s="73"/>
+      <c r="M157" s="73"/>
+      <c r="N157" s="73"/>
+      <c r="O157" s="73"/>
+      <c r="P157" s="73"/>
+      <c r="Q157" s="73"/>
+      <c r="R157" s="73"/>
+      <c r="S157" s="73"/>
+    </row>
+    <row r="158" spans="1:19" ht="21" customHeight="1">
+      <c r="A158" s="73"/>
+      <c r="B158" s="73"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="73"/>
+      <c r="E158" s="73"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="73"/>
+      <c r="H158" s="73"/>
+      <c r="I158" s="73"/>
+      <c r="J158" s="73"/>
+      <c r="K158" s="77"/>
+      <c r="L158" s="73"/>
+      <c r="M158" s="73"/>
+      <c r="N158" s="73"/>
+      <c r="O158" s="73"/>
+      <c r="P158" s="73"/>
+      <c r="Q158" s="73"/>
+      <c r="R158" s="73"/>
+      <c r="S158" s="73"/>
+    </row>
+    <row r="159" spans="1:19" ht="21" customHeight="1">
+      <c r="A159" s="73"/>
+      <c r="B159" s="73"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="77"/>
+      <c r="L159" s="73"/>
+      <c r="M159" s="73"/>
+      <c r="N159" s="73"/>
+      <c r="O159" s="73"/>
+      <c r="P159" s="73"/>
+      <c r="Q159" s="73"/>
+      <c r="R159" s="73"/>
+      <c r="S159" s="73"/>
+    </row>
+    <row r="160" spans="1:19" ht="21" customHeight="1">
+      <c r="A160" s="73"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="73"/>
+      <c r="E160" s="73"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="73"/>
+      <c r="H160" s="73"/>
+      <c r="I160" s="73"/>
+      <c r="J160" s="73"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="73"/>
+      <c r="M160" s="73"/>
+      <c r="N160" s="73"/>
+      <c r="O160" s="73"/>
+      <c r="P160" s="73"/>
+      <c r="Q160" s="73"/>
+      <c r="R160" s="73"/>
+      <c r="S160" s="73"/>
+    </row>
+    <row r="161" spans="1:19" ht="21" customHeight="1">
+      <c r="A161" s="73"/>
+      <c r="B161" s="73"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="73"/>
+      <c r="H161" s="73"/>
+      <c r="I161" s="73"/>
+      <c r="J161" s="73"/>
+      <c r="K161" s="77"/>
+      <c r="L161" s="73"/>
+      <c r="M161" s="73"/>
+      <c r="N161" s="73"/>
+      <c r="O161" s="73"/>
+      <c r="P161" s="73"/>
+      <c r="Q161" s="73"/>
+      <c r="R161" s="73"/>
+      <c r="S161" s="73"/>
+    </row>
+    <row r="162" spans="1:19" ht="21" customHeight="1">
+      <c r="A162" s="73"/>
+      <c r="B162" s="73"/>
+      <c r="C162" s="73"/>
+      <c r="D162" s="73"/>
+      <c r="E162" s="73"/>
+      <c r="F162" s="73"/>
+      <c r="G162" s="73"/>
+      <c r="H162" s="73"/>
+      <c r="I162" s="73"/>
+      <c r="J162" s="73"/>
+      <c r="K162" s="77"/>
+      <c r="L162" s="73"/>
+      <c r="M162" s="73"/>
+      <c r="N162" s="73"/>
+      <c r="O162" s="73"/>
+      <c r="P162" s="73"/>
+      <c r="Q162" s="73"/>
+      <c r="R162" s="73"/>
+      <c r="S162" s="73"/>
+    </row>
+    <row r="163" spans="1:19" ht="21" customHeight="1">
+      <c r="A163" s="73"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="73"/>
+      <c r="D163" s="73"/>
+      <c r="E163" s="73"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
+      <c r="K163" s="77"/>
+      <c r="L163" s="73"/>
+      <c r="M163" s="73"/>
+      <c r="N163" s="73"/>
+      <c r="O163" s="73"/>
+      <c r="P163" s="73"/>
+      <c r="Q163" s="73"/>
+      <c r="R163" s="73"/>
+      <c r="S163" s="73"/>
+    </row>
+    <row r="164" spans="1:19" ht="21" customHeight="1">
+      <c r="A164" s="73"/>
+      <c r="B164" s="73"/>
+      <c r="C164" s="73"/>
+      <c r="D164" s="73"/>
+      <c r="E164" s="73"/>
+      <c r="F164" s="73"/>
+      <c r="G164" s="73"/>
+      <c r="H164" s="73"/>
+      <c r="I164" s="73"/>
+      <c r="J164" s="73"/>
+      <c r="K164" s="77"/>
+      <c r="L164" s="73"/>
+      <c r="M164" s="73"/>
+      <c r="N164" s="73"/>
+      <c r="O164" s="73"/>
+      <c r="P164" s="73"/>
+      <c r="Q164" s="73"/>
+      <c r="R164" s="73"/>
+      <c r="S164" s="73"/>
+    </row>
+    <row r="165" spans="1:19" ht="21" customHeight="1">
+      <c r="A165" s="73"/>
+      <c r="B165" s="73"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="73"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="73"/>
+      <c r="I165" s="73"/>
+      <c r="J165" s="73"/>
+      <c r="K165" s="77"/>
+      <c r="L165" s="73"/>
+      <c r="M165" s="73"/>
+      <c r="N165" s="73"/>
+      <c r="O165" s="73"/>
+      <c r="P165" s="73"/>
+      <c r="Q165" s="73"/>
+      <c r="R165" s="73"/>
+      <c r="S165" s="73"/>
+    </row>
+    <row r="166" spans="1:19" ht="21" customHeight="1">
+      <c r="A166" s="73"/>
+      <c r="B166" s="73"/>
+      <c r="C166" s="73"/>
+      <c r="D166" s="73"/>
+      <c r="E166" s="73"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="73"/>
+      <c r="H166" s="73"/>
+      <c r="I166" s="73"/>
+      <c r="J166" s="73"/>
+      <c r="K166" s="77"/>
+      <c r="L166" s="73"/>
+      <c r="M166" s="73"/>
+      <c r="N166" s="73"/>
+      <c r="O166" s="73"/>
+      <c r="P166" s="73"/>
+      <c r="Q166" s="73"/>
+      <c r="R166" s="73"/>
+      <c r="S166" s="73"/>
+    </row>
+    <row r="167" spans="1:19" ht="21" customHeight="1">
+      <c r="A167" s="73"/>
+      <c r="B167" s="73"/>
+      <c r="C167" s="73"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="73"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="73"/>
+      <c r="H167" s="73"/>
+      <c r="I167" s="73"/>
+      <c r="J167" s="73"/>
+      <c r="K167" s="77"/>
+      <c r="L167" s="73"/>
+      <c r="M167" s="73"/>
+      <c r="N167" s="73"/>
+      <c r="O167" s="73"/>
+      <c r="P167" s="73"/>
+      <c r="Q167" s="73"/>
+      <c r="R167" s="73"/>
+      <c r="S167" s="73"/>
+    </row>
+    <row r="168" spans="1:19" ht="21" customHeight="1">
+      <c r="A168" s="73"/>
+      <c r="B168" s="73"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="73"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="73"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="73"/>
+      <c r="K168" s="77"/>
+      <c r="L168" s="73"/>
+      <c r="M168" s="73"/>
+      <c r="N168" s="73"/>
+      <c r="O168" s="73"/>
+      <c r="P168" s="73"/>
+      <c r="Q168" s="73"/>
+      <c r="R168" s="73"/>
+      <c r="S168" s="73"/>
+    </row>
+    <row r="169" spans="1:19" ht="21" customHeight="1">
+      <c r="A169" s="73"/>
+      <c r="B169" s="73"/>
+      <c r="C169" s="73"/>
+      <c r="D169" s="73"/>
+      <c r="E169" s="73"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="73"/>
+      <c r="H169" s="73"/>
+      <c r="I169" s="73"/>
+      <c r="J169" s="73"/>
+      <c r="K169" s="77"/>
+      <c r="L169" s="73"/>
+      <c r="M169" s="73"/>
+      <c r="N169" s="73"/>
+      <c r="O169" s="73"/>
+      <c r="P169" s="73"/>
+      <c r="Q169" s="73"/>
+      <c r="R169" s="73"/>
+      <c r="S169" s="73"/>
+    </row>
+    <row r="170" spans="1:19" ht="21" customHeight="1">
+      <c r="A170" s="73"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="73"/>
+      <c r="D170" s="73"/>
+      <c r="E170" s="73"/>
+      <c r="F170" s="73"/>
+      <c r="G170" s="73"/>
+      <c r="H170" s="73"/>
+      <c r="I170" s="73"/>
+      <c r="J170" s="73"/>
+      <c r="K170" s="77"/>
+      <c r="L170" s="73"/>
+      <c r="M170" s="73"/>
+      <c r="N170" s="73"/>
+      <c r="O170" s="73"/>
+      <c r="P170" s="73"/>
+      <c r="Q170" s="73"/>
+      <c r="R170" s="73"/>
+      <c r="S170" s="73"/>
+    </row>
+    <row r="171" spans="1:19" ht="21" customHeight="1">
+      <c r="A171" s="73"/>
+      <c r="B171" s="73"/>
+      <c r="C171" s="73"/>
+      <c r="D171" s="73"/>
+      <c r="E171" s="73"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="73"/>
+      <c r="H171" s="73"/>
+      <c r="I171" s="73"/>
+      <c r="J171" s="73"/>
+      <c r="K171" s="77"/>
+      <c r="L171" s="73"/>
+      <c r="M171" s="73"/>
+      <c r="N171" s="73"/>
+      <c r="O171" s="73"/>
+      <c r="P171" s="73"/>
+      <c r="Q171" s="73"/>
+      <c r="R171" s="73"/>
+      <c r="S171" s="73"/>
+    </row>
+    <row r="172" spans="1:19" ht="21" customHeight="1">
+      <c r="A172" s="73"/>
+      <c r="B172" s="73"/>
+      <c r="C172" s="73"/>
+      <c r="D172" s="73"/>
+      <c r="E172" s="73"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="73"/>
+      <c r="H172" s="73"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="73"/>
+      <c r="K172" s="77"/>
+      <c r="L172" s="73"/>
+      <c r="M172" s="73"/>
+      <c r="N172" s="73"/>
+      <c r="O172" s="73"/>
+      <c r="P172" s="73"/>
+      <c r="Q172" s="73"/>
+      <c r="R172" s="73"/>
+      <c r="S172" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -23,6 +23,7 @@
     <sheet name="4-22" sheetId="14" r:id="rId14"/>
     <sheet name="4-23" sheetId="15" r:id="rId15"/>
     <sheet name="4-24" sheetId="16" r:id="rId16"/>
+    <sheet name="4-25" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'4-22'!$A$1:$S$16</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="382">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1370,6 +1371,66 @@
   <si>
     <t>0024182</t>
   </si>
+  <si>
+    <t>17832</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16972</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17846</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17840</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17835</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17834</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17833</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鹏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新地园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大件仓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万纬园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17845</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17844</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1895,9 +1956,6 @@
     <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,6 +2012,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -19183,190 +19244,190 @@
       <c r="S18" s="66"/>
     </row>
     <row r="19" spans="1:61" ht="21" customHeight="1">
-      <c r="A19" s="80">
+      <c r="A19" s="79">
         <v>43213</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="84">
         <v>1705</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="84">
         <v>1750</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="I19" s="87" t="s">
+      <c r="I19" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="83" t="s">
+      <c r="J19" s="84"/>
+      <c r="K19" s="82" t="s">
         <v>364</v>
       </c>
-      <c r="L19" s="79" t="s">
+      <c r="L19" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="88" t="s">
+      <c r="M19" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="84" t="s">
+      <c r="N19" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="82">
+      <c r="P19" s="81">
         <v>14</v>
       </c>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="86"/>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="86"/>
-      <c r="AS19" s="86"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="86"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="86"/>
-      <c r="AX19" s="86"/>
-      <c r="AY19" s="86"/>
-      <c r="AZ19" s="86"/>
-      <c r="BA19" s="86"/>
-      <c r="BB19" s="86"/>
-      <c r="BC19" s="86"/>
-      <c r="BD19" s="86"/>
-      <c r="BE19" s="86"/>
-      <c r="BF19" s="86"/>
-      <c r="BG19" s="86"/>
-      <c r="BH19" s="86"/>
-      <c r="BI19" s="86"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="85"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="85"/>
+      <c r="AX19" s="85"/>
+      <c r="AY19" s="85"/>
+      <c r="AZ19" s="85"/>
+      <c r="BA19" s="85"/>
+      <c r="BB19" s="85"/>
+      <c r="BC19" s="85"/>
+      <c r="BD19" s="85"/>
+      <c r="BE19" s="85"/>
+      <c r="BF19" s="85"/>
+      <c r="BG19" s="85"/>
+      <c r="BH19" s="85"/>
+      <c r="BI19" s="85"/>
     </row>
     <row r="20" spans="1:61" ht="21" customHeight="1">
-      <c r="A20" s="80">
+      <c r="A20" s="79">
         <v>43213</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="84">
         <v>1440</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="84">
         <v>1525</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="I20" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="J20" s="85"/>
-      <c r="K20" s="83" t="s">
+      <c r="J20" s="84"/>
+      <c r="K20" s="82" t="s">
         <v>366</v>
       </c>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="88" t="s">
+      <c r="M20" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="84" t="s">
+      <c r="N20" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="82">
+      <c r="P20" s="81">
         <v>14</v>
       </c>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="86"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="86"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="86"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="86"/>
-      <c r="AX20" s="86"/>
-      <c r="AY20" s="86"/>
-      <c r="AZ20" s="86"/>
-      <c r="BA20" s="86"/>
-      <c r="BB20" s="86"/>
-      <c r="BC20" s="86"/>
-      <c r="BD20" s="86"/>
-      <c r="BE20" s="86"/>
-      <c r="BF20" s="86"/>
-      <c r="BG20" s="86"/>
-      <c r="BH20" s="86"/>
-      <c r="BI20" s="86"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="85"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="85"/>
+      <c r="AY20" s="85"/>
+      <c r="AZ20" s="85"/>
+      <c r="BA20" s="85"/>
+      <c r="BB20" s="85"/>
+      <c r="BC20" s="85"/>
+      <c r="BD20" s="85"/>
+      <c r="BE20" s="85"/>
+      <c r="BF20" s="85"/>
+      <c r="BG20" s="85"/>
+      <c r="BH20" s="85"/>
+      <c r="BI20" s="85"/>
     </row>
     <row r="21" spans="1:61" ht="21" customHeight="1">
       <c r="A21" s="66"/>
@@ -19422,27 +19483,28 @@
   <dimension ref="A1:BI172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="74" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="74" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="74" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="74" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="74" customWidth="1"/>
-    <col min="14" max="15" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.25" style="74" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="13.25" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="73" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="73" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="73" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" style="73" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="64" customFormat="1" ht="20.25" customHeight="1">
@@ -19546,3948 +19608,4334 @@
       <c r="BH1" s="62"/>
       <c r="BI1" s="62"/>
     </row>
-    <row r="2" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="65">
         <v>43214</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="70">
-        <v>438</v>
-      </c>
-      <c r="D2" s="70">
-        <v>446</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="71" t="s">
+      <c r="B2" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="69">
+        <v>1035</v>
+      </c>
+      <c r="D2" s="69">
+        <v>1115</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="71" t="str">
-        <f>VLOOKUP(N2,ch!A:B,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="N2" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="O2" s="71" t="s">
+      <c r="M2" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P2" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-    </row>
-    <row r="3" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P2" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="65">
         <v>43214</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="70">
-        <v>247</v>
-      </c>
-      <c r="D3" s="70">
+      <c r="B3" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="69">
+        <v>1338</v>
+      </c>
+      <c r="D3" s="69">
+        <v>1420</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="O3" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>335</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="M3" s="71" t="str">
-        <f>VLOOKUP(N3,ch!A:B,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="N3" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="O3" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="P3" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-    </row>
-    <row r="4" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P3" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="65">
         <v>43214</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="70">
-        <v>153</v>
-      </c>
-      <c r="D4" s="70">
-        <v>200</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>335</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="71" t="s">
+      <c r="B4" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="69">
+        <v>1545</v>
+      </c>
+      <c r="D4" s="69">
+        <v>1635</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="L4" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M4" s="71" t="str">
-        <f>VLOOKUP(N4,ch!A:B,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P4" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-    </row>
-    <row r="5" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P4" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="65">
         <v>43214</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="70">
-        <v>118</v>
-      </c>
-      <c r="D5" s="70">
-        <v>128</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="C5" s="69">
+        <v>438</v>
+      </c>
+      <c r="D5" s="69">
+        <v>446</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="71" t="s">
+      <c r="I5" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M5" s="71" t="str">
+      <c r="M5" s="70" t="str">
         <f>VLOOKUP(N5,ch!A:B,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P5" s="71" t="s">
+      <c r="P5" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-    </row>
-    <row r="6" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="65">
         <v>43214</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="70">
-        <v>42</v>
-      </c>
-      <c r="D6" s="70">
-        <v>52</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="C6" s="69">
+        <v>247</v>
+      </c>
+      <c r="D6" s="69">
+        <v>255</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="71" t="s">
+      <c r="I6" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M6" s="71" t="str">
+      <c r="M6" s="70" t="str">
         <f>VLOOKUP(N6,ch!A:B,2,0)</f>
         <v>鄂AZR992</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="P6" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-    </row>
-    <row r="7" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="65">
         <v>43214</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="70">
-        <v>129</v>
-      </c>
-      <c r="D7" s="70">
-        <v>143</v>
-      </c>
-      <c r="E7" s="71" t="s">
+      <c r="C7" s="69">
+        <v>153</v>
+      </c>
+      <c r="D7" s="69">
+        <v>200</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="71" t="s">
+      <c r="I7" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M7" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="N7" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="O7" s="71" t="s">
+      <c r="M7" s="70" t="str">
+        <f>VLOOKUP(N7,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="O7" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-    </row>
-    <row r="8" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P7" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="65">
         <v>43214</v>
       </c>
       <c r="B8" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="70">
-        <v>43</v>
-      </c>
-      <c r="D8" s="70">
-        <v>105</v>
-      </c>
-      <c r="E8" s="71" t="s">
+      <c r="C8" s="69">
+        <v>118</v>
+      </c>
+      <c r="D8" s="69">
+        <v>128</v>
+      </c>
+      <c r="E8" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="75" t="s">
-        <v>343</v>
-      </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="71" t="s">
+      <c r="I8" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="N8" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="O8" s="71" t="s">
+      <c r="M8" s="70" t="str">
+        <f>VLOOKUP(N8,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="O8" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P8" s="71" t="s">
+      <c r="P8" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-    </row>
-    <row r="9" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+    </row>
+    <row r="9" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="65">
         <v>43214</v>
       </c>
       <c r="B9" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="70">
-        <v>323</v>
-      </c>
-      <c r="D9" s="70">
-        <v>330</v>
-      </c>
-      <c r="E9" s="71" t="s">
+      <c r="C9" s="69">
+        <v>42</v>
+      </c>
+      <c r="D9" s="69">
+        <v>52</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="71" t="s">
+      <c r="I9" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M9" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="N9" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="O9" s="71" t="s">
+      <c r="M9" s="70" t="str">
+        <f>VLOOKUP(N9,ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P9" s="71" t="s">
+      <c r="P9" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-    </row>
-    <row r="10" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="65">
         <v>43214</v>
       </c>
       <c r="B10" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="70">
-        <v>218</v>
-      </c>
-      <c r="D10" s="70">
-        <v>228</v>
-      </c>
-      <c r="E10" s="71" t="s">
+      <c r="C10" s="69">
+        <v>129</v>
+      </c>
+      <c r="D10" s="69">
+        <v>143</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="71" t="s">
+      <c r="I10" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P10" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-    </row>
-    <row r="11" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P10" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+    </row>
+    <row r="11" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="65">
         <v>43214</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="70">
-        <v>1035</v>
-      </c>
-      <c r="D11" s="70">
-        <v>1115</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="76" t="s">
-        <v>356</v>
-      </c>
-      <c r="L11" s="71" t="s">
+      <c r="B11" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="69">
+        <v>43</v>
+      </c>
+      <c r="D11" s="69">
+        <v>105</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M11" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="O11" s="71" t="s">
+      <c r="M11" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="O11" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P11" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-    </row>
-    <row r="12" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P11" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+    </row>
+    <row r="12" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="65">
         <v>43214</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="70">
-        <v>1338</v>
-      </c>
-      <c r="D12" s="70">
-        <v>1420</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="L12" s="71" t="s">
+      <c r="B12" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="69">
+        <v>323</v>
+      </c>
+      <c r="D12" s="69">
+        <v>330</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M12" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="N12" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="O12" s="71" t="s">
+      <c r="M12" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="O12" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P12" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-    </row>
-    <row r="13" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
+      <c r="P12" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+    </row>
+    <row r="13" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="65">
         <v>43214</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="70">
-        <v>1545</v>
-      </c>
-      <c r="D13" s="70">
-        <v>1635</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="76" t="s">
-        <v>360</v>
-      </c>
-      <c r="L13" s="71" t="s">
+      <c r="B13" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="69">
+        <v>218</v>
+      </c>
+      <c r="D13" s="69">
+        <v>228</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="M13" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="N13" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="O13" s="71" t="s">
+      <c r="M13" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="O13" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="P13" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-    </row>
-    <row r="14" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-    </row>
-    <row r="15" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-    </row>
-    <row r="16" spans="1:61" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-    </row>
-    <row r="17" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-    </row>
-    <row r="18" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-    </row>
-    <row r="19" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-    </row>
-    <row r="20" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-    </row>
-    <row r="21" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-    </row>
-    <row r="22" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-    </row>
-    <row r="23" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-    </row>
-    <row r="24" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-    </row>
-    <row r="25" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-    </row>
-    <row r="26" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-    </row>
-    <row r="27" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-    </row>
-    <row r="28" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-    </row>
-    <row r="29" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-    </row>
-    <row r="30" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-    </row>
-    <row r="31" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-    </row>
-    <row r="32" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-    </row>
-    <row r="33" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-    </row>
-    <row r="34" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-    </row>
-    <row r="35" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-    </row>
-    <row r="36" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-    </row>
-    <row r="37" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-    </row>
-    <row r="38" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-    </row>
-    <row r="39" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-    </row>
-    <row r="40" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-    </row>
-    <row r="41" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-    </row>
-    <row r="42" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-    </row>
-    <row r="43" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-    </row>
-    <row r="44" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-    </row>
-    <row r="45" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-    </row>
-    <row r="46" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-    </row>
-    <row r="47" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-    </row>
-    <row r="48" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-    </row>
-    <row r="49" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-    </row>
-    <row r="50" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-    </row>
-    <row r="51" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-    </row>
-    <row r="52" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-    </row>
-    <row r="53" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-    </row>
-    <row r="54" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-    </row>
-    <row r="55" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-    </row>
-    <row r="56" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-    </row>
-    <row r="57" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-    </row>
-    <row r="58" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-    </row>
-    <row r="59" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-    </row>
-    <row r="60" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-    </row>
-    <row r="61" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-    </row>
-    <row r="62" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-    </row>
-    <row r="63" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-    </row>
-    <row r="64" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71"/>
-    </row>
-    <row r="65" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-    </row>
-    <row r="66" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-    </row>
-    <row r="67" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="76"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-    </row>
-    <row r="68" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-    </row>
-    <row r="69" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="71"/>
-    </row>
-    <row r="70" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-    </row>
-    <row r="71" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-    </row>
-    <row r="72" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-    </row>
-    <row r="73" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-    </row>
-    <row r="74" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-    </row>
-    <row r="75" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-    </row>
-    <row r="76" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-    </row>
-    <row r="77" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-    </row>
-    <row r="78" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-    </row>
-    <row r="79" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-    </row>
-    <row r="80" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-    </row>
-    <row r="81" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="71"/>
-    </row>
-    <row r="82" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-    </row>
-    <row r="83" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="71"/>
-    </row>
-    <row r="84" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-    </row>
-    <row r="85" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-    </row>
-    <row r="86" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="76"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="71"/>
-    </row>
-    <row r="87" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A87" s="71"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="76"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-    </row>
-    <row r="88" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="76"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-    </row>
-    <row r="89" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-    </row>
-    <row r="90" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="76"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-    </row>
-    <row r="91" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A91" s="71"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="76"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-    </row>
-    <row r="92" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71"/>
-      <c r="O92" s="71"/>
-      <c r="P92" s="71"/>
-      <c r="Q92" s="71"/>
-      <c r="R92" s="71"/>
-      <c r="S92" s="71"/>
-    </row>
-    <row r="93" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A93" s="71"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="76"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
-      <c r="Q93" s="71"/>
-      <c r="R93" s="71"/>
-      <c r="S93" s="71"/>
-    </row>
-    <row r="94" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="76"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="71"/>
-      <c r="R94" s="71"/>
-      <c r="S94" s="71"/>
-    </row>
-    <row r="95" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="76"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="71"/>
-      <c r="Q95" s="71"/>
-      <c r="R95" s="71"/>
-      <c r="S95" s="71"/>
-    </row>
-    <row r="96" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71"/>
-      <c r="O96" s="71"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="71"/>
-      <c r="R96" s="71"/>
-      <c r="S96" s="71"/>
-    </row>
-    <row r="97" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A97" s="71"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="76"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71"/>
-      <c r="O97" s="71"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="71"/>
-      <c r="R97" s="71"/>
-      <c r="S97" s="71"/>
-    </row>
-    <row r="98" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="76"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="71"/>
-      <c r="O98" s="71"/>
-      <c r="P98" s="71"/>
-      <c r="Q98" s="71"/>
-      <c r="R98" s="71"/>
-      <c r="S98" s="71"/>
-    </row>
-    <row r="99" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="76"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="71"/>
-      <c r="P99" s="71"/>
-      <c r="Q99" s="71"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="71"/>
-    </row>
-    <row r="100" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A100" s="71"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="71"/>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
-      <c r="O100" s="71"/>
-      <c r="P100" s="71"/>
-      <c r="Q100" s="71"/>
-      <c r="R100" s="71"/>
-      <c r="S100" s="71"/>
-    </row>
-    <row r="101" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="71"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="71"/>
-      <c r="M101" s="71"/>
-      <c r="N101" s="71"/>
-      <c r="O101" s="71"/>
-      <c r="P101" s="71"/>
-      <c r="Q101" s="71"/>
-      <c r="R101" s="71"/>
-      <c r="S101" s="71"/>
-    </row>
-    <row r="102" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A102" s="71"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="71"/>
-      <c r="M102" s="71"/>
-      <c r="N102" s="71"/>
-      <c r="O102" s="71"/>
-      <c r="P102" s="71"/>
-      <c r="Q102" s="71"/>
-      <c r="R102" s="71"/>
-      <c r="S102" s="71"/>
-    </row>
-    <row r="103" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A103" s="71"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="71"/>
-      <c r="H103" s="71"/>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="71"/>
-      <c r="N103" s="71"/>
-      <c r="O103" s="71"/>
-      <c r="P103" s="71"/>
-      <c r="Q103" s="71"/>
-      <c r="R103" s="71"/>
-      <c r="S103" s="71"/>
-    </row>
-    <row r="104" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="71"/>
-      <c r="O104" s="71"/>
-      <c r="P104" s="71"/>
-      <c r="Q104" s="71"/>
-      <c r="R104" s="71"/>
-      <c r="S104" s="71"/>
-    </row>
-    <row r="105" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="71"/>
-      <c r="Q105" s="71"/>
-      <c r="R105" s="71"/>
-      <c r="S105" s="71"/>
-    </row>
-    <row r="106" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A106" s="71"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71"/>
-      <c r="O106" s="71"/>
-      <c r="P106" s="71"/>
-      <c r="Q106" s="71"/>
-      <c r="R106" s="71"/>
-      <c r="S106" s="71"/>
-    </row>
-    <row r="107" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A107" s="71"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
-      <c r="N107" s="71"/>
-      <c r="O107" s="71"/>
-      <c r="P107" s="71"/>
-      <c r="Q107" s="71"/>
-      <c r="R107" s="71"/>
-      <c r="S107" s="71"/>
-    </row>
-    <row r="108" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A108" s="71"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="71"/>
-      <c r="M108" s="71"/>
-      <c r="N108" s="71"/>
-      <c r="O108" s="71"/>
-      <c r="P108" s="71"/>
-      <c r="Q108" s="71"/>
-      <c r="R108" s="71"/>
-      <c r="S108" s="71"/>
-    </row>
-    <row r="109" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A109" s="71"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="71"/>
-      <c r="N109" s="71"/>
-      <c r="O109" s="71"/>
-      <c r="P109" s="71"/>
-      <c r="Q109" s="71"/>
-      <c r="R109" s="71"/>
-      <c r="S109" s="71"/>
-    </row>
-    <row r="110" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A110" s="71"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="71"/>
-      <c r="N110" s="71"/>
-      <c r="O110" s="71"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="71"/>
-      <c r="R110" s="71"/>
-      <c r="S110" s="71"/>
-    </row>
-    <row r="111" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A111" s="71"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="71"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="71"/>
-      <c r="N111" s="71"/>
-      <c r="O111" s="71"/>
-      <c r="P111" s="71"/>
-      <c r="Q111" s="71"/>
-      <c r="R111" s="71"/>
-      <c r="S111" s="71"/>
-    </row>
-    <row r="112" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A112" s="71"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="71"/>
-      <c r="O112" s="71"/>
-      <c r="P112" s="71"/>
-      <c r="Q112" s="71"/>
-      <c r="R112" s="71"/>
-      <c r="S112" s="71"/>
-    </row>
-    <row r="113" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A113" s="71"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="71"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="71"/>
-      <c r="M113" s="71"/>
-      <c r="N113" s="71"/>
-      <c r="O113" s="71"/>
-      <c r="P113" s="71"/>
-      <c r="Q113" s="71"/>
-      <c r="R113" s="71"/>
-      <c r="S113" s="71"/>
-    </row>
-    <row r="114" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A114" s="71"/>
-      <c r="B114" s="71"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="71"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
-      <c r="O114" s="71"/>
-      <c r="P114" s="71"/>
-      <c r="Q114" s="71"/>
-      <c r="R114" s="71"/>
-      <c r="S114" s="71"/>
-    </row>
-    <row r="115" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A115" s="71"/>
-      <c r="B115" s="71"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="76"/>
-      <c r="L115" s="71"/>
-      <c r="M115" s="71"/>
-      <c r="N115" s="71"/>
-      <c r="O115" s="71"/>
-      <c r="P115" s="71"/>
-      <c r="Q115" s="71"/>
-      <c r="R115" s="71"/>
-      <c r="S115" s="71"/>
-    </row>
-    <row r="116" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A116" s="71"/>
-      <c r="B116" s="71"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="76"/>
-      <c r="L116" s="71"/>
-      <c r="M116" s="71"/>
-      <c r="N116" s="71"/>
-      <c r="O116" s="71"/>
-      <c r="P116" s="71"/>
-      <c r="Q116" s="71"/>
-      <c r="R116" s="71"/>
-      <c r="S116" s="71"/>
-    </row>
-    <row r="117" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A117" s="71"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="71"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="76"/>
-      <c r="L117" s="71"/>
-      <c r="M117" s="71"/>
-      <c r="N117" s="71"/>
-      <c r="O117" s="71"/>
-      <c r="P117" s="71"/>
-      <c r="Q117" s="71"/>
-      <c r="R117" s="71"/>
-      <c r="S117" s="71"/>
-    </row>
-    <row r="118" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A118" s="71"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="76"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="71"/>
-      <c r="N118" s="71"/>
-      <c r="O118" s="71"/>
-      <c r="P118" s="71"/>
-      <c r="Q118" s="71"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="71"/>
-    </row>
-    <row r="119" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A119" s="71"/>
-      <c r="B119" s="71"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="71"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="76"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
-      <c r="O119" s="71"/>
-      <c r="P119" s="71"/>
-      <c r="Q119" s="71"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="71"/>
-    </row>
-    <row r="120" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="71"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="71"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="71"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="71"/>
-      <c r="M120" s="71"/>
-      <c r="N120" s="71"/>
-      <c r="O120" s="71"/>
-      <c r="P120" s="71"/>
-      <c r="Q120" s="71"/>
-      <c r="R120" s="71"/>
-      <c r="S120" s="71"/>
-    </row>
-    <row r="121" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="71"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71"/>
-      <c r="J121" s="71"/>
-      <c r="K121" s="76"/>
-      <c r="L121" s="71"/>
-      <c r="M121" s="71"/>
-      <c r="N121" s="71"/>
-      <c r="O121" s="71"/>
-      <c r="P121" s="71"/>
-      <c r="Q121" s="71"/>
-      <c r="R121" s="71"/>
-      <c r="S121" s="71"/>
-    </row>
-    <row r="122" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="71"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="71"/>
-      <c r="J122" s="71"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="71"/>
-      <c r="M122" s="71"/>
-      <c r="N122" s="71"/>
-      <c r="O122" s="71"/>
-      <c r="P122" s="71"/>
-      <c r="Q122" s="71"/>
-      <c r="R122" s="71"/>
-      <c r="S122" s="71"/>
-    </row>
-    <row r="123" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A123" s="71"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="71"/>
-      <c r="J123" s="71"/>
-      <c r="K123" s="76"/>
-      <c r="L123" s="71"/>
-      <c r="M123" s="71"/>
-      <c r="N123" s="71"/>
-      <c r="O123" s="71"/>
-      <c r="P123" s="71"/>
-      <c r="Q123" s="71"/>
-      <c r="R123" s="71"/>
-      <c r="S123" s="71"/>
-    </row>
-    <row r="124" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A124" s="71"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="71"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="71"/>
-      <c r="J124" s="71"/>
-      <c r="K124" s="76"/>
-      <c r="L124" s="71"/>
-      <c r="M124" s="71"/>
-      <c r="N124" s="71"/>
-      <c r="O124" s="71"/>
-      <c r="P124" s="71"/>
-      <c r="Q124" s="71"/>
-      <c r="R124" s="71"/>
-      <c r="S124" s="71"/>
-    </row>
-    <row r="125" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A125" s="71"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="71"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="71"/>
-      <c r="J125" s="71"/>
-      <c r="K125" s="76"/>
-      <c r="L125" s="71"/>
-      <c r="M125" s="71"/>
-      <c r="N125" s="71"/>
-      <c r="O125" s="71"/>
-      <c r="P125" s="71"/>
-      <c r="Q125" s="71"/>
-      <c r="R125" s="71"/>
-      <c r="S125" s="71"/>
-    </row>
-    <row r="126" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A126" s="71"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="71"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="71"/>
-      <c r="J126" s="71"/>
-      <c r="K126" s="76"/>
-      <c r="L126" s="71"/>
-      <c r="M126" s="71"/>
-      <c r="N126" s="71"/>
-      <c r="O126" s="71"/>
-      <c r="P126" s="71"/>
-      <c r="Q126" s="71"/>
-      <c r="R126" s="71"/>
-      <c r="S126" s="71"/>
-    </row>
-    <row r="127" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A127" s="71"/>
-      <c r="B127" s="71"/>
-      <c r="C127" s="70"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="76"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="71"/>
-      <c r="N127" s="71"/>
-      <c r="O127" s="71"/>
-      <c r="P127" s="71"/>
-      <c r="Q127" s="71"/>
-      <c r="R127" s="71"/>
-      <c r="S127" s="71"/>
-    </row>
-    <row r="128" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A128" s="71"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="71"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="76"/>
-      <c r="L128" s="71"/>
-      <c r="M128" s="71"/>
-      <c r="N128" s="71"/>
-      <c r="O128" s="71"/>
-      <c r="P128" s="71"/>
-      <c r="Q128" s="71"/>
-      <c r="R128" s="71"/>
-      <c r="S128" s="71"/>
-    </row>
-    <row r="129" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A129" s="71"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="71"/>
-      <c r="D129" s="71"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="71"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="76"/>
-      <c r="L129" s="71"/>
-      <c r="M129" s="71"/>
-      <c r="N129" s="71"/>
-      <c r="O129" s="71"/>
-      <c r="P129" s="71"/>
-      <c r="Q129" s="71"/>
-      <c r="R129" s="71"/>
-      <c r="S129" s="71"/>
-    </row>
-    <row r="130" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A130" s="71"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="76"/>
-      <c r="L130" s="71"/>
-      <c r="M130" s="71"/>
-      <c r="N130" s="71"/>
-      <c r="O130" s="71"/>
-      <c r="P130" s="71"/>
-      <c r="Q130" s="71"/>
-      <c r="R130" s="71"/>
-      <c r="S130" s="71"/>
-    </row>
-    <row r="131" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A131" s="71"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="76"/>
-      <c r="L131" s="71"/>
-      <c r="M131" s="71"/>
-      <c r="N131" s="71"/>
-      <c r="O131" s="71"/>
-      <c r="P131" s="71"/>
-      <c r="Q131" s="71"/>
-      <c r="R131" s="71"/>
-      <c r="S131" s="71"/>
-    </row>
-    <row r="132" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A132" s="71"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="71"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="71"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="76"/>
-      <c r="L132" s="71"/>
-      <c r="M132" s="71"/>
-      <c r="N132" s="71"/>
-      <c r="O132" s="71"/>
-      <c r="P132" s="71"/>
-      <c r="Q132" s="71"/>
-      <c r="R132" s="71"/>
-      <c r="S132" s="71"/>
-    </row>
-    <row r="133" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A133" s="71"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="71"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="76"/>
-      <c r="L133" s="71"/>
-      <c r="M133" s="71"/>
-      <c r="N133" s="71"/>
-      <c r="O133" s="71"/>
-      <c r="P133" s="71"/>
-      <c r="Q133" s="71"/>
-      <c r="R133" s="71"/>
-      <c r="S133" s="71"/>
-    </row>
-    <row r="134" spans="1:19" s="72" customFormat="1" ht="21" customHeight="1">
-      <c r="A134" s="71"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="71"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="76"/>
-      <c r="L134" s="71"/>
-      <c r="M134" s="71"/>
-      <c r="N134" s="71"/>
-      <c r="O134" s="71"/>
-      <c r="P134" s="71"/>
-      <c r="Q134" s="71"/>
-      <c r="R134" s="71"/>
-      <c r="S134" s="71"/>
+      <c r="P13" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="69">
+        <v>2323</v>
+      </c>
+      <c r="D14" s="69">
+        <v>2332</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+    </row>
+    <row r="15" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="69">
+        <v>2350</v>
+      </c>
+      <c r="D15" s="69">
+        <v>2358</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="23" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+    </row>
+    <row r="24" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+    </row>
+    <row r="25" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+    </row>
+    <row r="26" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+    </row>
+    <row r="27" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+    </row>
+    <row r="28" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+    </row>
+    <row r="29" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+    </row>
+    <row r="30" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+    </row>
+    <row r="31" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+    </row>
+    <row r="32" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+    </row>
+    <row r="33" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+    </row>
+    <row r="34" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+    </row>
+    <row r="35" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+    </row>
+    <row r="36" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+    </row>
+    <row r="37" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+    </row>
+    <row r="38" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+    </row>
+    <row r="39" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+    </row>
+    <row r="40" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+    </row>
+    <row r="41" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+    </row>
+    <row r="42" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+    </row>
+    <row r="43" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+    </row>
+    <row r="44" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+    </row>
+    <row r="45" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+    </row>
+    <row r="46" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+    </row>
+    <row r="47" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+    </row>
+    <row r="48" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+    </row>
+    <row r="49" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+    </row>
+    <row r="50" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+    </row>
+    <row r="51" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+    </row>
+    <row r="52" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+    </row>
+    <row r="53" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+    </row>
+    <row r="54" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+    </row>
+    <row r="55" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+    </row>
+    <row r="56" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+    </row>
+    <row r="57" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+    </row>
+    <row r="58" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+    </row>
+    <row r="59" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+    </row>
+    <row r="60" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+    </row>
+    <row r="61" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+    </row>
+    <row r="62" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+    </row>
+    <row r="63" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+    </row>
+    <row r="64" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+    </row>
+    <row r="65" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+    </row>
+    <row r="66" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+    </row>
+    <row r="67" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="70"/>
+    </row>
+    <row r="68" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+    </row>
+    <row r="69" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+    </row>
+    <row r="70" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="70"/>
+      <c r="M70" s="70"/>
+      <c r="N70" s="70"/>
+      <c r="O70" s="70"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="70"/>
+    </row>
+    <row r="71" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
+      <c r="S71" s="70"/>
+    </row>
+    <row r="72" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="70"/>
+      <c r="R72" s="70"/>
+      <c r="S72" s="70"/>
+    </row>
+    <row r="73" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="70"/>
+    </row>
+    <row r="74" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="70"/>
+      <c r="M74" s="70"/>
+      <c r="N74" s="70"/>
+      <c r="O74" s="70"/>
+      <c r="P74" s="70"/>
+      <c r="Q74" s="70"/>
+      <c r="R74" s="70"/>
+      <c r="S74" s="70"/>
+    </row>
+    <row r="75" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="70"/>
+      <c r="S75" s="70"/>
+    </row>
+    <row r="76" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="70"/>
+      <c r="N76" s="70"/>
+      <c r="O76" s="70"/>
+      <c r="P76" s="70"/>
+      <c r="Q76" s="70"/>
+      <c r="R76" s="70"/>
+      <c r="S76" s="70"/>
+    </row>
+    <row r="77" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="70"/>
+      <c r="M77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="70"/>
+      <c r="R77" s="70"/>
+      <c r="S77" s="70"/>
+    </row>
+    <row r="78" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="70"/>
+      <c r="N78" s="70"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="70"/>
+      <c r="R78" s="70"/>
+      <c r="S78" s="70"/>
+    </row>
+    <row r="79" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="70"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="70"/>
+      <c r="R79" s="70"/>
+      <c r="S79" s="70"/>
+    </row>
+    <row r="80" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="70"/>
+      <c r="S80" s="70"/>
+    </row>
+    <row r="81" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="75"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70"/>
+      <c r="R81" s="70"/>
+      <c r="S81" s="70"/>
+    </row>
+    <row r="82" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="70"/>
+      <c r="M82" s="70"/>
+      <c r="N82" s="70"/>
+      <c r="O82" s="70"/>
+      <c r="P82" s="70"/>
+      <c r="Q82" s="70"/>
+      <c r="R82" s="70"/>
+      <c r="S82" s="70"/>
+    </row>
+    <row r="83" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="70"/>
+      <c r="M83" s="70"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="70"/>
+      <c r="Q83" s="70"/>
+      <c r="R83" s="70"/>
+      <c r="S83" s="70"/>
+    </row>
+    <row r="84" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="70"/>
+      <c r="S84" s="70"/>
+    </row>
+    <row r="85" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="70"/>
+      <c r="P85" s="70"/>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="70"/>
+      <c r="S85" s="70"/>
+    </row>
+    <row r="86" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A86" s="70"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="70"/>
+      <c r="M86" s="70"/>
+      <c r="N86" s="70"/>
+      <c r="O86" s="70"/>
+      <c r="P86" s="70"/>
+      <c r="Q86" s="70"/>
+      <c r="R86" s="70"/>
+      <c r="S86" s="70"/>
+    </row>
+    <row r="87" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="70"/>
+      <c r="S87" s="70"/>
+    </row>
+    <row r="88" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+    </row>
+    <row r="89" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+    </row>
+    <row r="90" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="70"/>
+    </row>
+    <row r="91" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="70"/>
+      <c r="S91" s="70"/>
+    </row>
+    <row r="92" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
+      <c r="Q92" s="70"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+    </row>
+    <row r="93" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="70"/>
+      <c r="R93" s="70"/>
+      <c r="S93" s="70"/>
+    </row>
+    <row r="94" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A94" s="70"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="70"/>
+      <c r="N94" s="70"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="70"/>
+      <c r="R94" s="70"/>
+      <c r="S94" s="70"/>
+    </row>
+    <row r="95" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A95" s="70"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
+      <c r="R95" s="70"/>
+      <c r="S95" s="70"/>
+    </row>
+    <row r="96" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A96" s="70"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+    </row>
+    <row r="97" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="70"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="70"/>
+      <c r="M97" s="70"/>
+      <c r="N97" s="70"/>
+      <c r="O97" s="70"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="70"/>
+      <c r="R97" s="70"/>
+      <c r="S97" s="70"/>
+    </row>
+    <row r="98" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="70"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="70"/>
+      <c r="R98" s="70"/>
+      <c r="S98" s="70"/>
+    </row>
+    <row r="99" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="70"/>
+      <c r="Q99" s="70"/>
+      <c r="R99" s="70"/>
+      <c r="S99" s="70"/>
+    </row>
+    <row r="100" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="70"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="70"/>
+      <c r="S100" s="70"/>
+    </row>
+    <row r="101" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="70"/>
+      <c r="N101" s="70"/>
+      <c r="O101" s="70"/>
+      <c r="P101" s="70"/>
+      <c r="Q101" s="70"/>
+      <c r="R101" s="70"/>
+      <c r="S101" s="70"/>
+    </row>
+    <row r="102" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+      <c r="N102" s="70"/>
+      <c r="O102" s="70"/>
+      <c r="P102" s="70"/>
+      <c r="Q102" s="70"/>
+      <c r="R102" s="70"/>
+      <c r="S102" s="70"/>
+    </row>
+    <row r="103" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="70"/>
+      <c r="R103" s="70"/>
+      <c r="S103" s="70"/>
+    </row>
+    <row r="104" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+      <c r="N104" s="70"/>
+      <c r="O104" s="70"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="70"/>
+      <c r="R104" s="70"/>
+      <c r="S104" s="70"/>
+    </row>
+    <row r="105" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="75"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+      <c r="N105" s="70"/>
+      <c r="O105" s="70"/>
+      <c r="P105" s="70"/>
+      <c r="Q105" s="70"/>
+      <c r="R105" s="70"/>
+      <c r="S105" s="70"/>
+    </row>
+    <row r="106" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="70"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="70"/>
+      <c r="N106" s="70"/>
+      <c r="O106" s="70"/>
+      <c r="P106" s="70"/>
+      <c r="Q106" s="70"/>
+      <c r="R106" s="70"/>
+      <c r="S106" s="70"/>
+    </row>
+    <row r="107" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="70"/>
+      <c r="N107" s="70"/>
+      <c r="O107" s="70"/>
+      <c r="P107" s="70"/>
+      <c r="Q107" s="70"/>
+      <c r="R107" s="70"/>
+      <c r="S107" s="70"/>
+    </row>
+    <row r="108" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="70"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="70"/>
+      <c r="R108" s="70"/>
+      <c r="S108" s="70"/>
+    </row>
+    <row r="109" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="70"/>
+      <c r="O109" s="70"/>
+      <c r="P109" s="70"/>
+      <c r="Q109" s="70"/>
+      <c r="R109" s="70"/>
+      <c r="S109" s="70"/>
+    </row>
+    <row r="110" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="75"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="70"/>
+      <c r="N110" s="70"/>
+      <c r="O110" s="70"/>
+      <c r="P110" s="70"/>
+      <c r="Q110" s="70"/>
+      <c r="R110" s="70"/>
+      <c r="S110" s="70"/>
+    </row>
+    <row r="111" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="70"/>
+      <c r="S111" s="70"/>
+    </row>
+    <row r="112" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="75"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="70"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
+      <c r="S112" s="70"/>
+    </row>
+    <row r="113" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+      <c r="N113" s="70"/>
+      <c r="O113" s="70"/>
+      <c r="P113" s="70"/>
+      <c r="Q113" s="70"/>
+      <c r="R113" s="70"/>
+      <c r="S113" s="70"/>
+    </row>
+    <row r="114" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="70"/>
+      <c r="M114" s="70"/>
+      <c r="N114" s="70"/>
+      <c r="O114" s="70"/>
+      <c r="P114" s="70"/>
+      <c r="Q114" s="70"/>
+      <c r="R114" s="70"/>
+      <c r="S114" s="70"/>
+    </row>
+    <row r="115" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="70"/>
+      <c r="M115" s="70"/>
+      <c r="N115" s="70"/>
+      <c r="O115" s="70"/>
+      <c r="P115" s="70"/>
+      <c r="Q115" s="70"/>
+      <c r="R115" s="70"/>
+      <c r="S115" s="70"/>
+    </row>
+    <row r="116" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="70"/>
+      <c r="N116" s="70"/>
+      <c r="O116" s="70"/>
+      <c r="P116" s="70"/>
+      <c r="Q116" s="70"/>
+      <c r="R116" s="70"/>
+      <c r="S116" s="70"/>
+    </row>
+    <row r="117" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+      <c r="N117" s="70"/>
+      <c r="O117" s="70"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="70"/>
+      <c r="S117" s="70"/>
+    </row>
+    <row r="118" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
+      <c r="N118" s="70"/>
+      <c r="O118" s="70"/>
+      <c r="P118" s="70"/>
+      <c r="Q118" s="70"/>
+      <c r="R118" s="70"/>
+      <c r="S118" s="70"/>
+    </row>
+    <row r="119" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="70"/>
+      <c r="M119" s="70"/>
+      <c r="N119" s="70"/>
+      <c r="O119" s="70"/>
+      <c r="P119" s="70"/>
+      <c r="Q119" s="70"/>
+      <c r="R119" s="70"/>
+      <c r="S119" s="70"/>
+    </row>
+    <row r="120" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="70"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="70"/>
+      <c r="R120" s="70"/>
+      <c r="S120" s="70"/>
+    </row>
+    <row r="121" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="70"/>
+      <c r="M121" s="70"/>
+      <c r="N121" s="70"/>
+      <c r="O121" s="70"/>
+      <c r="P121" s="70"/>
+      <c r="Q121" s="70"/>
+      <c r="R121" s="70"/>
+      <c r="S121" s="70"/>
+    </row>
+    <row r="122" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
+      <c r="J122" s="70"/>
+      <c r="K122" s="75"/>
+      <c r="L122" s="70"/>
+      <c r="M122" s="70"/>
+      <c r="N122" s="70"/>
+      <c r="O122" s="70"/>
+      <c r="P122" s="70"/>
+      <c r="Q122" s="70"/>
+      <c r="R122" s="70"/>
+      <c r="S122" s="70"/>
+    </row>
+    <row r="123" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="70"/>
+      <c r="K123" s="75"/>
+      <c r="L123" s="70"/>
+      <c r="M123" s="70"/>
+      <c r="N123" s="70"/>
+      <c r="O123" s="70"/>
+      <c r="P123" s="70"/>
+      <c r="Q123" s="70"/>
+      <c r="R123" s="70"/>
+      <c r="S123" s="70"/>
+    </row>
+    <row r="124" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="75"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+      <c r="N124" s="70"/>
+      <c r="O124" s="70"/>
+      <c r="P124" s="70"/>
+      <c r="Q124" s="70"/>
+      <c r="R124" s="70"/>
+      <c r="S124" s="70"/>
+    </row>
+    <row r="125" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="70"/>
+      <c r="F125" s="70"/>
+      <c r="G125" s="70"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="70"/>
+      <c r="J125" s="70"/>
+      <c r="K125" s="75"/>
+      <c r="L125" s="70"/>
+      <c r="M125" s="70"/>
+      <c r="N125" s="70"/>
+      <c r="O125" s="70"/>
+      <c r="P125" s="70"/>
+      <c r="Q125" s="70"/>
+      <c r="R125" s="70"/>
+      <c r="S125" s="70"/>
+    </row>
+    <row r="126" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="70"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="70"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="70"/>
+      <c r="M126" s="70"/>
+      <c r="N126" s="70"/>
+      <c r="O126" s="70"/>
+      <c r="P126" s="70"/>
+      <c r="Q126" s="70"/>
+      <c r="R126" s="70"/>
+      <c r="S126" s="70"/>
+    </row>
+    <row r="127" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A127" s="70"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="69"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="70"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="75"/>
+      <c r="L127" s="70"/>
+      <c r="M127" s="70"/>
+      <c r="N127" s="70"/>
+      <c r="O127" s="70"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="70"/>
+      <c r="R127" s="70"/>
+      <c r="S127" s="70"/>
+    </row>
+    <row r="128" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A128" s="70"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="75"/>
+      <c r="L128" s="70"/>
+      <c r="M128" s="70"/>
+      <c r="N128" s="70"/>
+      <c r="O128" s="70"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="70"/>
+      <c r="R128" s="70"/>
+      <c r="S128" s="70"/>
+    </row>
+    <row r="129" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A129" s="70"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="70"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="70"/>
+      <c r="J129" s="70"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="70"/>
+      <c r="M129" s="70"/>
+      <c r="N129" s="70"/>
+      <c r="O129" s="70"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="70"/>
+      <c r="R129" s="70"/>
+      <c r="S129" s="70"/>
+    </row>
+    <row r="130" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="70"/>
+      <c r="F130" s="70"/>
+      <c r="G130" s="70"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="70"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="75"/>
+      <c r="L130" s="70"/>
+      <c r="M130" s="70"/>
+      <c r="N130" s="70"/>
+      <c r="O130" s="70"/>
+      <c r="P130" s="70"/>
+      <c r="Q130" s="70"/>
+      <c r="R130" s="70"/>
+      <c r="S130" s="70"/>
+    </row>
+    <row r="131" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="70"/>
+      <c r="M131" s="70"/>
+      <c r="N131" s="70"/>
+      <c r="O131" s="70"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="70"/>
+      <c r="R131" s="70"/>
+      <c r="S131" s="70"/>
+    </row>
+    <row r="132" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A132" s="70"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+      <c r="N132" s="70"/>
+      <c r="O132" s="70"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="70"/>
+      <c r="R132" s="70"/>
+      <c r="S132" s="70"/>
+    </row>
+    <row r="133" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A133" s="70"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="70"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="70"/>
+      <c r="M133" s="70"/>
+      <c r="N133" s="70"/>
+      <c r="O133" s="70"/>
+      <c r="P133" s="70"/>
+      <c r="Q133" s="70"/>
+      <c r="R133" s="70"/>
+      <c r="S133" s="70"/>
+    </row>
+    <row r="134" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="75"/>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+      <c r="N134" s="70"/>
+      <c r="O134" s="70"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="70"/>
+      <c r="R134" s="70"/>
+      <c r="S134" s="70"/>
     </row>
     <row r="135" spans="1:19" ht="21" customHeight="1">
-      <c r="A135" s="73"/>
-      <c r="B135" s="73"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="73"/>
-      <c r="K135" s="77"/>
-      <c r="L135" s="73"/>
-      <c r="M135" s="73"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="73"/>
-      <c r="Q135" s="73"/>
-      <c r="R135" s="73"/>
-      <c r="S135" s="73"/>
+      <c r="A135" s="72"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="76"/>
+      <c r="L135" s="72"/>
+      <c r="M135" s="72"/>
+      <c r="N135" s="72"/>
+      <c r="O135" s="72"/>
+      <c r="P135" s="72"/>
+      <c r="Q135" s="72"/>
+      <c r="R135" s="72"/>
+      <c r="S135" s="72"/>
     </row>
     <row r="136" spans="1:19" ht="21" customHeight="1">
-      <c r="A136" s="73"/>
-      <c r="B136" s="73"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="73"/>
-      <c r="K136" s="77"/>
-      <c r="L136" s="73"/>
-      <c r="M136" s="73"/>
-      <c r="N136" s="73"/>
-      <c r="O136" s="73"/>
-      <c r="P136" s="73"/>
-      <c r="Q136" s="73"/>
-      <c r="R136" s="73"/>
-      <c r="S136" s="73"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="72"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="76"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="72"/>
+      <c r="N136" s="72"/>
+      <c r="O136" s="72"/>
+      <c r="P136" s="72"/>
+      <c r="Q136" s="72"/>
+      <c r="R136" s="72"/>
+      <c r="S136" s="72"/>
     </row>
     <row r="137" spans="1:19" ht="21" customHeight="1">
-      <c r="A137" s="73"/>
-      <c r="B137" s="73"/>
-      <c r="C137" s="73"/>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="73"/>
-      <c r="I137" s="73"/>
-      <c r="J137" s="73"/>
-      <c r="K137" s="77"/>
-      <c r="L137" s="73"/>
-      <c r="M137" s="73"/>
-      <c r="N137" s="73"/>
-      <c r="O137" s="73"/>
-      <c r="P137" s="73"/>
-      <c r="Q137" s="73"/>
-      <c r="R137" s="73"/>
-      <c r="S137" s="73"/>
+      <c r="A137" s="72"/>
+      <c r="B137" s="72"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="76"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="72"/>
+      <c r="N137" s="72"/>
+      <c r="O137" s="72"/>
+      <c r="P137" s="72"/>
+      <c r="Q137" s="72"/>
+      <c r="R137" s="72"/>
+      <c r="S137" s="72"/>
     </row>
     <row r="138" spans="1:19" ht="21" customHeight="1">
-      <c r="A138" s="73"/>
-      <c r="B138" s="73"/>
-      <c r="C138" s="73"/>
-      <c r="D138" s="73"/>
-      <c r="E138" s="73"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="73"/>
-      <c r="I138" s="73"/>
-      <c r="J138" s="73"/>
-      <c r="K138" s="77"/>
-      <c r="L138" s="73"/>
-      <c r="M138" s="73"/>
-      <c r="N138" s="73"/>
-      <c r="O138" s="73"/>
-      <c r="P138" s="73"/>
-      <c r="Q138" s="73"/>
-      <c r="R138" s="73"/>
-      <c r="S138" s="73"/>
+      <c r="A138" s="72"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="76"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="72"/>
+      <c r="N138" s="72"/>
+      <c r="O138" s="72"/>
+      <c r="P138" s="72"/>
+      <c r="Q138" s="72"/>
+      <c r="R138" s="72"/>
+      <c r="S138" s="72"/>
     </row>
     <row r="139" spans="1:19" ht="21" customHeight="1">
-      <c r="A139" s="73"/>
-      <c r="B139" s="73"/>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="73"/>
-      <c r="H139" s="73"/>
-      <c r="I139" s="73"/>
-      <c r="J139" s="73"/>
-      <c r="K139" s="77"/>
-      <c r="L139" s="73"/>
-      <c r="M139" s="73"/>
-      <c r="N139" s="73"/>
-      <c r="O139" s="73"/>
-      <c r="P139" s="73"/>
-      <c r="Q139" s="73"/>
-      <c r="R139" s="73"/>
-      <c r="S139" s="73"/>
+      <c r="A139" s="72"/>
+      <c r="B139" s="72"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="76"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="72"/>
+      <c r="N139" s="72"/>
+      <c r="O139" s="72"/>
+      <c r="P139" s="72"/>
+      <c r="Q139" s="72"/>
+      <c r="R139" s="72"/>
+      <c r="S139" s="72"/>
     </row>
     <row r="140" spans="1:19" ht="21" customHeight="1">
-      <c r="A140" s="73"/>
-      <c r="B140" s="73"/>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="73"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="73"/>
-      <c r="H140" s="73"/>
-      <c r="I140" s="73"/>
-      <c r="J140" s="73"/>
-      <c r="K140" s="77"/>
-      <c r="L140" s="73"/>
-      <c r="M140" s="73"/>
-      <c r="N140" s="73"/>
-      <c r="O140" s="73"/>
-      <c r="P140" s="73"/>
-      <c r="Q140" s="73"/>
-      <c r="R140" s="73"/>
-      <c r="S140" s="73"/>
+      <c r="A140" s="72"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="76"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="72"/>
+      <c r="N140" s="72"/>
+      <c r="O140" s="72"/>
+      <c r="P140" s="72"/>
+      <c r="Q140" s="72"/>
+      <c r="R140" s="72"/>
+      <c r="S140" s="72"/>
     </row>
     <row r="141" spans="1:19" ht="21" customHeight="1">
-      <c r="A141" s="73"/>
-      <c r="B141" s="73"/>
-      <c r="C141" s="73"/>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
-      <c r="H141" s="73"/>
-      <c r="I141" s="73"/>
-      <c r="J141" s="73"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="73"/>
-      <c r="M141" s="73"/>
-      <c r="N141" s="73"/>
-      <c r="O141" s="73"/>
-      <c r="P141" s="73"/>
-      <c r="Q141" s="73"/>
-      <c r="R141" s="73"/>
-      <c r="S141" s="73"/>
+      <c r="A141" s="72"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="76"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="72"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="72"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
     </row>
     <row r="142" spans="1:19" ht="21" customHeight="1">
-      <c r="A142" s="73"/>
-      <c r="B142" s="73"/>
-      <c r="C142" s="73"/>
-      <c r="D142" s="73"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
-      <c r="H142" s="73"/>
-      <c r="I142" s="73"/>
-      <c r="J142" s="73"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="73"/>
-      <c r="M142" s="73"/>
-      <c r="N142" s="73"/>
-      <c r="O142" s="73"/>
-      <c r="P142" s="73"/>
-      <c r="Q142" s="73"/>
-      <c r="R142" s="73"/>
-      <c r="S142" s="73"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="76"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
+      <c r="N142" s="72"/>
+      <c r="O142" s="72"/>
+      <c r="P142" s="72"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72"/>
     </row>
     <row r="143" spans="1:19" ht="21" customHeight="1">
-      <c r="A143" s="73"/>
-      <c r="B143" s="73"/>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
-      <c r="K143" s="77"/>
-      <c r="L143" s="73"/>
-      <c r="M143" s="73"/>
-      <c r="N143" s="73"/>
-      <c r="O143" s="73"/>
-      <c r="P143" s="73"/>
-      <c r="Q143" s="73"/>
-      <c r="R143" s="73"/>
-      <c r="S143" s="73"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
+      <c r="K143" s="76"/>
+      <c r="L143" s="72"/>
+      <c r="M143" s="72"/>
+      <c r="N143" s="72"/>
+      <c r="O143" s="72"/>
+      <c r="P143" s="72"/>
+      <c r="Q143" s="72"/>
+      <c r="R143" s="72"/>
+      <c r="S143" s="72"/>
     </row>
     <row r="144" spans="1:19" ht="21" customHeight="1">
-      <c r="A144" s="73"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="73"/>
-      <c r="H144" s="73"/>
-      <c r="I144" s="73"/>
-      <c r="J144" s="73"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="73"/>
-      <c r="M144" s="73"/>
-      <c r="N144" s="73"/>
-      <c r="O144" s="73"/>
-      <c r="P144" s="73"/>
-      <c r="Q144" s="73"/>
-      <c r="R144" s="73"/>
-      <c r="S144" s="73"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="72"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="76"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="N144" s="72"/>
+      <c r="O144" s="72"/>
+      <c r="P144" s="72"/>
+      <c r="Q144" s="72"/>
+      <c r="R144" s="72"/>
+      <c r="S144" s="72"/>
     </row>
     <row r="145" spans="1:19" ht="21" customHeight="1">
-      <c r="A145" s="73"/>
-      <c r="B145" s="73"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
-      <c r="H145" s="73"/>
-      <c r="I145" s="73"/>
-      <c r="J145" s="73"/>
-      <c r="K145" s="77"/>
-      <c r="L145" s="73"/>
-      <c r="M145" s="73"/>
-      <c r="N145" s="73"/>
-      <c r="O145" s="73"/>
-      <c r="P145" s="73"/>
-      <c r="Q145" s="73"/>
-      <c r="R145" s="73"/>
-      <c r="S145" s="73"/>
+      <c r="A145" s="72"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="76"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72"/>
+      <c r="R145" s="72"/>
+      <c r="S145" s="72"/>
     </row>
     <row r="146" spans="1:19" ht="21" customHeight="1">
-      <c r="A146" s="73"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="73"/>
-      <c r="I146" s="73"/>
-      <c r="J146" s="73"/>
-      <c r="K146" s="77"/>
-      <c r="L146" s="73"/>
-      <c r="M146" s="73"/>
-      <c r="N146" s="73"/>
-      <c r="O146" s="73"/>
-      <c r="P146" s="73"/>
-      <c r="Q146" s="73"/>
-      <c r="R146" s="73"/>
-      <c r="S146" s="73"/>
+      <c r="A146" s="72"/>
+      <c r="B146" s="72"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="76"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="72"/>
+      <c r="N146" s="72"/>
+      <c r="O146" s="72"/>
+      <c r="P146" s="72"/>
+      <c r="Q146" s="72"/>
+      <c r="R146" s="72"/>
+      <c r="S146" s="72"/>
     </row>
     <row r="147" spans="1:19" ht="21" customHeight="1">
-      <c r="A147" s="73"/>
-      <c r="B147" s="73"/>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="73"/>
-      <c r="H147" s="73"/>
-      <c r="I147" s="73"/>
-      <c r="J147" s="73"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="73"/>
-      <c r="M147" s="73"/>
-      <c r="N147" s="73"/>
-      <c r="O147" s="73"/>
-      <c r="P147" s="73"/>
-      <c r="Q147" s="73"/>
-      <c r="R147" s="73"/>
-      <c r="S147" s="73"/>
+      <c r="A147" s="72"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="76"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="72"/>
+      <c r="N147" s="72"/>
+      <c r="O147" s="72"/>
+      <c r="P147" s="72"/>
+      <c r="Q147" s="72"/>
+      <c r="R147" s="72"/>
+      <c r="S147" s="72"/>
     </row>
     <row r="148" spans="1:19" ht="21" customHeight="1">
-      <c r="A148" s="73"/>
-      <c r="B148" s="73"/>
-      <c r="C148" s="73"/>
-      <c r="D148" s="73"/>
-      <c r="E148" s="73"/>
-      <c r="F148" s="73"/>
-      <c r="G148" s="73"/>
-      <c r="H148" s="73"/>
-      <c r="I148" s="73"/>
-      <c r="J148" s="73"/>
-      <c r="K148" s="77"/>
-      <c r="L148" s="73"/>
-      <c r="M148" s="73"/>
-      <c r="N148" s="73"/>
-      <c r="O148" s="73"/>
-      <c r="P148" s="73"/>
-      <c r="Q148" s="73"/>
-      <c r="R148" s="73"/>
-      <c r="S148" s="73"/>
+      <c r="A148" s="72"/>
+      <c r="B148" s="72"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="76"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="72"/>
+      <c r="N148" s="72"/>
+      <c r="O148" s="72"/>
+      <c r="P148" s="72"/>
+      <c r="Q148" s="72"/>
+      <c r="R148" s="72"/>
+      <c r="S148" s="72"/>
     </row>
     <row r="149" spans="1:19" ht="21" customHeight="1">
-      <c r="A149" s="73"/>
-      <c r="B149" s="73"/>
-      <c r="C149" s="73"/>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="73"/>
-      <c r="H149" s="73"/>
-      <c r="I149" s="73"/>
-      <c r="J149" s="73"/>
-      <c r="K149" s="77"/>
-      <c r="L149" s="73"/>
-      <c r="M149" s="73"/>
-      <c r="N149" s="73"/>
-      <c r="O149" s="73"/>
-      <c r="P149" s="73"/>
-      <c r="Q149" s="73"/>
-      <c r="R149" s="73"/>
-      <c r="S149" s="73"/>
+      <c r="A149" s="72"/>
+      <c r="B149" s="72"/>
+      <c r="C149" s="72"/>
+      <c r="D149" s="72"/>
+      <c r="E149" s="72"/>
+      <c r="F149" s="72"/>
+      <c r="G149" s="72"/>
+      <c r="H149" s="72"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="72"/>
+      <c r="K149" s="76"/>
+      <c r="L149" s="72"/>
+      <c r="M149" s="72"/>
+      <c r="N149" s="72"/>
+      <c r="O149" s="72"/>
+      <c r="P149" s="72"/>
+      <c r="Q149" s="72"/>
+      <c r="R149" s="72"/>
+      <c r="S149" s="72"/>
     </row>
     <row r="150" spans="1:19" ht="21" customHeight="1">
-      <c r="A150" s="73"/>
-      <c r="B150" s="73"/>
-      <c r="C150" s="73"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="73"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="73"/>
-      <c r="H150" s="73"/>
-      <c r="I150" s="73"/>
-      <c r="J150" s="73"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="73"/>
-      <c r="M150" s="73"/>
-      <c r="N150" s="73"/>
-      <c r="O150" s="73"/>
-      <c r="P150" s="73"/>
-      <c r="Q150" s="73"/>
-      <c r="R150" s="73"/>
-      <c r="S150" s="73"/>
+      <c r="A150" s="72"/>
+      <c r="B150" s="72"/>
+      <c r="C150" s="72"/>
+      <c r="D150" s="72"/>
+      <c r="E150" s="72"/>
+      <c r="F150" s="72"/>
+      <c r="G150" s="72"/>
+      <c r="H150" s="72"/>
+      <c r="I150" s="72"/>
+      <c r="J150" s="72"/>
+      <c r="K150" s="76"/>
+      <c r="L150" s="72"/>
+      <c r="M150" s="72"/>
+      <c r="N150" s="72"/>
+      <c r="O150" s="72"/>
+      <c r="P150" s="72"/>
+      <c r="Q150" s="72"/>
+      <c r="R150" s="72"/>
+      <c r="S150" s="72"/>
     </row>
     <row r="151" spans="1:19" ht="21" customHeight="1">
-      <c r="A151" s="73"/>
-      <c r="B151" s="73"/>
-      <c r="C151" s="73"/>
-      <c r="D151" s="73"/>
-      <c r="E151" s="73"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="73"/>
-      <c r="H151" s="73"/>
-      <c r="I151" s="73"/>
-      <c r="J151" s="73"/>
-      <c r="K151" s="77"/>
-      <c r="L151" s="73"/>
-      <c r="M151" s="73"/>
-      <c r="N151" s="73"/>
-      <c r="O151" s="73"/>
-      <c r="P151" s="73"/>
-      <c r="Q151" s="73"/>
-      <c r="R151" s="73"/>
-      <c r="S151" s="73"/>
+      <c r="A151" s="72"/>
+      <c r="B151" s="72"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="72"/>
+      <c r="H151" s="72"/>
+      <c r="I151" s="72"/>
+      <c r="J151" s="72"/>
+      <c r="K151" s="76"/>
+      <c r="L151" s="72"/>
+      <c r="M151" s="72"/>
+      <c r="N151" s="72"/>
+      <c r="O151" s="72"/>
+      <c r="P151" s="72"/>
+      <c r="Q151" s="72"/>
+      <c r="R151" s="72"/>
+      <c r="S151" s="72"/>
     </row>
     <row r="152" spans="1:19" ht="21" customHeight="1">
-      <c r="A152" s="73"/>
-      <c r="B152" s="73"/>
-      <c r="C152" s="73"/>
-      <c r="D152" s="73"/>
-      <c r="E152" s="73"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="73"/>
-      <c r="H152" s="73"/>
-      <c r="I152" s="73"/>
-      <c r="J152" s="73"/>
-      <c r="K152" s="77"/>
-      <c r="L152" s="73"/>
-      <c r="M152" s="73"/>
-      <c r="N152" s="73"/>
-      <c r="O152" s="73"/>
-      <c r="P152" s="73"/>
-      <c r="Q152" s="73"/>
-      <c r="R152" s="73"/>
-      <c r="S152" s="73"/>
+      <c r="A152" s="72"/>
+      <c r="B152" s="72"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="72"/>
+      <c r="H152" s="72"/>
+      <c r="I152" s="72"/>
+      <c r="J152" s="72"/>
+      <c r="K152" s="76"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="72"/>
+      <c r="N152" s="72"/>
+      <c r="O152" s="72"/>
+      <c r="P152" s="72"/>
+      <c r="Q152" s="72"/>
+      <c r="R152" s="72"/>
+      <c r="S152" s="72"/>
     </row>
     <row r="153" spans="1:19" ht="21" customHeight="1">
-      <c r="A153" s="73"/>
-      <c r="B153" s="73"/>
-      <c r="C153" s="73"/>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="73"/>
-      <c r="I153" s="73"/>
-      <c r="J153" s="73"/>
-      <c r="K153" s="77"/>
-      <c r="L153" s="73"/>
-      <c r="M153" s="73"/>
-      <c r="N153" s="73"/>
-      <c r="O153" s="73"/>
-      <c r="P153" s="73"/>
-      <c r="Q153" s="73"/>
-      <c r="R153" s="73"/>
-      <c r="S153" s="73"/>
+      <c r="A153" s="72"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
+      <c r="K153" s="76"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="72"/>
+      <c r="N153" s="72"/>
+      <c r="O153" s="72"/>
+      <c r="P153" s="72"/>
+      <c r="Q153" s="72"/>
+      <c r="R153" s="72"/>
+      <c r="S153" s="72"/>
     </row>
     <row r="154" spans="1:19" ht="21" customHeight="1">
-      <c r="A154" s="73"/>
-      <c r="B154" s="73"/>
-      <c r="C154" s="73"/>
-      <c r="D154" s="73"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="73"/>
-      <c r="H154" s="73"/>
-      <c r="I154" s="73"/>
-      <c r="J154" s="73"/>
-      <c r="K154" s="77"/>
-      <c r="L154" s="73"/>
-      <c r="M154" s="73"/>
-      <c r="N154" s="73"/>
-      <c r="O154" s="73"/>
-      <c r="P154" s="73"/>
-      <c r="Q154" s="73"/>
-      <c r="R154" s="73"/>
-      <c r="S154" s="73"/>
+      <c r="A154" s="72"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
+      <c r="J154" s="72"/>
+      <c r="K154" s="76"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="72"/>
+      <c r="N154" s="72"/>
+      <c r="O154" s="72"/>
+      <c r="P154" s="72"/>
+      <c r="Q154" s="72"/>
+      <c r="R154" s="72"/>
+      <c r="S154" s="72"/>
     </row>
     <row r="155" spans="1:19" ht="21" customHeight="1">
-      <c r="A155" s="73"/>
-      <c r="B155" s="73"/>
-      <c r="C155" s="73"/>
-      <c r="D155" s="73"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="73"/>
-      <c r="H155" s="73"/>
-      <c r="I155" s="73"/>
-      <c r="J155" s="73"/>
-      <c r="K155" s="77"/>
-      <c r="L155" s="73"/>
-      <c r="M155" s="73"/>
-      <c r="N155" s="73"/>
-      <c r="O155" s="73"/>
-      <c r="P155" s="73"/>
-      <c r="Q155" s="73"/>
-      <c r="R155" s="73"/>
-      <c r="S155" s="73"/>
+      <c r="A155" s="72"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="72"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="72"/>
+      <c r="K155" s="76"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="72"/>
+      <c r="N155" s="72"/>
+      <c r="O155" s="72"/>
+      <c r="P155" s="72"/>
+      <c r="Q155" s="72"/>
+      <c r="R155" s="72"/>
+      <c r="S155" s="72"/>
     </row>
     <row r="156" spans="1:19" ht="21" customHeight="1">
-      <c r="A156" s="73"/>
-      <c r="B156" s="73"/>
-      <c r="C156" s="73"/>
-      <c r="D156" s="73"/>
-      <c r="E156" s="73"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="73"/>
-      <c r="H156" s="73"/>
-      <c r="I156" s="73"/>
-      <c r="J156" s="73"/>
-      <c r="K156" s="77"/>
-      <c r="L156" s="73"/>
-      <c r="M156" s="73"/>
-      <c r="N156" s="73"/>
-      <c r="O156" s="73"/>
-      <c r="P156" s="73"/>
-      <c r="Q156" s="73"/>
-      <c r="R156" s="73"/>
-      <c r="S156" s="73"/>
+      <c r="A156" s="72"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="72"/>
+      <c r="D156" s="72"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="72"/>
+      <c r="G156" s="72"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="72"/>
+      <c r="J156" s="72"/>
+      <c r="K156" s="76"/>
+      <c r="L156" s="72"/>
+      <c r="M156" s="72"/>
+      <c r="N156" s="72"/>
+      <c r="O156" s="72"/>
+      <c r="P156" s="72"/>
+      <c r="Q156" s="72"/>
+      <c r="R156" s="72"/>
+      <c r="S156" s="72"/>
     </row>
     <row r="157" spans="1:19" ht="21" customHeight="1">
-      <c r="A157" s="73"/>
-      <c r="B157" s="73"/>
-      <c r="C157" s="73"/>
-      <c r="D157" s="73"/>
-      <c r="E157" s="73"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="73"/>
-      <c r="H157" s="73"/>
-      <c r="I157" s="73"/>
-      <c r="J157" s="73"/>
-      <c r="K157" s="77"/>
-      <c r="L157" s="73"/>
-      <c r="M157" s="73"/>
-      <c r="N157" s="73"/>
-      <c r="O157" s="73"/>
-      <c r="P157" s="73"/>
-      <c r="Q157" s="73"/>
-      <c r="R157" s="73"/>
-      <c r="S157" s="73"/>
+      <c r="A157" s="72"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
+      <c r="K157" s="76"/>
+      <c r="L157" s="72"/>
+      <c r="M157" s="72"/>
+      <c r="N157" s="72"/>
+      <c r="O157" s="72"/>
+      <c r="P157" s="72"/>
+      <c r="Q157" s="72"/>
+      <c r="R157" s="72"/>
+      <c r="S157" s="72"/>
     </row>
     <row r="158" spans="1:19" ht="21" customHeight="1">
-      <c r="A158" s="73"/>
-      <c r="B158" s="73"/>
-      <c r="C158" s="73"/>
-      <c r="D158" s="73"/>
-      <c r="E158" s="73"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="73"/>
-      <c r="H158" s="73"/>
-      <c r="I158" s="73"/>
-      <c r="J158" s="73"/>
-      <c r="K158" s="77"/>
-      <c r="L158" s="73"/>
-      <c r="M158" s="73"/>
-      <c r="N158" s="73"/>
-      <c r="O158" s="73"/>
-      <c r="P158" s="73"/>
-      <c r="Q158" s="73"/>
-      <c r="R158" s="73"/>
-      <c r="S158" s="73"/>
+      <c r="A158" s="72"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="72"/>
+      <c r="H158" s="72"/>
+      <c r="I158" s="72"/>
+      <c r="J158" s="72"/>
+      <c r="K158" s="76"/>
+      <c r="L158" s="72"/>
+      <c r="M158" s="72"/>
+      <c r="N158" s="72"/>
+      <c r="O158" s="72"/>
+      <c r="P158" s="72"/>
+      <c r="Q158" s="72"/>
+      <c r="R158" s="72"/>
+      <c r="S158" s="72"/>
     </row>
     <row r="159" spans="1:19" ht="21" customHeight="1">
-      <c r="A159" s="73"/>
-      <c r="B159" s="73"/>
-      <c r="C159" s="73"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="73"/>
-      <c r="I159" s="73"/>
-      <c r="J159" s="73"/>
-      <c r="K159" s="77"/>
-      <c r="L159" s="73"/>
-      <c r="M159" s="73"/>
-      <c r="N159" s="73"/>
-      <c r="O159" s="73"/>
-      <c r="P159" s="73"/>
-      <c r="Q159" s="73"/>
-      <c r="R159" s="73"/>
-      <c r="S159" s="73"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="72"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
+      <c r="K159" s="76"/>
+      <c r="L159" s="72"/>
+      <c r="M159" s="72"/>
+      <c r="N159" s="72"/>
+      <c r="O159" s="72"/>
+      <c r="P159" s="72"/>
+      <c r="Q159" s="72"/>
+      <c r="R159" s="72"/>
+      <c r="S159" s="72"/>
     </row>
     <row r="160" spans="1:19" ht="21" customHeight="1">
-      <c r="A160" s="73"/>
-      <c r="B160" s="73"/>
-      <c r="C160" s="73"/>
-      <c r="D160" s="73"/>
-      <c r="E160" s="73"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="73"/>
-      <c r="H160" s="73"/>
-      <c r="I160" s="73"/>
-      <c r="J160" s="73"/>
-      <c r="K160" s="77"/>
-      <c r="L160" s="73"/>
-      <c r="M160" s="73"/>
-      <c r="N160" s="73"/>
-      <c r="O160" s="73"/>
-      <c r="P160" s="73"/>
-      <c r="Q160" s="73"/>
-      <c r="R160" s="73"/>
-      <c r="S160" s="73"/>
+      <c r="A160" s="72"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
+      <c r="K160" s="76"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="72"/>
+      <c r="N160" s="72"/>
+      <c r="O160" s="72"/>
+      <c r="P160" s="72"/>
+      <c r="Q160" s="72"/>
+      <c r="R160" s="72"/>
+      <c r="S160" s="72"/>
     </row>
     <row r="161" spans="1:19" ht="21" customHeight="1">
-      <c r="A161" s="73"/>
-      <c r="B161" s="73"/>
-      <c r="C161" s="73"/>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="73"/>
-      <c r="H161" s="73"/>
-      <c r="I161" s="73"/>
-      <c r="J161" s="73"/>
-      <c r="K161" s="77"/>
-      <c r="L161" s="73"/>
-      <c r="M161" s="73"/>
-      <c r="N161" s="73"/>
-      <c r="O161" s="73"/>
-      <c r="P161" s="73"/>
-      <c r="Q161" s="73"/>
-      <c r="R161" s="73"/>
-      <c r="S161" s="73"/>
+      <c r="A161" s="72"/>
+      <c r="B161" s="72"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="72"/>
+      <c r="F161" s="72"/>
+      <c r="G161" s="72"/>
+      <c r="H161" s="72"/>
+      <c r="I161" s="72"/>
+      <c r="J161" s="72"/>
+      <c r="K161" s="76"/>
+      <c r="L161" s="72"/>
+      <c r="M161" s="72"/>
+      <c r="N161" s="72"/>
+      <c r="O161" s="72"/>
+      <c r="P161" s="72"/>
+      <c r="Q161" s="72"/>
+      <c r="R161" s="72"/>
+      <c r="S161" s="72"/>
     </row>
     <row r="162" spans="1:19" ht="21" customHeight="1">
-      <c r="A162" s="73"/>
-      <c r="B162" s="73"/>
-      <c r="C162" s="73"/>
-      <c r="D162" s="73"/>
-      <c r="E162" s="73"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="73"/>
-      <c r="H162" s="73"/>
-      <c r="I162" s="73"/>
-      <c r="J162" s="73"/>
-      <c r="K162" s="77"/>
-      <c r="L162" s="73"/>
-      <c r="M162" s="73"/>
-      <c r="N162" s="73"/>
-      <c r="O162" s="73"/>
-      <c r="P162" s="73"/>
-      <c r="Q162" s="73"/>
-      <c r="R162" s="73"/>
-      <c r="S162" s="73"/>
+      <c r="A162" s="72"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="76"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="72"/>
+      <c r="N162" s="72"/>
+      <c r="O162" s="72"/>
+      <c r="P162" s="72"/>
+      <c r="Q162" s="72"/>
+      <c r="R162" s="72"/>
+      <c r="S162" s="72"/>
     </row>
     <row r="163" spans="1:19" ht="21" customHeight="1">
-      <c r="A163" s="73"/>
-      <c r="B163" s="73"/>
-      <c r="C163" s="73"/>
-      <c r="D163" s="73"/>
-      <c r="E163" s="73"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
-      <c r="K163" s="77"/>
-      <c r="L163" s="73"/>
-      <c r="M163" s="73"/>
-      <c r="N163" s="73"/>
-      <c r="O163" s="73"/>
-      <c r="P163" s="73"/>
-      <c r="Q163" s="73"/>
-      <c r="R163" s="73"/>
-      <c r="S163" s="73"/>
+      <c r="A163" s="72"/>
+      <c r="B163" s="72"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="72"/>
+      <c r="F163" s="72"/>
+      <c r="G163" s="72"/>
+      <c r="H163" s="72"/>
+      <c r="I163" s="72"/>
+      <c r="J163" s="72"/>
+      <c r="K163" s="76"/>
+      <c r="L163" s="72"/>
+      <c r="M163" s="72"/>
+      <c r="N163" s="72"/>
+      <c r="O163" s="72"/>
+      <c r="P163" s="72"/>
+      <c r="Q163" s="72"/>
+      <c r="R163" s="72"/>
+      <c r="S163" s="72"/>
     </row>
     <row r="164" spans="1:19" ht="21" customHeight="1">
-      <c r="A164" s="73"/>
-      <c r="B164" s="73"/>
-      <c r="C164" s="73"/>
-      <c r="D164" s="73"/>
-      <c r="E164" s="73"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="73"/>
-      <c r="H164" s="73"/>
-      <c r="I164" s="73"/>
-      <c r="J164" s="73"/>
-      <c r="K164" s="77"/>
-      <c r="L164" s="73"/>
-      <c r="M164" s="73"/>
-      <c r="N164" s="73"/>
-      <c r="O164" s="73"/>
-      <c r="P164" s="73"/>
-      <c r="Q164" s="73"/>
-      <c r="R164" s="73"/>
-      <c r="S164" s="73"/>
+      <c r="A164" s="72"/>
+      <c r="B164" s="72"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="72"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="72"/>
+      <c r="H164" s="72"/>
+      <c r="I164" s="72"/>
+      <c r="J164" s="72"/>
+      <c r="K164" s="76"/>
+      <c r="L164" s="72"/>
+      <c r="M164" s="72"/>
+      <c r="N164" s="72"/>
+      <c r="O164" s="72"/>
+      <c r="P164" s="72"/>
+      <c r="Q164" s="72"/>
+      <c r="R164" s="72"/>
+      <c r="S164" s="72"/>
     </row>
     <row r="165" spans="1:19" ht="21" customHeight="1">
-      <c r="A165" s="73"/>
-      <c r="B165" s="73"/>
-      <c r="C165" s="73"/>
-      <c r="D165" s="73"/>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="73"/>
-      <c r="I165" s="73"/>
-      <c r="J165" s="73"/>
-      <c r="K165" s="77"/>
-      <c r="L165" s="73"/>
-      <c r="M165" s="73"/>
-      <c r="N165" s="73"/>
-      <c r="O165" s="73"/>
-      <c r="P165" s="73"/>
-      <c r="Q165" s="73"/>
-      <c r="R165" s="73"/>
-      <c r="S165" s="73"/>
+      <c r="A165" s="72"/>
+      <c r="B165" s="72"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="72"/>
+      <c r="E165" s="72"/>
+      <c r="F165" s="72"/>
+      <c r="G165" s="72"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="72"/>
+      <c r="K165" s="76"/>
+      <c r="L165" s="72"/>
+      <c r="M165" s="72"/>
+      <c r="N165" s="72"/>
+      <c r="O165" s="72"/>
+      <c r="P165" s="72"/>
+      <c r="Q165" s="72"/>
+      <c r="R165" s="72"/>
+      <c r="S165" s="72"/>
     </row>
     <row r="166" spans="1:19" ht="21" customHeight="1">
-      <c r="A166" s="73"/>
-      <c r="B166" s="73"/>
-      <c r="C166" s="73"/>
-      <c r="D166" s="73"/>
-      <c r="E166" s="73"/>
-      <c r="F166" s="73"/>
-      <c r="G166" s="73"/>
-      <c r="H166" s="73"/>
-      <c r="I166" s="73"/>
-      <c r="J166" s="73"/>
-      <c r="K166" s="77"/>
-      <c r="L166" s="73"/>
-      <c r="M166" s="73"/>
-      <c r="N166" s="73"/>
-      <c r="O166" s="73"/>
-      <c r="P166" s="73"/>
-      <c r="Q166" s="73"/>
-      <c r="R166" s="73"/>
-      <c r="S166" s="73"/>
+      <c r="A166" s="72"/>
+      <c r="B166" s="72"/>
+      <c r="C166" s="72"/>
+      <c r="D166" s="72"/>
+      <c r="E166" s="72"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="72"/>
+      <c r="H166" s="72"/>
+      <c r="I166" s="72"/>
+      <c r="J166" s="72"/>
+      <c r="K166" s="76"/>
+      <c r="L166" s="72"/>
+      <c r="M166" s="72"/>
+      <c r="N166" s="72"/>
+      <c r="O166" s="72"/>
+      <c r="P166" s="72"/>
+      <c r="Q166" s="72"/>
+      <c r="R166" s="72"/>
+      <c r="S166" s="72"/>
     </row>
     <row r="167" spans="1:19" ht="21" customHeight="1">
-      <c r="A167" s="73"/>
-      <c r="B167" s="73"/>
-      <c r="C167" s="73"/>
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="73"/>
-      <c r="H167" s="73"/>
-      <c r="I167" s="73"/>
-      <c r="J167" s="73"/>
-      <c r="K167" s="77"/>
-      <c r="L167" s="73"/>
-      <c r="M167" s="73"/>
-      <c r="N167" s="73"/>
-      <c r="O167" s="73"/>
-      <c r="P167" s="73"/>
-      <c r="Q167" s="73"/>
-      <c r="R167" s="73"/>
-      <c r="S167" s="73"/>
+      <c r="A167" s="72"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="72"/>
+      <c r="D167" s="72"/>
+      <c r="E167" s="72"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="72"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="72"/>
+      <c r="K167" s="76"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="72"/>
+      <c r="N167" s="72"/>
+      <c r="O167" s="72"/>
+      <c r="P167" s="72"/>
+      <c r="Q167" s="72"/>
+      <c r="R167" s="72"/>
+      <c r="S167" s="72"/>
     </row>
     <row r="168" spans="1:19" ht="21" customHeight="1">
-      <c r="A168" s="73"/>
-      <c r="B168" s="73"/>
-      <c r="C168" s="73"/>
-      <c r="D168" s="73"/>
-      <c r="E168" s="73"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="73"/>
-      <c r="H168" s="73"/>
-      <c r="I168" s="73"/>
-      <c r="J168" s="73"/>
-      <c r="K168" s="77"/>
-      <c r="L168" s="73"/>
-      <c r="M168" s="73"/>
-      <c r="N168" s="73"/>
-      <c r="O168" s="73"/>
-      <c r="P168" s="73"/>
-      <c r="Q168" s="73"/>
-      <c r="R168" s="73"/>
-      <c r="S168" s="73"/>
+      <c r="A168" s="72"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="72"/>
+      <c r="D168" s="72"/>
+      <c r="E168" s="72"/>
+      <c r="F168" s="72"/>
+      <c r="G168" s="72"/>
+      <c r="H168" s="72"/>
+      <c r="I168" s="72"/>
+      <c r="J168" s="72"/>
+      <c r="K168" s="76"/>
+      <c r="L168" s="72"/>
+      <c r="M168" s="72"/>
+      <c r="N168" s="72"/>
+      <c r="O168" s="72"/>
+      <c r="P168" s="72"/>
+      <c r="Q168" s="72"/>
+      <c r="R168" s="72"/>
+      <c r="S168" s="72"/>
     </row>
     <row r="169" spans="1:19" ht="21" customHeight="1">
-      <c r="A169" s="73"/>
-      <c r="B169" s="73"/>
-      <c r="C169" s="73"/>
-      <c r="D169" s="73"/>
-      <c r="E169" s="73"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="73"/>
-      <c r="I169" s="73"/>
-      <c r="J169" s="73"/>
-      <c r="K169" s="77"/>
-      <c r="L169" s="73"/>
-      <c r="M169" s="73"/>
-      <c r="N169" s="73"/>
-      <c r="O169" s="73"/>
-      <c r="P169" s="73"/>
-      <c r="Q169" s="73"/>
-      <c r="R169" s="73"/>
-      <c r="S169" s="73"/>
+      <c r="A169" s="72"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="76"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
+      <c r="N169" s="72"/>
+      <c r="O169" s="72"/>
+      <c r="P169" s="72"/>
+      <c r="Q169" s="72"/>
+      <c r="R169" s="72"/>
+      <c r="S169" s="72"/>
     </row>
     <row r="170" spans="1:19" ht="21" customHeight="1">
-      <c r="A170" s="73"/>
-      <c r="B170" s="73"/>
-      <c r="C170" s="73"/>
-      <c r="D170" s="73"/>
-      <c r="E170" s="73"/>
-      <c r="F170" s="73"/>
-      <c r="G170" s="73"/>
-      <c r="H170" s="73"/>
-      <c r="I170" s="73"/>
-      <c r="J170" s="73"/>
-      <c r="K170" s="77"/>
-      <c r="L170" s="73"/>
-      <c r="M170" s="73"/>
-      <c r="N170" s="73"/>
-      <c r="O170" s="73"/>
-      <c r="P170" s="73"/>
-      <c r="Q170" s="73"/>
-      <c r="R170" s="73"/>
-      <c r="S170" s="73"/>
+      <c r="A170" s="72"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="72"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="72"/>
+      <c r="K170" s="76"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="72"/>
+      <c r="N170" s="72"/>
+      <c r="O170" s="72"/>
+      <c r="P170" s="72"/>
+      <c r="Q170" s="72"/>
+      <c r="R170" s="72"/>
+      <c r="S170" s="72"/>
     </row>
     <row r="171" spans="1:19" ht="21" customHeight="1">
-      <c r="A171" s="73"/>
-      <c r="B171" s="73"/>
-      <c r="C171" s="73"/>
-      <c r="D171" s="73"/>
-      <c r="E171" s="73"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="73"/>
-      <c r="H171" s="73"/>
-      <c r="I171" s="73"/>
-      <c r="J171" s="73"/>
-      <c r="K171" s="77"/>
-      <c r="L171" s="73"/>
-      <c r="M171" s="73"/>
-      <c r="N171" s="73"/>
-      <c r="O171" s="73"/>
-      <c r="P171" s="73"/>
-      <c r="Q171" s="73"/>
-      <c r="R171" s="73"/>
-      <c r="S171" s="73"/>
+      <c r="A171" s="72"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="72"/>
+      <c r="E171" s="72"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="72"/>
+      <c r="H171" s="72"/>
+      <c r="I171" s="72"/>
+      <c r="J171" s="72"/>
+      <c r="K171" s="76"/>
+      <c r="L171" s="72"/>
+      <c r="M171" s="72"/>
+      <c r="N171" s="72"/>
+      <c r="O171" s="72"/>
+      <c r="P171" s="72"/>
+      <c r="Q171" s="72"/>
+      <c r="R171" s="72"/>
+      <c r="S171" s="72"/>
     </row>
     <row r="172" spans="1:19" ht="21" customHeight="1">
-      <c r="A172" s="73"/>
-      <c r="B172" s="73"/>
-      <c r="C172" s="73"/>
-      <c r="D172" s="73"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="73"/>
-      <c r="I172" s="73"/>
-      <c r="J172" s="73"/>
-      <c r="K172" s="77"/>
-      <c r="L172" s="73"/>
-      <c r="M172" s="73"/>
-      <c r="N172" s="73"/>
-      <c r="O172" s="73"/>
-      <c r="P172" s="73"/>
-      <c r="Q172" s="73"/>
-      <c r="R172" s="73"/>
-      <c r="S172" s="73"/>
+      <c r="A172" s="72"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="76"/>
+      <c r="L172" s="72"/>
+      <c r="M172" s="72"/>
+      <c r="N172" s="72"/>
+      <c r="O172" s="72"/>
+      <c r="P172" s="72"/>
+      <c r="Q172" s="72"/>
+      <c r="R172" s="72"/>
+      <c r="S172" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI8"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" s="64" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+    </row>
+    <row r="2" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="69">
+        <v>530</v>
+      </c>
+      <c r="D2" s="69">
+        <v>559</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="69">
+        <v>348</v>
+      </c>
+      <c r="D3" s="69">
+        <v>359</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="69">
+        <v>241</v>
+      </c>
+      <c r="D4" s="69">
+        <v>248</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="69">
+        <v>206</v>
+      </c>
+      <c r="D5" s="69">
+        <v>214</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="69">
+        <v>130</v>
+      </c>
+      <c r="D6" s="69">
+        <v>138</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O6" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="69">
+        <v>55</v>
+      </c>
+      <c r="D7" s="69">
+        <v>106</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="69">
+        <v>15</v>
+      </c>
+      <c r="D8" s="69">
+        <v>25</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -23520,26 +23968,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -28007,26 +28455,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
       <c r="S1" s="1"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="388">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1431,6 +1431,30 @@
     <t>17844</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>16978</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16975</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板13黄板1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16977</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16974</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16973</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -23464,10 +23488,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI8"/>
+  <dimension ref="A1:BI13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23933,9 +23957,255 @@
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
     </row>
+    <row r="9" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="69">
+        <v>430</v>
+      </c>
+      <c r="D9" s="69">
+        <v>440</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O9" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="69">
+        <v>225</v>
+      </c>
+      <c r="D10" s="69">
+        <v>235</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O10" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+    </row>
+    <row r="11" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="69">
+        <v>308</v>
+      </c>
+      <c r="D11" s="69">
+        <v>318</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O11" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+    </row>
+    <row r="12" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="69">
+        <v>140</v>
+      </c>
+      <c r="D12" s="69">
+        <v>148</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+    </row>
+    <row r="13" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="65">
+        <v>43214</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="69">
+        <v>53</v>
+      </c>
+      <c r="D13" s="69">
+        <v>105</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/4月报表/4月搬仓报表.xlsx
+++ b/4月报表/4月搬仓报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\weiwei\4月报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4A959A43-5FF9-42BA-A745-6E02A36195C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月2日" sheetId="3" r:id="rId1"/>
@@ -24,17 +30,18 @@
     <sheet name="4-23" sheetId="15" r:id="rId15"/>
     <sheet name="4-24" sheetId="16" r:id="rId16"/>
     <sheet name="4-25" sheetId="17" r:id="rId17"/>
+    <sheet name="4-26" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'4-22'!$A$1:$S$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月2日'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="416">
   <si>
     <t>武汉威伟机械2018年4月份拣摆渡行车日志 （分拣摆渡）</t>
   </si>
@@ -1455,11 +1462,112 @@
     <t>16973</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>16405</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16406</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>814782</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>814784</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16402</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZM718</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买富良</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16246</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16427</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16428</t>
+  </si>
+  <si>
+    <t>16429</t>
+  </si>
+  <si>
+    <t>16430</t>
+  </si>
+  <si>
+    <t>16431</t>
+  </si>
+  <si>
+    <t>16432</t>
+  </si>
+  <si>
+    <t>16433</t>
+  </si>
+  <si>
+    <t>鄂ANT227</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16378</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16379</t>
+  </si>
+  <si>
+    <t>16382</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16383</t>
+  </si>
+  <si>
+    <t>16384</t>
+  </si>
+  <si>
+    <t>16385</t>
+  </si>
+  <si>
+    <t>16386</t>
+  </si>
+  <si>
+    <t>16388</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AVS401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡明星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
@@ -2043,40 +2151,48 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 2 2 2" xfId="21"/>
-    <cellStyle name="常规 2 2 3" xfId="24"/>
-    <cellStyle name="常规 2 3" xfId="8"/>
-    <cellStyle name="常规 2 3 2" xfId="16"/>
-    <cellStyle name="常规 2 4" xfId="12"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 3 2" xfId="9"/>
-    <cellStyle name="常规 3 2 2" xfId="17"/>
-    <cellStyle name="常规 3 3" xfId="13"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 4 2" xfId="14"/>
-    <cellStyle name="常规 5" xfId="7"/>
-    <cellStyle name="常规 5 2" xfId="15"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 7" xfId="10"/>
-    <cellStyle name="常规 7 2" xfId="22"/>
-    <cellStyle name="常规 7 3" xfId="25"/>
-    <cellStyle name="常规 8" xfId="11"/>
-    <cellStyle name="常规 8 2" xfId="20"/>
-    <cellStyle name="常规 8 3" xfId="19"/>
-    <cellStyle name="常规 9" xfId="1"/>
-    <cellStyle name="常规 9 2" xfId="18"/>
-    <cellStyle name="常规 9 2 2" xfId="23"/>
-    <cellStyle name="常规 9 2 3" xfId="26"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 7 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 7 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 8 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 9 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 9 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 9 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2118,7 +2234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2150,9 +2266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2184,6 +2318,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2359,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -4215,7 +4367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5856,7 +6008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -6157,7 +6309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
@@ -15766,7 +15918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -17223,7 +17375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BI26"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -18305,7 +18457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BI22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -19503,11 +19655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:BI172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23487,11 +23639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:BI57"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23616,7 +23768,7 @@
     </row>
     <row r="2" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>274</v>
@@ -23665,7 +23817,7 @@
     </row>
     <row r="3" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>274</v>
@@ -23714,7 +23866,7 @@
     </row>
     <row r="4" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>274</v>
@@ -23763,7 +23915,7 @@
     </row>
     <row r="5" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>274</v>
@@ -23812,7 +23964,7 @@
     </row>
     <row r="6" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>274</v>
@@ -23861,7 +24013,7 @@
     </row>
     <row r="7" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>375</v>
@@ -23910,7 +24062,7 @@
     </row>
     <row r="8" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>375</v>
@@ -23959,7 +24111,7 @@
     </row>
     <row r="9" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B9" s="66" t="s">
         <v>274</v>
@@ -24008,7 +24160,7 @@
     </row>
     <row r="10" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B10" s="66" t="s">
         <v>274</v>
@@ -24057,7 +24209,7 @@
     </row>
     <row r="11" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>274</v>
@@ -24106,7 +24258,7 @@
     </row>
     <row r="12" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B12" s="66" t="s">
         <v>274</v>
@@ -24155,7 +24307,7 @@
     </row>
     <row r="13" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="65">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>274</v>
@@ -24201,6 +24353,3810 @@
       <c r="Q13" s="70"/>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1105</v>
+      </c>
+      <c r="D14" s="69">
+        <v>1135</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+    </row>
+    <row r="15" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="69">
+        <v>26</v>
+      </c>
+      <c r="D15" s="69">
+        <v>115</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="16" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="69">
+        <v>142</v>
+      </c>
+      <c r="D16" s="69">
+        <v>156</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="70">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="69">
+        <v>229</v>
+      </c>
+      <c r="D17" s="69">
+        <v>240</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="70"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+    </row>
+    <row r="18" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="69">
+        <v>2210</v>
+      </c>
+      <c r="D18" s="69">
+        <v>2225</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" s="70"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O18" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="70">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="69">
+        <v>2045</v>
+      </c>
+      <c r="D19" s="69">
+        <v>2131</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O19" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+    </row>
+    <row r="20" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="69">
+        <v>2315</v>
+      </c>
+      <c r="D20" s="69">
+        <v>2325</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="J20" s="70"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O20" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+    </row>
+    <row r="21" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="69">
+        <v>20</v>
+      </c>
+      <c r="D21" s="69">
+        <v>28</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="J21" s="70"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O21" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+    </row>
+    <row r="22" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="69">
+        <v>51</v>
+      </c>
+      <c r="D22" s="69">
+        <v>113</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="J22" s="70"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N22" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O22" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+    </row>
+    <row r="23" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="69">
+        <v>135</v>
+      </c>
+      <c r="D23" s="69">
+        <v>144</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O23" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+    </row>
+    <row r="24" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="69">
+        <v>207</v>
+      </c>
+      <c r="D24" s="69">
+        <v>211</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J24" s="70"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P24" s="70">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+    </row>
+    <row r="25" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="69">
+        <v>245</v>
+      </c>
+      <c r="D25" s="69">
+        <v>257</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="J25" s="70"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O25" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P25" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+    </row>
+    <row r="26" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="69">
+        <v>320</v>
+      </c>
+      <c r="D26" s="69">
+        <v>330</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O26" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+    </row>
+    <row r="27" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="69">
+        <v>403</v>
+      </c>
+      <c r="D27" s="69">
+        <v>412</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N27" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O27" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+    </row>
+    <row r="28" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="69">
+        <v>2313</v>
+      </c>
+      <c r="D28" s="69">
+        <v>2335</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="J28" s="70"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O28" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+    </row>
+    <row r="29" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="69">
+        <v>17</v>
+      </c>
+      <c r="D29" s="69">
+        <v>34</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="70"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O29" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+    </row>
+    <row r="30" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="69">
+        <v>124</v>
+      </c>
+      <c r="D30" s="69">
+        <v>138</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="J30" s="70"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+    </row>
+    <row r="31" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="69">
+        <v>159</v>
+      </c>
+      <c r="D31" s="69">
+        <v>204</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="J31" s="70"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O31" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P31" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+    </row>
+    <row r="32" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="69">
+        <v>236</v>
+      </c>
+      <c r="D32" s="69">
+        <v>247</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J32" s="70"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O32" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+    </row>
+    <row r="33" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="69">
+        <v>308</v>
+      </c>
+      <c r="D33" s="69">
+        <v>316</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" s="74" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="70"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O33" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P33" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+    </row>
+    <row r="34" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="69">
+        <v>347</v>
+      </c>
+      <c r="D34" s="69">
+        <v>356</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" s="70"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O34" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+    </row>
+    <row r="35" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="69">
+        <v>510</v>
+      </c>
+      <c r="D35" s="69">
+        <v>517</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="J35" s="70"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M35" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O35" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+    </row>
+    <row r="36" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+    </row>
+    <row r="37" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+    </row>
+    <row r="38" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+    </row>
+    <row r="39" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+    </row>
+    <row r="40" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+    </row>
+    <row r="41" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+    </row>
+    <row r="42" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+    </row>
+    <row r="43" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+    </row>
+    <row r="44" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+    </row>
+    <row r="45" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+    </row>
+    <row r="46" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+    </row>
+    <row r="47" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+    </row>
+    <row r="48" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+    </row>
+    <row r="49" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+    </row>
+    <row r="50" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+    </row>
+    <row r="51" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+    </row>
+    <row r="52" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+    </row>
+    <row r="53" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+    </row>
+    <row r="54" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+    </row>
+    <row r="55" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A55" s="65"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+    </row>
+    <row r="56" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+    </row>
+    <row r="57" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A57" s="65"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFE6FB4-D81B-41EB-BFFA-32B49545281A}">
+  <dimension ref="A1:BI57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="38" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" s="64" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+    </row>
+    <row r="2" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="69">
+        <v>530</v>
+      </c>
+      <c r="D2" s="69">
+        <v>559</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="69">
+        <v>348</v>
+      </c>
+      <c r="D3" s="69">
+        <v>359</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="69">
+        <v>241</v>
+      </c>
+      <c r="D4" s="69">
+        <v>248</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="69">
+        <v>206</v>
+      </c>
+      <c r="D5" s="69">
+        <v>214</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="69">
+        <v>130</v>
+      </c>
+      <c r="D6" s="69">
+        <v>138</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="69">
+        <v>55</v>
+      </c>
+      <c r="D7" s="69">
+        <v>106</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="69">
+        <v>15</v>
+      </c>
+      <c r="D8" s="69">
+        <v>25</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+    </row>
+    <row r="9" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="69">
+        <v>430</v>
+      </c>
+      <c r="D9" s="69">
+        <v>440</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O9" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="69">
+        <v>225</v>
+      </c>
+      <c r="D10" s="69">
+        <v>235</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O10" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+    </row>
+    <row r="11" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="69">
+        <v>308</v>
+      </c>
+      <c r="D11" s="69">
+        <v>318</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O11" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+    </row>
+    <row r="12" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="69">
+        <v>140</v>
+      </c>
+      <c r="D12" s="69">
+        <v>148</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+    </row>
+    <row r="13" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="69">
+        <v>53</v>
+      </c>
+      <c r="D13" s="69">
+        <v>105</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1105</v>
+      </c>
+      <c r="D14" s="69">
+        <v>1135</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+    </row>
+    <row r="15" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="69">
+        <v>26</v>
+      </c>
+      <c r="D15" s="69">
+        <v>115</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="16" spans="1:61" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="69">
+        <v>142</v>
+      </c>
+      <c r="D16" s="69">
+        <v>156</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="70">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="69">
+        <v>229</v>
+      </c>
+      <c r="D17" s="69">
+        <v>240</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="70"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+    </row>
+    <row r="18" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="69">
+        <v>2210</v>
+      </c>
+      <c r="D18" s="69">
+        <v>2225</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" s="70"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O18" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="70">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="69">
+        <v>2045</v>
+      </c>
+      <c r="D19" s="69">
+        <v>2131</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="O19" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+    </row>
+    <row r="20" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="69">
+        <v>2315</v>
+      </c>
+      <c r="D20" s="69">
+        <v>2325</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="J20" s="70"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O20" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+    </row>
+    <row r="21" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="69">
+        <v>20</v>
+      </c>
+      <c r="D21" s="69">
+        <v>28</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="J21" s="70"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O21" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+    </row>
+    <row r="22" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="69">
+        <v>51</v>
+      </c>
+      <c r="D22" s="69">
+        <v>113</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="J22" s="70"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N22" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O22" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+    </row>
+    <row r="23" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="69">
+        <v>135</v>
+      </c>
+      <c r="D23" s="69">
+        <v>144</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O23" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+    </row>
+    <row r="24" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="69">
+        <v>207</v>
+      </c>
+      <c r="D24" s="69">
+        <v>211</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J24" s="70"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P24" s="70">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+    </row>
+    <row r="25" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="69">
+        <v>245</v>
+      </c>
+      <c r="D25" s="69">
+        <v>257</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="J25" s="70"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O25" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P25" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+    </row>
+    <row r="26" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="69">
+        <v>320</v>
+      </c>
+      <c r="D26" s="69">
+        <v>330</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O26" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+    </row>
+    <row r="27" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="69">
+        <v>403</v>
+      </c>
+      <c r="D27" s="69">
+        <v>412</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="N27" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="O27" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+    </row>
+    <row r="28" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="69">
+        <v>2313</v>
+      </c>
+      <c r="D28" s="69">
+        <v>2335</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="J28" s="70"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O28" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+    </row>
+    <row r="29" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="69">
+        <v>17</v>
+      </c>
+      <c r="D29" s="69">
+        <v>34</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="70"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O29" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+    </row>
+    <row r="30" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="69">
+        <v>124</v>
+      </c>
+      <c r="D30" s="69">
+        <v>138</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="J30" s="70"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+    </row>
+    <row r="31" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="69">
+        <v>159</v>
+      </c>
+      <c r="D31" s="69">
+        <v>204</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="J31" s="70"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O31" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P31" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+    </row>
+    <row r="32" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="69">
+        <v>236</v>
+      </c>
+      <c r="D32" s="69">
+        <v>247</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J32" s="70"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O32" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+    </row>
+    <row r="33" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="69">
+        <v>308</v>
+      </c>
+      <c r="D33" s="69">
+        <v>316</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" s="74" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="70"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O33" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P33" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+    </row>
+    <row r="34" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="69">
+        <v>347</v>
+      </c>
+      <c r="D34" s="69">
+        <v>356</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" s="70"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O34" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+    </row>
+    <row r="35" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="65">
+        <v>43215</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="69">
+        <v>510</v>
+      </c>
+      <c r="D35" s="69">
+        <v>517</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="J35" s="70"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="M35" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="O35" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35" s="70">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+    </row>
+    <row r="36" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+    </row>
+    <row r="37" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+    </row>
+    <row r="38" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+    </row>
+    <row r="39" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+    </row>
+    <row r="40" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+    </row>
+    <row r="41" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+    </row>
+    <row r="42" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+    </row>
+    <row r="43" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+    </row>
+    <row r="44" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+    </row>
+    <row r="45" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+    </row>
+    <row r="46" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+    </row>
+    <row r="47" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+    </row>
+    <row r="48" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+    </row>
+    <row r="49" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+    </row>
+    <row r="50" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+    </row>
+    <row r="51" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+    </row>
+    <row r="52" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+    </row>
+    <row r="53" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+    </row>
+    <row r="54" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+    </row>
+    <row r="55" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A55" s="65"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+    </row>
+    <row r="56" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A56" s="65"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+    </row>
+    <row r="57" spans="1:19" s="71" customFormat="1" ht="21" customHeight="1">
+      <c r="A57" s="65"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -24210,7 +28166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28696,7 +32652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -31776,7 +35732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI29"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -34095,7 +38051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BI26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36110,7 +40066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37698,7 +41654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38725,7 +42681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -38957,7 +42913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
